--- a/DFS_LIST.XLSX
+++ b/DFS_LIST.XLSX
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="392">
   <si>
     <t>Product ID</t>
   </si>
@@ -83,894 +83,978 @@
     <t>LAT 5310 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i5Q (i5-10310U) 1.70GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
-    <t>lenovo-thinkcentre-m720q-mff-no-os-000003</t>
+    <t>lenovo-thinkcentre-m720q-mff-000007</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkCentre M720Q MFF</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-8500T (6-Core, 2.10 GHz)</t>
+  </si>
+  <si>
+    <t>TKC M720Q MFF STD 1x i56C (i5-8500T) 2.10GHz 8GB 500GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5310-touch-000044</t>
+  </si>
+  <si>
+    <t>LAT 5310 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i5Q (i5-10310U) 1.70GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>microsoft-surface-laptop-3-touch-no-os-000020</t>
+  </si>
+  <si>
+    <t>Microsoft Surface Laptop 3 Touch - No OS</t>
+  </si>
+  <si>
+    <t>1x Intel Core i7-1065G7 (4-Core, 1.30 GHz)</t>
+  </si>
+  <si>
+    <t>No Operating System</t>
+  </si>
+  <si>
+    <t>16 GB (2x 8GB)</t>
+  </si>
+  <si>
+    <t>SUR Laptop 3 NB STD 13.5-in (2256 x 1504) TCH CAM 1x i7Q (i7-1065G7) 1.30GHz 16GB 256GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>dell-latitude-3420-000044</t>
+  </si>
+  <si>
+    <t>Dell Latitude 3420</t>
+  </si>
+  <si>
+    <t>1x Intel Core i3-1005G1 (2-Core, 3.40 GHz)</t>
+  </si>
+  <si>
+    <t>Windows 11 Pro</t>
+  </si>
+  <si>
+    <t>LAT 3420 NB STD 14-in (1366 x 768) NoTCH CAM 1x i3 (i3-1005G1) 3.40GHz 8GB 256GB NoOPT 32MB BkLIT W11P64</t>
+  </si>
+  <si>
+    <t>dell-wyse-5070-usff-no-os-000005</t>
+  </si>
+  <si>
+    <t>Dell WYSE 5070 USFF - No OS</t>
+  </si>
+  <si>
+    <t>1x Intel Pentium J5005 (4-Core, 1.50 GHz)</t>
+  </si>
+  <si>
+    <t>8 GB (2x 4GB)</t>
+  </si>
+  <si>
+    <t>WYSE 5070 USFF STD 1x PQC (J5005) 1.50GHz 8GB 64GB NoOPT 32MB  NoOS</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3060-sff-000213</t>
+  </si>
+  <si>
+    <t>Dell OptiPlex 3060 SFF</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-8500 (6-Core, 3.00 GHz)</t>
+  </si>
+  <si>
+    <t>OPT 3060 SFF STD 1x i56C (i5-8500) 3.00GHz 16GB 1024GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5400-touch-000083</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5400 Touch</t>
+  </si>
+  <si>
+    <t>1x Intel Core i7-8665U (4-Core, 1.90 GHz)</t>
+  </si>
+  <si>
+    <t>LAT 5400 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-8665U) 1.90GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-5070-sff-000255</t>
+  </si>
+  <si>
+    <t>Dell OptiPlex 5070 SFF</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-9600 (6-Core, 3.10 GHz)</t>
+  </si>
+  <si>
+    <t>OPT 5070 SFF STD 1x i56C (i5-9600) 3.10GHz 16GB 512GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>lenovo-thinkbook-14s-yoga-touch-no-os-000005</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkBook 14s Yoga Touch - No OS</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-1135G7 (4-Core, 2.40 GHz)</t>
+  </si>
+  <si>
+    <t>TKB 14s Yoga NB STD 14-in (1920 x 1080) TCH CAM 1x i5Q (i5-1135G7) 2.40GHz 8GB 256GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>dell-optiplex-5090-sff-000079</t>
+  </si>
+  <si>
+    <t>Dell OptiPlex 5090 SFF</t>
+  </si>
+  <si>
+    <t>1x Intel Core i3-10105 (4-Core, 3.70 GHz)</t>
+  </si>
+  <si>
+    <t>OPT 5090 SFF STD 1x i3Q (i3-10105) 3.70GHz 16GB 128GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7320-touch-000026</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7320 Touch</t>
+  </si>
+  <si>
+    <t>1x Intel Core i7-1185G7 (4-Core, 3.00 GHz)</t>
+  </si>
+  <si>
+    <t>LAT 7320 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W11P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5320-touch-000115</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5320 Touch</t>
+  </si>
+  <si>
+    <t>32 GB (1x 32GB)</t>
+  </si>
+  <si>
+    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>microsoft-surface-laptop-4-touch-no-os-000004</t>
+  </si>
+  <si>
+    <t>Microsoft Surface Laptop 4 Touch - No OS</t>
+  </si>
+  <si>
+    <t>SUR Laptop 4 NB STD 13.5-in (2256 x 1504) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-t14-no-os-000016</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad T14 - No OS</t>
+  </si>
+  <si>
+    <t>1x AMD Ryzen 7 5850U (8-Core, 1.90 GHz)</t>
+  </si>
+  <si>
+    <t>TKP T14 NB STD 14-in (1920 x 1080) NoTCH CAM 1x RYZ7 (5850U) 1.90GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>dell-latitude-7320-000162</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7320</t>
+  </si>
+  <si>
+    <t>LAT 7320 NB STD 13.3-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3060-sff-000190</t>
+  </si>
+  <si>
+    <t>OPT 3060 SFF STD 1x i56C (i5-8500) 3.00GHz 16GB 512GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-7070-sff-000230</t>
+  </si>
+  <si>
+    <t>Dell OptiPlex 7070 SFF</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-9500 (6-Core, 3.00 GHz)</t>
+  </si>
+  <si>
+    <t>OPT 7070 SFF STD 1x i56C (i5-9500) 3.00GHz 8GB 256GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-touch-000059</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7420 Touch</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-1145G7 (4-Core, 2.60 GHz)</t>
+  </si>
+  <si>
+    <t>64-bit Windows 10 Professional</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-e14-gen-2-no-os-000004</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad E14 Gen 2 - No OS</t>
+  </si>
+  <si>
+    <t>1x Intel Core i7-1165G7 (4-Core, 2.80 GHz)</t>
+  </si>
+  <si>
+    <t>TKP E14 Gen 2 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1165G7) 2.80GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-touch-000058</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5420 Touch</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3070-mff-000164</t>
+  </si>
+  <si>
+    <t>dell-latitude-5520-touch-000026</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5520 Touch</t>
+  </si>
+  <si>
+    <t>LAT 5520 NB STD 15.6-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-3410-000024</t>
+  </si>
+  <si>
+    <t>Dell Latitude 3410</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-10210U (4-Core, 1.60 GHz)</t>
+  </si>
+  <si>
+    <t>LAT 3410 NB STD 14-in (1366 x 768) NoTCH CAM 1x i5Q (i5-10210U) 1.60GHz 8GB 256GB NoOPT 32MB NoBkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-precision-3561-000089</t>
+  </si>
+  <si>
+    <t>Dell Precision 3561</t>
+  </si>
+  <si>
+    <t>1x Intel Core i7-11850H (8-Core, 2.50 GHz)</t>
+  </si>
+  <si>
+    <t>PRE 3561 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i78C (i7-11850H) 2.50GHz 16GB 512GB NoOPT 4GB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-000282</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7420</t>
+  </si>
+  <si>
+    <t>LAT 7420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3090-mff-000030</t>
+  </si>
+  <si>
+    <t>Dell OptiPlex 3090 MFF</t>
+  </si>
+  <si>
+    <t>1x Intel Core i3-10105T (4-Core, 3.00 GHz)</t>
+  </si>
+  <si>
+    <t>OPT 3090 MFF STD 1x i3 (i3-10105T) 3.00GHz 8GB 256GB NoOPT 32MB  W11P64</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-t14-no-os-000013</t>
+  </si>
+  <si>
+    <t>TKP T14 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10210U) 1.60GHz 8GB 256GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-t14-no-os-000015</t>
+  </si>
+  <si>
+    <t>lenovo-thinkbook-14s-yoga-touch-no-os-000008</t>
+  </si>
+  <si>
+    <t>microsoft-surface-laptop-4-touch-no-os-000006</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3090-mff-000034</t>
+  </si>
+  <si>
+    <t>1x Intel Core i3-10100T (4-Core, 3.00 GHz)</t>
+  </si>
+  <si>
+    <t>OPT 3090 MFF STD 1x i3Q (i3-10100T) 3.00GHz 8GB 128GB NoOPT 32MB  W11P64</t>
+  </si>
+  <si>
+    <t>lenovo-thinkcentre-m720q-mff-000003</t>
+  </si>
+  <si>
+    <t>1x Intel Core i3-8100T (4-Core, 3.10 GHz)</t>
+  </si>
+  <si>
+    <t>TKC M720Q MFF STD 1x i3Q (i3-8100T) 3.10GHz 8GB 500GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3070-mff-000112</t>
+  </si>
+  <si>
+    <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 8GB 256GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3060-sff-000191</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3070-sff-000168</t>
+  </si>
+  <si>
+    <t>Dell OptiPlex 3070 SFF</t>
+  </si>
+  <si>
+    <t>OPT 3070 SFF STD 1x i56C (i5-9500) 3.00GHz 8GB 512GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3070-mff-000123</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3070-sff-000241</t>
+  </si>
+  <si>
+    <t>OPT 3070 SFF STD 1x i56C (i5-9500) 3.00GHz 16GB 512GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5400-000493</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5400</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-8365U (4-Core, 1.60 GHz)</t>
+  </si>
+  <si>
+    <t>LAT 5400 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-8365U) 1.60GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7400-2-in-1-touch-000081</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7400 2-in-1 Touch</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-8265U (4-Core, 1.60 GHz)</t>
+  </si>
+  <si>
+    <t>LAT 7400 2-in-1 2N1 STD 1x i5Q (i5-8265U) 1.60GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5400-000498</t>
+  </si>
+  <si>
+    <t>dell-latitude-5490-000607</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5490</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-7300U (2-Core, 2.60 GHz)</t>
+  </si>
+  <si>
+    <t>LAT 5490 NB STD 14-in (1366 x 768) NoTCH CAM 1x i5 (i5-7300U) 2.60GHz 8GB 500GB NoOPT 32MB NoBkLIT W10P64</t>
+  </si>
+  <si>
+    <t>hp-zbook-15-g7-firefly-no-os-000001</t>
+  </si>
+  <si>
+    <t>HP Zbook 15 G7 FIREFLY - No OS</t>
+  </si>
+  <si>
+    <t>ZBK 15 G7 FIREFLY NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10210U) 1.60GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>dell-latitude-5400-000510</t>
+  </si>
+  <si>
+    <t>LAT 5400 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-8265U) 1.60GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5310-touch-000045</t>
+  </si>
+  <si>
+    <t>32 GB (2x 16GB)</t>
+  </si>
+  <si>
+    <t>LAT 5310 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i5Q (i5-10310U) 1.70GHz 32GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-t14-no-os-000010</t>
+  </si>
+  <si>
+    <t>1x Intel Core i7-10610U (4-Core, 1.80 GHz)</t>
+  </si>
+  <si>
+    <t>TKP T14 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-10610U) 1.80GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>dell-latitude-5490-touch-000055</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5490 Touch</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-8350U (4-Core, 1.70 GHz)</t>
+  </si>
+  <si>
+    <t>LAT 5490 NB STD 14-in (1920 x 1080) TCH CAM 1x i5Q (i5-8350U) 1.70GHz 8GB 500GB NoOPT 32MB NoBkLIT W10P64</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-t14-no-os-000012</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000420</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5420</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1135G7) 2.40GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000431</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5410-000457</t>
+  </si>
+  <si>
+    <t>LAT 5410 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10310U) 1.70GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000440</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB NoBkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3080-sff-000144</t>
+  </si>
+  <si>
+    <t>Dell OptiPlex 3080 SFF</t>
+  </si>
+  <si>
+    <t>1x Intel Celeron G5900 (2-Core, 3.40 GHz)</t>
+  </si>
+  <si>
+    <t>24 GB (1x 8GB, 1x 16GB)</t>
+  </si>
+  <si>
+    <t>OPT 3080 SFF STD 1x CDC (G5900) 3.40GHz 24GB 256GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-3420-000030</t>
+  </si>
+  <si>
+    <t>LAT 3420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1135G7) 2.40GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3070-mff-000162</t>
+  </si>
+  <si>
+    <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 16GB 500GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3070-mff-000165</t>
+  </si>
+  <si>
+    <t>12 GB (1x 4GB, 1x 8GB)</t>
+  </si>
+  <si>
+    <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 12GB 256GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3070-mff-000166</t>
+  </si>
+  <si>
+    <t>dell-optiplex-7070-sff-000278</t>
+  </si>
+  <si>
+    <t>OPT 7070 SFF STD 1x i56C (i5-9500) 3.00GHz 8GB 128GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3070-mff-000167</t>
+  </si>
+  <si>
+    <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 16GB 256GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3070-mff-000169</t>
+  </si>
+  <si>
+    <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 8GB 512GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5310-touch-000049</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-p1-gen-4-no-os-000001</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad P1 Gen 4 - No OS</t>
+  </si>
+  <si>
+    <t>TKP P1 Gen 4 NB STD 16-in (2560 x 1600) NoTCH CAM 1x i78C (i7-11850H) 2.50GHz 32GB 1024GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-x1-carbon-8th-gen-000005</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad X1 Carbon 8th Gen</t>
+  </si>
+  <si>
+    <t>TKP X1 Carbon 8th Gen NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-10610U) 1.80GHz 16GB 1024GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7320-detachable-000064</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7320 Detachable</t>
+  </si>
+  <si>
+    <t>1x Intel Core I7-1180G7 (4-Core, 2.20 GHz)</t>
+  </si>
+  <si>
+    <t>16 GB</t>
+  </si>
+  <si>
+    <t>LAT 7320 Detachable TAB STD 13.3-in (1920 x 1280) 1x i7Q (I7-1180G7) 2.20GHz 16GB 256GB W10P0</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-t490-20ny-000009</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad T490 (20NY)</t>
+  </si>
+  <si>
+    <t>TKP 20NY NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-8365U) 1.60GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3080-sff-000150</t>
+  </si>
+  <si>
+    <t>OPT 3080 SFF STD 1x CDC (G5900) 3.40GHz 32GB 500GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3080-sff-000152</t>
+  </si>
+  <si>
+    <t>OPT 3080 SFF STD 1x CDC (G5900) 3.40GHz 8GB 500GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5421-000064</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5421</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-11500H (6-Core, 2.90 GHz)</t>
+  </si>
+  <si>
+    <t>LAT 5421 NB STD 14-in (1366 x 768) NoTCH CAM 1x i56C (i5-11500H) 2.90GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5520-000208</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5520</t>
+  </si>
+  <si>
+    <t>LAT 5520 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5410-000486</t>
+  </si>
+  <si>
+    <t>LAT 5410 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10210U) 1.60GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-000260</t>
+  </si>
+  <si>
+    <t>LAT 7420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 256GB NoOPT 32MB BkLIT W11P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7320-detachable-000069</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-1140G7 (4-Core, 1.80 GHz)</t>
+  </si>
+  <si>
+    <t>LAT 7320 Detachable TAB STD 13.3-in (1920 x 1280) 1x i5Q (i5-1140G7) 1.80GHz 16GB 512GB W11P0</t>
+  </si>
+  <si>
+    <t>dell-precision-5560-000205</t>
+  </si>
+  <si>
+    <t>Dell Precision 5560</t>
+  </si>
+  <si>
+    <t>PRE 5560 NB STD 15.6-in (1920 x 1200) NoTCH CAM 1x i78C (i7-11850H) 2.50GHz 32GB 1024GB NoOPT 4GB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5520-000211</t>
+  </si>
+  <si>
+    <t>LAT 5520 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000522</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1165G7) 2.80GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7410-touch-000079</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7410 Touch</t>
+  </si>
+  <si>
+    <t>LAT 7410 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-10610U) 1.80GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-9410-2-in-1-touch-000017</t>
+  </si>
+  <si>
+    <t>Dell Latitude 9410 2-In-1 Touch</t>
+  </si>
+  <si>
+    <t>LAT 9410 2-In-1 2N1 STD 1x i7Q (i7-10610U) 1.80GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5320-touch-000124</t>
+  </si>
+  <si>
+    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5410-000493</t>
+  </si>
+  <si>
+    <t>LAT 5410 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10310U) 1.70GHz 8GB 256GB NoOPT 32MB NoBkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-precision-5760-000028</t>
+  </si>
+  <si>
+    <t>Dell Precision 5760</t>
+  </si>
+  <si>
+    <t>PRE 5760 NB STD 17-in (1920 x 1200) NoTCH CAM 1x i78C (i7-11850H) 2.50GHz 16GB 256GB NoOPT 4GB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-3410-000025</t>
+  </si>
+  <si>
+    <t>1x Intel Core i3-10110U (2-Core, 2.10 GHz)</t>
+  </si>
+  <si>
+    <t>LAT 3410 NB STD 14-in (1366 x 768) NoTCH CAM 1x i3 (i3-10110U) 2.10GHz 8GB 256GB NoOPT 32MB NoBkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-precision-5560-000219</t>
+  </si>
+  <si>
+    <t>PRE 5560 NB STD 15.6-in (1920 x 1200) NoTCH CAM 1x i78C (i7-11850H) 2.50GHz 16GB 256GB NoOPT 4GB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5320-000210</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5320</t>
+  </si>
+  <si>
+    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB NoBkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-touch-000116</t>
+  </si>
+  <si>
+    <t>LAT 7420 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W11P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5510-000215</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5510</t>
+  </si>
+  <si>
+    <t>LAT 5510 NB STD 15.6-in (1366 x 768) NoTCH CAM 1x i5Q (i5-10310U) 1.70GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5520-000230</t>
+  </si>
+  <si>
+    <t>LAT 5520 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1135G7) 2.40GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-5040-mt-000070</t>
+  </si>
+  <si>
+    <t>Dell OptiPlex 5040 MT</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-6500 (4-Core, 3.20 GHz)</t>
+  </si>
+  <si>
+    <t>OPT 5040 MT STD 1x i5Q (i5-6500) 3.20GHz 8GB 500GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>microsoft-surface-laptop-4-touch-no-os-000005</t>
+  </si>
+  <si>
+    <t>SUR Laptop 4 NB STD 13.5-in (2256 x 1504) TCH CAM 1x i5Q (i5-1145G7) 2.60GHz 8GB 256GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>dell-latitude-5410-000495</t>
+  </si>
+  <si>
+    <t>LAT 5410 NB STD 14-in (1366 x 768) NoTCH NoCAM 1x i5Q (i5-10310U) 1.70GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-t14-no-os-000014</t>
+  </si>
+  <si>
+    <t>TKP T14 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-10610U) 1.80GHz 32GB 512GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-p1-20me-no-os-000006</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad P1 (20ME) - No OS</t>
+  </si>
+  <si>
+    <t>TKP 20ME NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-10610U) 1.80GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-x1-no-os-000009</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad X1 - No OS</t>
+  </si>
+  <si>
+    <t>1x  7-165U (12-Core, 3.80 GHz)</t>
+  </si>
+  <si>
+    <t>TKP X1 NB STD 14-in (1920 x 1080) NoTCH CAM 1x CU716C (7-165U) 3.80GHz 32GB 1024GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>microsoft-surface-pro-7-m1960-000025</t>
+  </si>
+  <si>
+    <t>Microsoft Surface Pro 7 (M1960)</t>
+  </si>
+  <si>
+    <t>SURPRO M1960 TAB STD 12.3-in (2736 x 1824) 1x i7Q (i7-1165G7) 2.80GHz 16GB 512GB W10P0</t>
+  </si>
+  <si>
+    <t>dell-latitude-7410-touch-000080</t>
+  </si>
+  <si>
+    <t>LAT 7410 NB STD 14-in (1920 x 1080) TCH CAM 1x i5Q (i5-10310U) 1.70GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5520-000235</t>
+  </si>
+  <si>
+    <t>LAT 5520 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5410-000498</t>
+  </si>
+  <si>
+    <t>LAT 5410 NB STD 14-in (1366 x 768) NoTCH CAM 1x i5Q (i5-10310U) 1.70GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-touch-000121</t>
+  </si>
+  <si>
+    <t>LAT 7420 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-3410-000027</t>
+  </si>
+  <si>
+    <t>Windows 10 Home</t>
+  </si>
+  <si>
+    <t>LAT 3410 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10210U) 1.60GHz 8GB 512GB NoOPT 32MB BkLIT W10H64</t>
+  </si>
+  <si>
+    <t>dell-latitude-9510-touch-000015</t>
+  </si>
+  <si>
+    <t>Dell Latitude 9510 Touch</t>
+  </si>
+  <si>
+    <t>1x Intel Core i7-10710U (6-Core, 1.10 GHz)</t>
+  </si>
+  <si>
+    <t>LAT 9510 2N1 STD 1x i76C (i7-10710U) 1.10GHz 16GB 1024GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-xps-15-9510-000039</t>
+  </si>
+  <si>
+    <t>Dell XPS 15 (9510)</t>
+  </si>
+  <si>
+    <t>1x Intel Core i9-11900H (8-Core, 2.50 GHz)</t>
+  </si>
+  <si>
+    <t>XPS 9510 NB SLV 15.6-in (1920 x 1200) NoTCH CAM 1x i98C (i9-11900H) 2.50GHz 32GB 512GB NoOPT 4GB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-precision-7550-000417</t>
+  </si>
+  <si>
+    <t>Dell Precision 7550</t>
+  </si>
+  <si>
+    <t>1x Intel Core i7-10850H (6-Core, 2.70 GHz)</t>
+  </si>
+  <si>
+    <t>32 GB (4x 8GB)</t>
+  </si>
+  <si>
+    <t>PRE 7550 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i76C (i7-10850H) 2.70GHz 32GB 256GB NoOPT 4GB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5510-000217</t>
+  </si>
+  <si>
+    <t>LAT 5510 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10310U) 1.70GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7320-000157</t>
+  </si>
+  <si>
+    <t>LAT 7320 NB STD 13.3-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1135G7) 2.40GHz 16GB 256GB NoOPT 32MB BkLIT W11P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3080-sff-000160</t>
+  </si>
+  <si>
+    <t>OPT 3080 SFF STD 1x CDC (G5900) 3.40GHz 8GB 500GB NoOPT 32MB  W11P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5510-000218</t>
+  </si>
+  <si>
+    <t>LAT 5510 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10310U) 1.70GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>auction__1-060325-060325</t>
+  </si>
+  <si>
+    <t>TEST30</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3080-sff-000161</t>
+  </si>
+  <si>
+    <t>dell-optiplex-7070-sff-000284</t>
+  </si>
+  <si>
+    <t>OPT 7070 SFF STD 1x i56C (i5-9500) 3.00GHz 16GB 256GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>microsoft-suface-book-3-touch-no-os-000001</t>
+  </si>
+  <si>
+    <t>Microsoft Suface Book 3 Touch - No OS</t>
+  </si>
+  <si>
+    <t>SURBK 3 2N1 STD 1x i7Q (i7-1065G7) 1.30GHz 32GB 512GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>auction__2-060425-060625</t>
+  </si>
+  <si>
+    <t>chargeTestFinale</t>
+  </si>
+  <si>
+    <t>dell-latitude-5410-no-os-000065</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5410 - No OS</t>
+  </si>
+  <si>
+    <t>LAT 5410 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10310U) 1.70GHz 8GB 256GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>microsoft-surface-laptop-3-touch-no-os-000026</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-1035G7 (4-Core, 1.20 GHz)</t>
+  </si>
+  <si>
+    <t>SUR Laptop 3 NB STD 13.5-in (2256 x 1504) TCH CAM 1x i5 (i5-1035G7) 1.20GHz 16GB 256GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>dell-latitude-5410-000505</t>
+  </si>
+  <si>
+    <t>LAT 5410 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10310U) 1.70GHz 16GB 256GB NoOPT 32MB NoBkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7410-000212</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7410</t>
+  </si>
+  <si>
+    <t>LAT 7410 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10310U) 1.70GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3000-mff-000003</t>
+  </si>
+  <si>
+    <t>Dell OptiPlex 3000 MFF</t>
+  </si>
+  <si>
+    <t>1x Intel Core i3-12100T (4-Core, 2.20 GHz)</t>
+  </si>
+  <si>
+    <t>OPT 3000 MFF STD 1x i3Q (i3-12100T) 2.20GHz 8GB 256GB NoOPT 32MB  W11P64</t>
+  </si>
+  <si>
+    <t>microsoft-suface-book-3-touch-no-os-000003</t>
+  </si>
+  <si>
+    <t>SURBK 3 2N1 STD 1x i7Q (i7-1065G7) 1.30GHz 32GB 1024GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>dell-wyse-5070-usff-no-os-000006</t>
+  </si>
+  <si>
+    <t>dell-latitude-5410-000508</t>
+  </si>
+  <si>
+    <t>lenovo-thinkcentre-m720q-mff-no-os-000001</t>
   </si>
   <si>
     <t>Lenovo ThinkCentre M720Q MFF - No OS</t>
   </si>
   <si>
-    <t>1x Intel Core i5-8500T (6-Core, 2.10 GHz)</t>
-  </si>
-  <si>
-    <t>No Operating System</t>
-  </si>
-  <si>
-    <t>TKC M720Q MFF STD 1x i56C (i5-8500T) 2.10GHz 8GB 500GB NoOPT 32MB  NoOS</t>
-  </si>
-  <si>
-    <t>lenovo-thinkcentre-m720q-mff-000007</t>
-  </si>
-  <si>
-    <t>Lenovo ThinkCentre M720Q MFF</t>
-  </si>
-  <si>
-    <t>TKC M720Q MFF STD 1x i56C (i5-8500T) 2.10GHz 8GB 500GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5310-touch-000044</t>
-  </si>
-  <si>
-    <t>LAT 5310 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i5Q (i5-10310U) 1.70GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>microsoft-surface-laptop-3-touch-no-os-000020</t>
-  </si>
-  <si>
-    <t>Microsoft Surface Laptop 3 Touch - No OS</t>
-  </si>
-  <si>
-    <t>1x Intel Core i7-1065G7 (4-Core, 1.30 GHz)</t>
-  </si>
-  <si>
-    <t>16 GB (2x 8GB)</t>
-  </si>
-  <si>
-    <t>SUR Laptop 3 NB STD 13.5-in (2256 x 1504) TCH CAM 1x i7Q (i7-1065G7) 1.30GHz 16GB 256GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>dell-latitude-3420-000044</t>
-  </si>
-  <si>
-    <t>Dell Latitude 3420</t>
-  </si>
-  <si>
-    <t>1x Intel Core i3-1005G1 (2-Core, 3.40 GHz)</t>
-  </si>
-  <si>
-    <t>Windows 11 Pro</t>
-  </si>
-  <si>
-    <t>LAT 3420 NB STD 14-in (1366 x 768) NoTCH CAM 1x i3 (i3-1005G1) 3.40GHz 8GB 256GB NoOPT 32MB BkLIT W11P64</t>
-  </si>
-  <si>
-    <t>dell-wyse-5070-usff-no-os-000005</t>
-  </si>
-  <si>
-    <t>Dell WYSE 5070 USFF - No OS</t>
-  </si>
-  <si>
-    <t>1x Intel Pentium J5005 (4-Core, 1.50 GHz)</t>
-  </si>
-  <si>
-    <t>8 GB (2x 4GB)</t>
-  </si>
-  <si>
-    <t>WYSE 5070 USFF STD 1x PQC (J5005) 1.50GHz 8GB 64GB NoOPT 32MB  NoOS</t>
-  </si>
-  <si>
-    <t>dell-latitude-5400-touch-000083</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5400 Touch</t>
-  </si>
-  <si>
-    <t>1x Intel Core i7-8665U (4-Core, 1.90 GHz)</t>
-  </si>
-  <si>
-    <t>LAT 5400 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-8665U) 1.90GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>lenovo-thinkbook-14s-yoga-touch-no-os-000005</t>
-  </si>
-  <si>
-    <t>Lenovo ThinkBook 14s Yoga Touch - No OS</t>
-  </si>
-  <si>
-    <t>1x Intel Core i5-1135G7 (4-Core, 2.40 GHz)</t>
-  </si>
-  <si>
-    <t>TKB 14s Yoga NB STD 14-in (1920 x 1080) TCH CAM 1x i5Q (i5-1135G7) 2.40GHz 8GB 256GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>dell-optiplex-5090-sff-000079</t>
-  </si>
-  <si>
-    <t>Dell OptiPlex 5090 SFF</t>
-  </si>
-  <si>
-    <t>1x Intel Core i3-10105 (4-Core, 3.70 GHz)</t>
-  </si>
-  <si>
-    <t>OPT 5090 SFF STD 1x i3Q (i3-10105) 3.70GHz 16GB 128GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-7320-touch-000026</t>
-  </si>
-  <si>
-    <t>Dell Latitude 7320 Touch</t>
-  </si>
-  <si>
-    <t>1x Intel Core i7-1185G7 (4-Core, 3.00 GHz)</t>
-  </si>
-  <si>
-    <t>LAT 7320 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W11P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5320-touch-000115</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5320 Touch</t>
-  </si>
-  <si>
-    <t>32 GB (1x 32GB)</t>
-  </si>
-  <si>
-    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>microsoft-surface-laptop-4-touch-no-os-000004</t>
-  </si>
-  <si>
-    <t>Microsoft Surface Laptop 4 Touch - No OS</t>
-  </si>
-  <si>
-    <t>SUR Laptop 4 NB STD 13.5-in (2256 x 1504) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>dell-latitude-7320-000162</t>
-  </si>
-  <si>
-    <t>Dell Latitude 7320</t>
-  </si>
-  <si>
-    <t>LAT 7320 NB STD 13.3-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-7420-touch-000059</t>
-  </si>
-  <si>
-    <t>Dell Latitude 7420 Touch</t>
-  </si>
-  <si>
-    <t>1x Intel Core i5-1145G7 (4-Core, 2.60 GHz)</t>
-  </si>
-  <si>
-    <t>64-bit Windows 10 Professional</t>
-  </si>
-  <si>
-    <t>dell-latitude-5420-touch-000058</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5420 Touch</t>
-  </si>
-  <si>
-    <t>LAT 5420 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3070-mff-000164</t>
-  </si>
-  <si>
-    <t>dell-latitude-5520-touch-000026</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5520 Touch</t>
-  </si>
-  <si>
-    <t>LAT 5520 NB STD 15.6-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-3410-000024</t>
-  </si>
-  <si>
-    <t>Dell Latitude 3410</t>
-  </si>
-  <si>
-    <t>1x Intel Core i5-10210U (4-Core, 1.60 GHz)</t>
-  </si>
-  <si>
-    <t>LAT 3410 NB STD 14-in (1366 x 768) NoTCH CAM 1x i5Q (i5-10210U) 1.60GHz 8GB 256GB NoOPT 32MB NoBkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-precision-3561-000089</t>
-  </si>
-  <si>
-    <t>Dell Precision 3561</t>
-  </si>
-  <si>
-    <t>1x Intel Core i7-11850H (8-Core, 2.50 GHz)</t>
-  </si>
-  <si>
-    <t>PRE 3561 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i78C (i7-11850H) 2.50GHz 16GB 512GB NoOPT 4GB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-7420-000282</t>
-  </si>
-  <si>
-    <t>Dell Latitude 7420</t>
-  </si>
-  <si>
-    <t>LAT 7420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3090-mff-000030</t>
-  </si>
-  <si>
-    <t>Dell OptiPlex 3090 MFF</t>
-  </si>
-  <si>
-    <t>1x Intel Core i3-10105T (4-Core, 3.00 GHz)</t>
-  </si>
-  <si>
-    <t>OPT 3090 MFF STD 1x i3 (i3-10105T) 3.00GHz 8GB 256GB NoOPT 32MB  W11P64</t>
-  </si>
-  <si>
-    <t>lenovo-thinkpad-t14-no-os-000013</t>
-  </si>
-  <si>
-    <t>Lenovo ThinkPad T14 - No OS</t>
-  </si>
-  <si>
-    <t>TKP T14 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10210U) 1.60GHz 8GB 256GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>lenovo-thinkpad-t14-no-os-000015</t>
-  </si>
-  <si>
-    <t>1x AMD Ryzen 7 5850U (8-Core, 1.90 GHz)</t>
-  </si>
-  <si>
-    <t>TKP T14 NB STD 14-in (1920 x 1080) NoTCH CAM 1x RYZ7 (5850U) 1.90GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>lenovo-thinkbook-14s-yoga-touch-no-os-000008</t>
-  </si>
-  <si>
-    <t>microsoft-surface-laptop-4-touch-no-os-000006</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3090-mff-000034</t>
-  </si>
-  <si>
-    <t>1x Intel Core i3-10100T (4-Core, 3.00 GHz)</t>
-  </si>
-  <si>
-    <t>OPT 3090 MFF STD 1x i3Q (i3-10100T) 3.00GHz 8GB 128GB NoOPT 32MB  W11P64</t>
-  </si>
-  <si>
-    <t>lenovo-thinkcentre-m720q-mff-000003</t>
-  </si>
-  <si>
-    <t>1x Intel Core i3-8100T (4-Core, 3.10 GHz)</t>
-  </si>
-  <si>
-    <t>TKC M720Q MFF STD 1x i3Q (i3-8100T) 3.10GHz 8GB 500GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3070-mff-000112</t>
-  </si>
-  <si>
-    <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 8GB 256GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3070-mff-000123</t>
-  </si>
-  <si>
-    <t>dell-latitude-5400-000493</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5400</t>
-  </si>
-  <si>
-    <t>1x Intel Core i5-8365U (4-Core, 1.60 GHz)</t>
-  </si>
-  <si>
-    <t>LAT 5400 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-8365U) 1.60GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-7400-2-in-1-touch-000081</t>
-  </si>
-  <si>
-    <t>Dell Latitude 7400 2-in-1 Touch</t>
-  </si>
-  <si>
-    <t>1x Intel Core i5-8265U (4-Core, 1.60 GHz)</t>
-  </si>
-  <si>
-    <t>LAT 7400 2-in-1 2N1 STD 1x i5Q (i5-8265U) 1.60GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5400-000498</t>
-  </si>
-  <si>
-    <t>dell-latitude-5490-000607</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5490</t>
-  </si>
-  <si>
-    <t>1x Intel Core i5-7300U (2-Core, 2.60 GHz)</t>
-  </si>
-  <si>
-    <t>LAT 5490 NB STD 14-in (1366 x 768) NoTCH CAM 1x i5 (i5-7300U) 2.60GHz 8GB 500GB NoOPT 32MB NoBkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5400-000510</t>
-  </si>
-  <si>
-    <t>LAT 5400 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-8265U) 1.60GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5310-touch-000045</t>
-  </si>
-  <si>
-    <t>32 GB (2x 16GB)</t>
-  </si>
-  <si>
-    <t>LAT 5310 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i5Q (i5-10310U) 1.70GHz 32GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>lenovo-thinkpad-t14-no-os-000010</t>
-  </si>
-  <si>
-    <t>1x Intel Core i7-10610U (4-Core, 1.80 GHz)</t>
-  </si>
-  <si>
-    <t>TKP T14 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-10610U) 1.80GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>lenovo-thinkpad-e14-gen-2-no-os-000004</t>
-  </si>
-  <si>
-    <t>Lenovo ThinkPad E14 Gen 2 - No OS</t>
-  </si>
-  <si>
-    <t>1x Intel Core i7-1165G7 (4-Core, 2.80 GHz)</t>
-  </si>
-  <si>
-    <t>TKP E14 Gen 2 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1165G7) 2.80GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>dell-latitude-5490-touch-000055</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5490 Touch</t>
-  </si>
-  <si>
-    <t>1x Intel Core i5-8350U (4-Core, 1.70 GHz)</t>
-  </si>
-  <si>
-    <t>LAT 5490 NB STD 14-in (1920 x 1080) TCH CAM 1x i5Q (i5-8350U) 1.70GHz 8GB 500GB NoOPT 32MB NoBkLIT W10P64</t>
-  </si>
-  <si>
-    <t>lenovo-thinkpad-t14-no-os-000012</t>
-  </si>
-  <si>
-    <t>dell-latitude-5420-000420</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5420</t>
-  </si>
-  <si>
-    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1135G7) 2.40GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5420-000431</t>
-  </si>
-  <si>
-    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5410-000457</t>
-  </si>
-  <si>
-    <t>LAT 5410 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10310U) 1.70GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5420-000440</t>
-  </si>
-  <si>
-    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB NoBkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3080-sff-000144</t>
-  </si>
-  <si>
-    <t>Dell OptiPlex 3080 SFF</t>
-  </si>
-  <si>
-    <t>1x Intel Celeron G5900 (2-Core, 3.40 GHz)</t>
-  </si>
-  <si>
-    <t>24 GB (1x 8GB, 1x 16GB)</t>
-  </si>
-  <si>
-    <t>OPT 3080 SFF STD 1x CDC (G5900) 3.40GHz 24GB 256GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-3420-000030</t>
-  </si>
-  <si>
-    <t>LAT 3420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1135G7) 2.40GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3070-mff-000162</t>
-  </si>
-  <si>
-    <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 16GB 500GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3070-mff-000165</t>
-  </si>
-  <si>
-    <t>12 GB (1x 4GB, 1x 8GB)</t>
-  </si>
-  <si>
-    <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 12GB 256GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3070-mff-000166</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3070-mff-000167</t>
-  </si>
-  <si>
-    <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 16GB 256GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3070-mff-000169</t>
-  </si>
-  <si>
-    <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 8GB 512GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5310-touch-000049</t>
-  </si>
-  <si>
-    <t>lenovo-thinkpad-x1-carbon-8th-gen-000005</t>
-  </si>
-  <si>
-    <t>Lenovo ThinkPad X1 Carbon 8th Gen</t>
-  </si>
-  <si>
-    <t>TKP X1 Carbon 8th Gen NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-10610U) 1.80GHz 16GB 1024GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-7320-detachable-000064</t>
-  </si>
-  <si>
-    <t>Dell Latitude 7320 Detachable</t>
-  </si>
-  <si>
-    <t>1x Intel Core I7-1180G7 (4-Core, 2.20 GHz)</t>
-  </si>
-  <si>
-    <t>16 GB</t>
-  </si>
-  <si>
-    <t>LAT 7320 Detachable TAB STD 13.3-in (1920 x 1280) 1x i7Q (I7-1180G7) 2.20GHz 16GB 256GB W10P0</t>
-  </si>
-  <si>
-    <t>lenovo-thinkpad-t490-20ny-000009</t>
-  </si>
-  <si>
-    <t>Lenovo ThinkPad T490 (20NY)</t>
-  </si>
-  <si>
-    <t>TKP 20NY NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-8365U) 1.60GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3080-sff-000150</t>
-  </si>
-  <si>
-    <t>OPT 3080 SFF STD 1x CDC (G5900) 3.40GHz 32GB 500GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3080-sff-000152</t>
-  </si>
-  <si>
-    <t>OPT 3080 SFF STD 1x CDC (G5900) 3.40GHz 8GB 500GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5421-000064</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5421</t>
-  </si>
-  <si>
-    <t>1x Intel Core i5-11500H (6-Core, 2.90 GHz)</t>
-  </si>
-  <si>
-    <t>LAT 5421 NB STD 14-in (1366 x 768) NoTCH CAM 1x i56C (i5-11500H) 2.90GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5520-000208</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5520</t>
-  </si>
-  <si>
-    <t>LAT 5520 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5410-000486</t>
-  </si>
-  <si>
-    <t>LAT 5410 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10210U) 1.60GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-7420-000260</t>
-  </si>
-  <si>
-    <t>LAT 7420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 256GB NoOPT 32MB BkLIT W11P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-7320-detachable-000069</t>
-  </si>
-  <si>
-    <t>1x Intel Core i5-1140G7 (4-Core, 1.80 GHz)</t>
-  </si>
-  <si>
-    <t>LAT 7320 Detachable TAB STD 13.3-in (1920 x 1280) 1x i5Q (i5-1140G7) 1.80GHz 16GB 512GB W11P0</t>
-  </si>
-  <si>
-    <t>dell-precision-5560-000205</t>
-  </si>
-  <si>
-    <t>Dell Precision 5560</t>
-  </si>
-  <si>
-    <t>PRE 5560 NB STD 15.6-in (1920 x 1200) NoTCH CAM 1x i78C (i7-11850H) 2.50GHz 32GB 1024GB NoOPT 4GB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5520-000211</t>
-  </si>
-  <si>
-    <t>LAT 5520 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5420-000522</t>
-  </si>
-  <si>
-    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1165G7) 2.80GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-7410-touch-000079</t>
-  </si>
-  <si>
-    <t>Dell Latitude 7410 Touch</t>
-  </si>
-  <si>
-    <t>LAT 7410 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-10610U) 1.80GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-9410-2-in-1-touch-000017</t>
-  </si>
-  <si>
-    <t>Dell Latitude 9410 2-In-1 Touch</t>
-  </si>
-  <si>
-    <t>LAT 9410 2-In-1 2N1 STD 1x i7Q (i7-10610U) 1.80GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5320-touch-000124</t>
-  </si>
-  <si>
-    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5410-000493</t>
-  </si>
-  <si>
-    <t>LAT 5410 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10310U) 1.70GHz 8GB 256GB NoOPT 32MB NoBkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-precision-5760-000028</t>
-  </si>
-  <si>
-    <t>Dell Precision 5760</t>
-  </si>
-  <si>
-    <t>PRE 5760 NB STD 17-in (1920 x 1200) NoTCH CAM 1x i78C (i7-11850H) 2.50GHz 16GB 256GB NoOPT 4GB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-3410-000025</t>
-  </si>
-  <si>
-    <t>1x Intel Core i3-10110U (2-Core, 2.10 GHz)</t>
-  </si>
-  <si>
-    <t>LAT 3410 NB STD 14-in (1366 x 768) NoTCH CAM 1x i3 (i3-10110U) 2.10GHz 8GB 256GB NoOPT 32MB NoBkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-precision-5560-000219</t>
-  </si>
-  <si>
-    <t>PRE 5560 NB STD 15.6-in (1920 x 1200) NoTCH CAM 1x i78C (i7-11850H) 2.50GHz 16GB 256GB NoOPT 4GB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5320-000210</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5320</t>
-  </si>
-  <si>
-    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB NoBkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-7420-touch-000116</t>
-  </si>
-  <si>
-    <t>LAT 7420 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W11P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5510-000215</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5510</t>
-  </si>
-  <si>
-    <t>LAT 5510 NB STD 15.6-in (1366 x 768) NoTCH CAM 1x i5Q (i5-10310U) 1.70GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5520-000230</t>
-  </si>
-  <si>
-    <t>LAT 5520 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1135G7) 2.40GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-5040-mt-000070</t>
-  </si>
-  <si>
-    <t>Dell OptiPlex 5040 MT</t>
-  </si>
-  <si>
-    <t>1x Intel Core i5-6500 (4-Core, 3.20 GHz)</t>
-  </si>
-  <si>
-    <t>OPT 5040 MT STD 1x i5Q (i5-6500) 3.20GHz 8GB 500GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>microsoft-surface-laptop-4-touch-no-os-000005</t>
-  </si>
-  <si>
-    <t>SUR Laptop 4 NB STD 13.5-in (2256 x 1504) TCH CAM 1x i5Q (i5-1145G7) 2.60GHz 8GB 256GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>dell-latitude-5410-000495</t>
-  </si>
-  <si>
-    <t>LAT 5410 NB STD 14-in (1366 x 768) NoTCH NoCAM 1x i5Q (i5-10310U) 1.70GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>lenovo-thinkpad-t14-no-os-000014</t>
-  </si>
-  <si>
-    <t>TKP T14 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-10610U) 1.80GHz 32GB 512GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>lenovo-thinkpad-p1-20me-no-os-000006</t>
-  </si>
-  <si>
-    <t>Lenovo ThinkPad P1 (20ME) - No OS</t>
-  </si>
-  <si>
-    <t>TKP 20ME NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-10610U) 1.80GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>lenovo-thinkpad-x1-no-os-000009</t>
-  </si>
-  <si>
-    <t>Lenovo ThinkPad X1 - No OS</t>
-  </si>
-  <si>
-    <t>1x  7-165U (12-Core, 3.80 GHz)</t>
-  </si>
-  <si>
-    <t>TKP X1 NB STD 14-in (1920 x 1080) NoTCH CAM 1x CU716C (7-165U) 3.80GHz 32GB 1024GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>microsoft-surface-pro-7-m1960-000025</t>
-  </si>
-  <si>
-    <t>Microsoft Surface Pro 7 (M1960)</t>
-  </si>
-  <si>
-    <t>SURPRO M1960 TAB STD 12.3-in (2736 x 1824) 1x i7Q (i7-1165G7) 2.80GHz 16GB 512GB W10P0</t>
-  </si>
-  <si>
-    <t>dell-latitude-7410-touch-000080</t>
-  </si>
-  <si>
-    <t>LAT 7410 NB STD 14-in (1920 x 1080) TCH CAM 1x i5Q (i5-10310U) 1.70GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5520-000235</t>
-  </si>
-  <si>
-    <t>LAT 5520 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5410-000498</t>
-  </si>
-  <si>
-    <t>LAT 5410 NB STD 14-in (1366 x 768) NoTCH CAM 1x i5Q (i5-10310U) 1.70GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-7420-touch-000121</t>
-  </si>
-  <si>
-    <t>LAT 7420 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-3410-000027</t>
-  </si>
-  <si>
-    <t>Windows 10 Home</t>
-  </si>
-  <si>
-    <t>LAT 3410 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10210U) 1.60GHz 8GB 512GB NoOPT 32MB BkLIT W10H64</t>
-  </si>
-  <si>
-    <t>dell-latitude-9510-touch-000015</t>
-  </si>
-  <si>
-    <t>Dell Latitude 9510 Touch</t>
-  </si>
-  <si>
-    <t>1x Intel Core i7-10710U (6-Core, 1.10 GHz)</t>
-  </si>
-  <si>
-    <t>LAT 9510 2N1 STD 1x i76C (i7-10710U) 1.10GHz 16GB 1024GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-xps-15-9510-000039</t>
-  </si>
-  <si>
-    <t>Dell XPS 15 (9510)</t>
-  </si>
-  <si>
-    <t>1x Intel Core i9-11900H (8-Core, 2.50 GHz)</t>
-  </si>
-  <si>
-    <t>XPS 9510 NB SLV 15.6-in (1920 x 1200) NoTCH CAM 1x i98C (i9-11900H) 2.50GHz 32GB 512GB NoOPT 4GB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-precision-7550-000417</t>
-  </si>
-  <si>
-    <t>Dell Precision 7550</t>
-  </si>
-  <si>
-    <t>1x Intel Core i7-10850H (6-Core, 2.70 GHz)</t>
-  </si>
-  <si>
-    <t>32 GB (4x 8GB)</t>
-  </si>
-  <si>
-    <t>PRE 7550 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i76C (i7-10850H) 2.70GHz 32GB 256GB NoOPT 4GB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5510-000217</t>
-  </si>
-  <si>
-    <t>LAT 5510 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10310U) 1.70GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-7320-000157</t>
-  </si>
-  <si>
-    <t>LAT 7320 NB STD 13.3-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1135G7) 2.40GHz 16GB 256GB NoOPT 32MB BkLIT W11P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3080-sff-000160</t>
-  </si>
-  <si>
-    <t>OPT 3080 SFF STD 1x CDC (G5900) 3.40GHz 8GB 500GB NoOPT 32MB  W11P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5510-000218</t>
-  </si>
-  <si>
-    <t>LAT 5510 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10310U) 1.70GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>auction__1-060325-060325</t>
-  </si>
-  <si>
-    <t>TEST30</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3080-sff-000161</t>
-  </si>
-  <si>
-    <t>microsoft-suface-book-3-touch-no-os-000001</t>
-  </si>
-  <si>
-    <t>Microsoft Suface Book 3 Touch - No OS</t>
-  </si>
-  <si>
-    <t>SURBK 3 2N1 STD 1x i7Q (i7-1065G7) 1.30GHz 32GB 512GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>auction__2-060425-060625</t>
-  </si>
-  <si>
-    <t>chargeTestFinale</t>
-  </si>
-  <si>
-    <t>dell-latitude-5410-no-os-000065</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5410 - No OS</t>
-  </si>
-  <si>
-    <t>LAT 5410 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10310U) 1.70GHz 8GB 256GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>microsoft-surface-laptop-3-touch-no-os-000026</t>
-  </si>
-  <si>
-    <t>1x Intel Core i5-1035G7 (4-Core, 1.20 GHz)</t>
-  </si>
-  <si>
-    <t>SUR Laptop 3 NB STD 13.5-in (2256 x 1504) TCH CAM 1x i5 (i5-1035G7) 1.20GHz 16GB 256GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>dell-latitude-5410-000505</t>
-  </si>
-  <si>
-    <t>LAT 5410 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10310U) 1.70GHz 16GB 256GB NoOPT 32MB NoBkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-7410-000212</t>
-  </si>
-  <si>
-    <t>Dell Latitude 7410</t>
-  </si>
-  <si>
-    <t>LAT 7410 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10310U) 1.70GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>lenovo-thinkpad-t14-no-os-000016</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3000-mff-000003</t>
-  </si>
-  <si>
-    <t>Dell OptiPlex 3000 MFF</t>
-  </si>
-  <si>
-    <t>1x Intel Core i3-12100T (4-Core, 2.20 GHz)</t>
-  </si>
-  <si>
-    <t>OPT 3000 MFF STD 1x i3Q (i3-12100T) 2.20GHz 8GB 256GB NoOPT 32MB  W11P64</t>
-  </si>
-  <si>
-    <t>microsoft-suface-book-3-touch-no-os-000003</t>
-  </si>
-  <si>
-    <t>SURBK 3 2N1 STD 1x i7Q (i7-1065G7) 1.30GHz 32GB 1024GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>dell-wyse-5070-usff-no-os-000006</t>
-  </si>
-  <si>
-    <t>dell-latitude-5410-000508</t>
-  </si>
-  <si>
-    <t>lenovo-thinkcentre-m720q-mff-no-os-000001</t>
-  </si>
-  <si>
     <t>TKC M720Q MFF STD 1x i3Q (i3-8100T) 3.10GHz 8GB 500GB NoOPT 32MB  NoOS</t>
   </si>
   <si>
@@ -1071,6 +1155,42 @@
   </si>
   <si>
     <t>SUR Laptop 4 NB STD 13.5-in (2256 x 1504) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 256GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>dell-latitude-7480-000894</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7480</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-6300U (2-Core, 2.40 GHz)</t>
+  </si>
+  <si>
+    <t>LAT 7480 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5 (i5-6300U) 2.40GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-t14-no-os-000017</t>
+  </si>
+  <si>
+    <t>TKP T14 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 8GB 256GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-e14-gen-2-no-os-000005</t>
+  </si>
+  <si>
+    <t>TKP E14 Gen 2 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1135G7) 2.40GHz 8GB 256GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-t14-no-os-000018</t>
+  </si>
+  <si>
+    <t>TKP T14 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-p1-gen-4-no-os-000004</t>
+  </si>
+  <si>
+    <t>TKP P1 Gen 4 NB STD 16-in (2560 x 1600) NoTCH CAM 1x i78C (i7-11800H) 1.90GHz 32GB 1024GB NoOPT 32MB BkLIT NoOS</t>
   </si>
 </sst>
 </file>
@@ -1410,7 +1530,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1533,36 +1653,36 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>140.0</v>
+        <v>190.0</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>190.0</v>
+        <v>292.0</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -1571,119 +1691,119 @@
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7">
-        <v>292.0</v>
+        <v>715.0</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8">
-        <v>715.0</v>
+        <v>271.0</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9">
-        <v>271.0</v>
+        <v>50.0</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>50.0</v>
+        <v>241.0</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -1692,7 +1812,7 @@
         <v>242.0</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1701,203 +1821,206 @@
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>386.0</v>
+        <v>282.0</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13">
-        <v>219.0</v>
+        <v>386.0</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14">
-        <v>516.0</v>
+        <v>219.0</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15">
-        <v>458.0</v>
+        <v>516.0</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16">
-        <v>901.0</v>
+        <v>458.0</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17">
-        <v>416.0</v>
+        <v>901.0</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>669.0</v>
+        <v>456.0</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
         <v>20</v>
       </c>
+      <c r="H18" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>425.0</v>
+        <v>416.0</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1906,440 +2029,437 @@
         <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20">
-        <v>198.0</v>
+        <v>202.0</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21">
-        <v>448.0</v>
+        <v>299.0</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22">
-        <v>256.0</v>
+        <v>669.0</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
-        <v>902.0</v>
+        <v>466.0</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
         <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24">
-        <v>490.0</v>
+        <v>425.0</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25">
-        <v>345.0</v>
+        <v>198.0</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26">
-        <v>291.0</v>
+        <v>448.0</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27">
-        <v>456.0</v>
+        <v>256.0</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28">
-        <v>386.0</v>
+        <v>902.0</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29">
-        <v>901.0</v>
+        <v>490.0</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="H29" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30">
-        <v>334.0</v>
+        <v>345.0</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31">
-        <v>160.0</v>
+        <v>291.0</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>199.0</v>
+        <v>456.0</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H32" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>199.0</v>
+        <v>386.0</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>142.0</v>
+        <v>901.0</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>246.0</v>
+        <v>334.0</v>
       </c>
       <c r="E35" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>142.0</v>
+        <v>160.0</v>
       </c>
       <c r="E36" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
@@ -2348,24 +2468,24 @@
         <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37">
-        <v>80.0</v>
+        <v>199.0</v>
       </c>
       <c r="E37" t="s">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="F37" t="s">
         <v>11</v>
@@ -2374,128 +2494,128 @@
         <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>142.0</v>
+        <v>202.0</v>
       </c>
       <c r="E38" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="F38" t="s">
         <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H38" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>352.0</v>
+        <v>256.0</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>396.0</v>
+        <v>199.0</v>
       </c>
       <c r="E40" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B41" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41">
-        <v>466.0</v>
+        <v>276.0</v>
       </c>
       <c r="E41" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G41" t="s">
         <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B42" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>155.0</v>
+        <v>142.0</v>
       </c>
       <c r="E42" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F42" t="s">
         <v>11</v>
@@ -2504,33 +2624,33 @@
         <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>246.0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" t="s">
         <v>145</v>
-      </c>
-      <c r="B43" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>291.0</v>
-      </c>
-      <c r="E43" t="s">
-        <v>86</v>
-      </c>
-      <c r="F43" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2538,16 +2658,16 @@
         <v>146</v>
       </c>
       <c r="B44" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44">
-        <v>305.0</v>
+        <v>142.0</v>
       </c>
       <c r="E44" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="F44" t="s">
         <v>11</v>
@@ -2556,30 +2676,30 @@
         <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>80.0</v>
+      </c>
+      <c r="E45" t="s">
         <v>149</v>
       </c>
-      <c r="B45" t="s">
-        <v>147</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>435.0</v>
-      </c>
-      <c r="E45" t="s">
-        <v>61</v>
-      </c>
       <c r="F45" t="s">
         <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="H45" t="s">
         <v>150</v>
@@ -2590,100 +2710,100 @@
         <v>151</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46">
-        <v>249.0</v>
+        <v>271.0</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B47" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>335.0</v>
+        <v>142.0</v>
       </c>
       <c r="E47" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="F47" t="s">
         <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B48" t="s">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>230.0</v>
+        <v>352.0</v>
       </c>
       <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" t="s">
         <v>157</v>
       </c>
-      <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>158</v>
-      </c>
-      <c r="H48" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
+        <v>159</v>
+      </c>
+      <c r="B49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>396.0</v>
+      </c>
+      <c r="E49" t="s">
         <v>160</v>
       </c>
-      <c r="B49" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>386.0</v>
-      </c>
-      <c r="E49" t="s">
-        <v>53</v>
-      </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H49" t="s">
         <v>161</v>
@@ -2694,51 +2814,51 @@
         <v>162</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>218.0</v>
+        <v>155.0</v>
       </c>
       <c r="E50" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="F50" t="s">
         <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="H50" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51">
-        <v>209.0</v>
+        <v>291.0</v>
       </c>
       <c r="E51" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2746,16 +2866,16 @@
         <v>167</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52">
-        <v>199.0</v>
+        <v>305.0</v>
       </c>
       <c r="E52" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="F52" t="s">
         <v>11</v>
@@ -2764,206 +2884,206 @@
         <v>12</v>
       </c>
       <c r="H52" t="s">
-        <v>114</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" t="s">
         <v>168</v>
       </c>
-      <c r="B53" t="s">
-        <v>15</v>
-      </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53">
-        <v>219.0</v>
+        <v>435.0</v>
       </c>
       <c r="E53" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F53" t="s">
         <v>11</v>
       </c>
       <c r="G53" t="s">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="H53" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54">
-        <v>219.0</v>
+        <v>249.0</v>
       </c>
       <c r="E54" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F54" t="s">
         <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H54" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55">
-        <v>352.0</v>
+        <v>335.0</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="F55" t="s">
         <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B56" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56">
-        <v>425.0</v>
+        <v>230.0</v>
       </c>
       <c r="E56" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="F56" t="s">
         <v>11</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="H56" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B57" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57">
-        <v>401.0</v>
+        <v>386.0</v>
       </c>
       <c r="E57" t="s">
-        <v>178</v>
+        <v>58</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
       </c>
       <c r="G57" t="s">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="H57" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B58" t="s">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58">
-        <v>261.0</v>
+        <v>218.0</v>
       </c>
       <c r="E58" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="F58" t="s">
         <v>11</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H58" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B59" t="s">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>249.0</v>
+        <v>209.0</v>
       </c>
       <c r="E59" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="F59" t="s">
         <v>11</v>
       </c>
       <c r="G59" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="H59" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B60" t="s">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>189.0</v>
+        <v>199.0</v>
       </c>
       <c r="E60" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="F60" t="s">
         <v>11</v>
@@ -2972,186 +3092,186 @@
         <v>12</v>
       </c>
       <c r="H60" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B61" t="s">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61">
-        <v>253.0</v>
+        <v>288.0</v>
       </c>
       <c r="E61" t="s">
+        <v>86</v>
+      </c>
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" t="s">
         <v>190</v>
-      </c>
-      <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s">
-        <v>35</v>
-      </c>
-      <c r="H61" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
+        <v>191</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>219.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" t="s">
         <v>192</v>
-      </c>
-      <c r="B62" t="s">
-        <v>193</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>348.0</v>
-      </c>
-      <c r="E62" t="s">
-        <v>75</v>
-      </c>
-      <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s">
-        <v>35</v>
-      </c>
-      <c r="H62" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63">
-        <v>249.0</v>
+        <v>219.0</v>
       </c>
       <c r="E63" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="F63" t="s">
         <v>11</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="H63" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B64" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64">
-        <v>520.0</v>
+        <v>352.0</v>
       </c>
       <c r="E64" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G64" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H64" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B65" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>421.0</v>
+        <v>475.0</v>
       </c>
       <c r="E65" t="s">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="H65" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B66" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66">
-        <v>619.0</v>
+        <v>425.0</v>
       </c>
       <c r="E66" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="F66" t="s">
         <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="H66" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
+        <v>202</v>
+      </c>
+      <c r="B67" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>401.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>204</v>
+      </c>
+      <c r="F67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" t="s">
         <v>205</v>
-      </c>
-      <c r="B67" t="s">
-        <v>193</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>328.0</v>
-      </c>
-      <c r="E67" t="s">
-        <v>75</v>
-      </c>
-      <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s">
-        <v>12</v>
       </c>
       <c r="H67" t="s">
         <v>206</v>
@@ -3162,48 +3282,48 @@
         <v>207</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68">
-        <v>395.0</v>
+        <v>261.0</v>
       </c>
       <c r="E68" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F68" t="s">
         <v>11</v>
       </c>
       <c r="G68" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H68" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B69" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69">
-        <v>419.0</v>
+        <v>249.0</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="F69" t="s">
         <v>11</v>
       </c>
       <c r="G69" t="s">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="H69" t="s">
         <v>211</v>
@@ -3214,126 +3334,126 @@
         <v>212</v>
       </c>
       <c r="B70" t="s">
+        <v>177</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>189.0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>178</v>
+      </c>
+      <c r="F70" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" t="s">
         <v>213</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>416.0</v>
-      </c>
-      <c r="E70" t="s">
-        <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s">
-        <v>35</v>
-      </c>
-      <c r="H70" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
+        <v>214</v>
+      </c>
+      <c r="B71" t="s">
         <v>215</v>
       </c>
-      <c r="B71" t="s">
-        <v>64</v>
-      </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71">
-        <v>368.0</v>
+        <v>253.0</v>
       </c>
       <c r="E71" t="s">
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="F71" t="s">
         <v>11</v>
       </c>
       <c r="G71" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H71" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>219</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72">
-        <v>219.0</v>
+        <v>348.0</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="F72" t="s">
         <v>11</v>
       </c>
       <c r="G72" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H72" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B73" t="s">
-        <v>220</v>
+        <v>9</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73">
-        <v>566.0</v>
+        <v>249.0</v>
       </c>
       <c r="E73" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="F73" t="s">
         <v>11</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H73" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74">
-        <v>211.0</v>
+        <v>520.0</v>
       </c>
       <c r="E74" t="s">
-        <v>223</v>
+        <v>66</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="H74" t="s">
         <v>224</v>
@@ -3350,94 +3470,94 @@
         <v>1</v>
       </c>
       <c r="D75">
-        <v>520.0</v>
+        <v>421.0</v>
       </c>
       <c r="E75" t="s">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>205</v>
       </c>
       <c r="H75" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B76" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76">
-        <v>418.0</v>
+        <v>619.0</v>
       </c>
       <c r="E76" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="F76" t="s">
         <v>11</v>
       </c>
       <c r="G76" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="H76" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B77" t="s">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77">
-        <v>530.0</v>
+        <v>328.0</v>
       </c>
       <c r="E77" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G77" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B78" t="s">
-        <v>233</v>
+        <v>168</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78">
-        <v>248.0</v>
+        <v>395.0</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="F78" t="s">
         <v>11</v>
       </c>
       <c r="G78" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H78" t="s">
         <v>234</v>
@@ -3448,48 +3568,48 @@
         <v>235</v>
       </c>
       <c r="B79" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79">
-        <v>328.0</v>
+        <v>419.0</v>
       </c>
       <c r="E79" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="F79" t="s">
         <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H79" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B80" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80">
-        <v>120.0</v>
+        <v>416.0</v>
       </c>
       <c r="E80" t="s">
-        <v>239</v>
+        <v>160</v>
       </c>
       <c r="F80" t="s">
         <v>11</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H80" t="s">
         <v>240</v>
@@ -3500,22 +3620,22 @@
         <v>241</v>
       </c>
       <c r="B81" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81">
-        <v>811.0</v>
+        <v>368.0</v>
       </c>
       <c r="E81" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F81" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H81" t="s">
         <v>242</v>
@@ -3541,7 +3661,7 @@
         <v>11</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="H82" t="s">
         <v>244</v>
@@ -3552,152 +3672,152 @@
         <v>245</v>
       </c>
       <c r="B83" t="s">
-        <v>100</v>
+        <v>246</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83">
-        <v>436.0</v>
+        <v>566.0</v>
       </c>
       <c r="E83" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="F83" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G83" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="H83" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B84" t="s">
-        <v>248</v>
+        <v>104</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84">
-        <v>336.0</v>
+        <v>211.0</v>
       </c>
       <c r="E84" t="s">
-        <v>135</v>
+        <v>249</v>
       </c>
       <c r="F84" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G84" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B85" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85">
-        <v>525.0</v>
+        <v>520.0</v>
       </c>
       <c r="E85" t="s">
+        <v>109</v>
+      </c>
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>32</v>
+      </c>
+      <c r="H85" t="s">
         <v>252</v>
-      </c>
-      <c r="F85" t="s">
-        <v>25</v>
-      </c>
-      <c r="G85" t="s">
-        <v>65</v>
-      </c>
-      <c r="H85" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
+        <v>253</v>
+      </c>
+      <c r="B86" t="s">
         <v>254</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>418.0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>66</v>
+      </c>
+      <c r="F86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>70</v>
+      </c>
+      <c r="H86" t="s">
         <v>255</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>691.0</v>
-      </c>
-      <c r="E86" t="s">
-        <v>139</v>
-      </c>
-      <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s">
-        <v>179</v>
-      </c>
-      <c r="H86" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
+        <v>256</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>530.0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>66</v>
+      </c>
+      <c r="F87" t="s">
+        <v>37</v>
+      </c>
+      <c r="G87" t="s">
+        <v>20</v>
+      </c>
+      <c r="H87" t="s">
         <v>257</v>
-      </c>
-      <c r="B87" t="s">
-        <v>210</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>314.0</v>
-      </c>
-      <c r="E87" t="s">
-        <v>10</v>
-      </c>
-      <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
-      <c r="H87" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
+        <v>258</v>
+      </c>
+      <c r="B88" t="s">
         <v>259</v>
       </c>
-      <c r="B88" t="s">
-        <v>193</v>
-      </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88">
-        <v>418.0</v>
+        <v>248.0</v>
       </c>
       <c r="E88" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="F88" t="s">
         <v>11</v>
       </c>
       <c r="G88" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H88" t="s">
         <v>260</v>
@@ -3708,16 +3828,16 @@
         <v>261</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>219</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89">
-        <v>214.0</v>
+        <v>328.0</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F89" t="s">
         <v>11</v>
@@ -3734,224 +3854,224 @@
         <v>263</v>
       </c>
       <c r="B90" t="s">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90">
-        <v>460.0</v>
+        <v>120.0</v>
       </c>
       <c r="E90" t="s">
-        <v>61</v>
+        <v>265</v>
       </c>
       <c r="F90" t="s">
         <v>11</v>
       </c>
       <c r="G90" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H90" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B91" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91">
-        <v>301.0</v>
+        <v>811.0</v>
       </c>
       <c r="E91" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F91" t="s">
-        <v>266</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
         <v>12</v>
       </c>
       <c r="H91" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B92" t="s">
-        <v>269</v>
+        <v>9</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92">
-        <v>455.0</v>
+        <v>219.0</v>
       </c>
       <c r="E92" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" t="s">
+        <v>32</v>
+      </c>
+      <c r="H92" t="s">
         <v>270</v>
-      </c>
-      <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s">
-        <v>35</v>
-      </c>
-      <c r="H92" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
+        <v>271</v>
+      </c>
+      <c r="B93" t="s">
+        <v>76</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>436.0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>160</v>
+      </c>
+      <c r="F93" t="s">
+        <v>31</v>
+      </c>
+      <c r="G93" t="s">
+        <v>157</v>
+      </c>
+      <c r="H93" t="s">
         <v>272</v>
-      </c>
-      <c r="B93" t="s">
-        <v>273</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>1134.0</v>
-      </c>
-      <c r="E93" t="s">
-        <v>274</v>
-      </c>
-      <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s">
-        <v>132</v>
-      </c>
-      <c r="H93" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B94" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94">
-        <v>409.0</v>
+        <v>336.0</v>
       </c>
       <c r="E94" t="s">
-        <v>278</v>
+        <v>160</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>279</v>
+        <v>32</v>
       </c>
       <c r="H94" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B95" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95">
-        <v>303.0</v>
+        <v>525.0</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>278</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="H95" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B96" t="s">
-        <v>71</v>
+        <v>281</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96">
-        <v>416.0</v>
+        <v>691.0</v>
       </c>
       <c r="E96" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G96" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="H96" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B97" t="s">
-        <v>156</v>
+        <v>236</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97">
-        <v>239.0</v>
+        <v>314.0</v>
       </c>
       <c r="E97" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G97" t="s">
         <v>12</v>
       </c>
       <c r="H97" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B98" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98">
-        <v>283.0</v>
+        <v>418.0</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="F98" t="s">
         <v>11</v>
@@ -3960,153 +4080,177 @@
         <v>20</v>
       </c>
       <c r="H98" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B99" t="s">
-        <v>290</v>
+        <v>9</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99">
-        <v>1.0</v>
+        <v>214.0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B100" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100">
-        <v>239.0</v>
+        <v>460.0</v>
       </c>
       <c r="E100" t="s">
-        <v>157</v>
+        <v>66</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G100" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H100" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
+        <v>291</v>
+      </c>
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>301.0</v>
+      </c>
+      <c r="E101" t="s">
+        <v>105</v>
+      </c>
+      <c r="F101" t="s">
         <v>292</v>
       </c>
-      <c r="B101" t="s">
+      <c r="G101" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" t="s">
         <v>293</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-      <c r="D101">
-        <v>536.0</v>
-      </c>
-      <c r="E101" t="s">
-        <v>34</v>
-      </c>
-      <c r="F101" t="s">
-        <v>25</v>
-      </c>
-      <c r="G101" t="s">
-        <v>132</v>
-      </c>
-      <c r="H101" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
+        <v>294</v>
+      </c>
+      <c r="B102" t="s">
         <v>295</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>455.0</v>
+      </c>
+      <c r="E102" t="s">
         <v>296</v>
       </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102">
-        <v>2.0</v>
+      <c r="F102" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" t="s">
+        <v>32</v>
+      </c>
+      <c r="H102" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B103" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103">
-        <v>179.0</v>
+        <v>1134.0</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="F103" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G103" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="H103" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B104" t="s">
-        <v>33</v>
+        <v>303</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104">
-        <v>650.0</v>
+        <v>409.0</v>
       </c>
       <c r="E104" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F104" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>305</v>
       </c>
       <c r="H104" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>259</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105">
-        <v>239.0</v>
+        <v>303.0</v>
       </c>
       <c r="E105" t="s">
         <v>10</v>
@@ -4115,426 +4259,402 @@
         <v>11</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H105" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B106" t="s">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106">
-        <v>304.0</v>
+        <v>416.0</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
         <v>20</v>
       </c>
       <c r="H106" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B107" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107">
-        <v>456.0</v>
+        <v>239.0</v>
       </c>
       <c r="E107" t="s">
-        <v>103</v>
+        <v>178</v>
       </c>
       <c r="F107" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H107" t="s">
-        <v>104</v>
+        <v>312</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B108" t="s">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108">
-        <v>381.0</v>
+        <v>283.0</v>
       </c>
       <c r="E108" t="s">
-        <v>311</v>
+        <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G108" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H108" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B109" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109">
-        <v>575.0</v>
-      </c>
-      <c r="E109" t="s">
-        <v>34</v>
-      </c>
-      <c r="F109" t="s">
-        <v>25</v>
-      </c>
-      <c r="G109" t="s">
-        <v>132</v>
-      </c>
-      <c r="H109" t="s">
-        <v>314</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B110" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110">
-        <v>50.0</v>
+        <v>239.0</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="F110" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G110" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>46</v>
+        <v>312</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111">
-        <v>219.0</v>
+        <v>319.0</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="F111" t="s">
         <v>11</v>
       </c>
       <c r="G111" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H111" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B112" t="s">
-        <v>23</v>
+        <v>321</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112">
-        <v>110.0</v>
+        <v>536.0</v>
       </c>
       <c r="E112" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="F112" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="H112" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B113" t="s">
-        <v>23</v>
+        <v>324</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113">
-        <v>160.0</v>
-      </c>
-      <c r="E113" t="s">
-        <v>24</v>
-      </c>
-      <c r="F113" t="s">
-        <v>25</v>
-      </c>
-      <c r="G113" t="s">
-        <v>35</v>
-      </c>
-      <c r="H113" t="s">
-        <v>320</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>326</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114">
-        <v>208.0</v>
+        <v>179.0</v>
       </c>
       <c r="E114" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H114" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B115" t="s">
-        <v>193</v>
+        <v>29</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115">
-        <v>348.0</v>
+        <v>650.0</v>
       </c>
       <c r="E115" t="s">
-        <v>53</v>
+        <v>329</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H115" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B116" t="s">
-        <v>293</v>
+        <v>9</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116">
-        <v>726.0</v>
+        <v>239.0</v>
       </c>
       <c r="E116" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G116" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="H116" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B117" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117">
-        <v>428.0</v>
+        <v>304.0</v>
       </c>
       <c r="E117" t="s">
-        <v>329</v>
+        <v>10</v>
       </c>
       <c r="F117" t="s">
         <v>11</v>
       </c>
       <c r="G117" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H117" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B118" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
       <c r="D118">
-        <v>128.0</v>
+        <v>381.0</v>
       </c>
       <c r="E118" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
         <v>12</v>
       </c>
       <c r="H118" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B119" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119">
-        <v>959.0</v>
+        <v>575.0</v>
       </c>
       <c r="E119" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F119" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="H119" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B120" t="s">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120">
-        <v>445.0</v>
+        <v>50.0</v>
       </c>
       <c r="E120" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H120" t="s">
-        <v>339</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B121" t="s">
-        <v>341</v>
+        <v>9</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121">
-        <v>630.0</v>
+        <v>219.0</v>
       </c>
       <c r="E121" t="s">
-        <v>342</v>
+        <v>10</v>
       </c>
       <c r="F121" t="s">
         <v>11</v>
       </c>
       <c r="G121" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="H121" t="s">
-        <v>343</v>
+        <v>270</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4542,77 +4662,467 @@
         <v>344</v>
       </c>
       <c r="B122" t="s">
-        <v>228</v>
+        <v>345</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122">
-        <v>427.0</v>
+        <v>110.0</v>
       </c>
       <c r="E122" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H122" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B123" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123">
-        <v>892.0</v>
+        <v>160.0</v>
       </c>
       <c r="E123" t="s">
+        <v>24</v>
+      </c>
+      <c r="F123" t="s">
+        <v>31</v>
+      </c>
+      <c r="G123" t="s">
+        <v>32</v>
+      </c>
+      <c r="H123" t="s">
         <v>348</v>
-      </c>
-      <c r="F123" t="s">
-        <v>25</v>
-      </c>
-      <c r="G123" t="s">
-        <v>132</v>
-      </c>
-      <c r="H123" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B124" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124">
-        <v>881.0</v>
+        <v>208.0</v>
       </c>
       <c r="E124" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F124" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G124" t="s">
         <v>20</v>
       </c>
       <c r="H124" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" t="s">
         <v>351</v>
+      </c>
+      <c r="B125" t="s">
+        <v>219</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>348.0</v>
+      </c>
+      <c r="E125" t="s">
+        <v>58</v>
+      </c>
+      <c r="F125" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125" t="s">
+        <v>32</v>
+      </c>
+      <c r="H125" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" t="s">
+        <v>353</v>
+      </c>
+      <c r="B126" t="s">
+        <v>321</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>726.0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>30</v>
+      </c>
+      <c r="F126" t="s">
+        <v>31</v>
+      </c>
+      <c r="G126" t="s">
+        <v>157</v>
+      </c>
+      <c r="H126" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" t="s">
+        <v>355</v>
+      </c>
+      <c r="B127" t="s">
+        <v>356</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>428.0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>357</v>
+      </c>
+      <c r="F127" t="s">
+        <v>11</v>
+      </c>
+      <c r="G127" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" t="s">
+        <v>359</v>
+      </c>
+      <c r="B128" t="s">
+        <v>360</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>128.0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>361</v>
+      </c>
+      <c r="F128" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" t="s">
+        <v>363</v>
+      </c>
+      <c r="B129" t="s">
+        <v>364</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>959.0</v>
+      </c>
+      <c r="E129" t="s">
+        <v>109</v>
+      </c>
+      <c r="F129" t="s">
+        <v>31</v>
+      </c>
+      <c r="G129" t="s">
+        <v>157</v>
+      </c>
+      <c r="H129" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" t="s">
+        <v>366</v>
+      </c>
+      <c r="B130" t="s">
+        <v>168</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>445.0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>66</v>
+      </c>
+      <c r="F130" t="s">
+        <v>37</v>
+      </c>
+      <c r="G130" t="s">
+        <v>32</v>
+      </c>
+      <c r="H130" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" t="s">
+        <v>368</v>
+      </c>
+      <c r="B131" t="s">
+        <v>369</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>630.0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>370</v>
+      </c>
+      <c r="F131" t="s">
+        <v>11</v>
+      </c>
+      <c r="G131" t="s">
+        <v>157</v>
+      </c>
+      <c r="H131" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" t="s">
+        <v>372</v>
+      </c>
+      <c r="B132" t="s">
+        <v>254</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>427.0</v>
+      </c>
+      <c r="E132" t="s">
+        <v>66</v>
+      </c>
+      <c r="F132" t="s">
+        <v>11</v>
+      </c>
+      <c r="G132" t="s">
+        <v>20</v>
+      </c>
+      <c r="H132" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" t="s">
+        <v>374</v>
+      </c>
+      <c r="B133" t="s">
+        <v>375</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>892.0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>376</v>
+      </c>
+      <c r="F133" t="s">
+        <v>31</v>
+      </c>
+      <c r="G133" t="s">
+        <v>157</v>
+      </c>
+      <c r="H133" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" t="s">
+        <v>378</v>
+      </c>
+      <c r="B134" t="s">
+        <v>73</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>881.0</v>
+      </c>
+      <c r="E134" t="s">
+        <v>66</v>
+      </c>
+      <c r="F134" t="s">
+        <v>31</v>
+      </c>
+      <c r="G134" t="s">
+        <v>20</v>
+      </c>
+      <c r="H134" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" t="s">
+        <v>380</v>
+      </c>
+      <c r="B135" t="s">
+        <v>381</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>199.0</v>
+      </c>
+      <c r="E135" t="s">
+        <v>382</v>
+      </c>
+      <c r="F135" t="s">
+        <v>11</v>
+      </c>
+      <c r="G135" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" t="s">
+        <v>384</v>
+      </c>
+      <c r="B136" t="s">
+        <v>76</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>356.0</v>
+      </c>
+      <c r="E136" t="s">
+        <v>90</v>
+      </c>
+      <c r="F136" t="s">
+        <v>31</v>
+      </c>
+      <c r="G136" t="s">
+        <v>12</v>
+      </c>
+      <c r="H136" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" t="s">
+        <v>386</v>
+      </c>
+      <c r="B137" t="s">
+        <v>93</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>376.0</v>
+      </c>
+      <c r="E137" t="s">
+        <v>58</v>
+      </c>
+      <c r="F137" t="s">
+        <v>31</v>
+      </c>
+      <c r="G137" t="s">
+        <v>12</v>
+      </c>
+      <c r="H137" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" t="s">
+        <v>388</v>
+      </c>
+      <c r="B138" t="s">
+        <v>76</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>396.0</v>
+      </c>
+      <c r="E138" t="s">
+        <v>90</v>
+      </c>
+      <c r="F138" t="s">
+        <v>31</v>
+      </c>
+      <c r="G138" t="s">
+        <v>20</v>
+      </c>
+      <c r="H138" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" t="s">
+        <v>390</v>
+      </c>
+      <c r="B139" t="s">
+        <v>197</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>475.0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>376</v>
+      </c>
+      <c r="F139" t="s">
+        <v>31</v>
+      </c>
+      <c r="G139" t="s">
+        <v>157</v>
+      </c>
+      <c r="H139" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -4740,6 +5250,21 @@
     <hyperlink ref="A122" r:id="rId_hyperlink_121"/>
     <hyperlink ref="A123" r:id="rId_hyperlink_122"/>
     <hyperlink ref="A124" r:id="rId_hyperlink_123"/>
+    <hyperlink ref="A125" r:id="rId_hyperlink_124"/>
+    <hyperlink ref="A126" r:id="rId_hyperlink_125"/>
+    <hyperlink ref="A127" r:id="rId_hyperlink_126"/>
+    <hyperlink ref="A128" r:id="rId_hyperlink_127"/>
+    <hyperlink ref="A129" r:id="rId_hyperlink_128"/>
+    <hyperlink ref="A130" r:id="rId_hyperlink_129"/>
+    <hyperlink ref="A131" r:id="rId_hyperlink_130"/>
+    <hyperlink ref="A132" r:id="rId_hyperlink_131"/>
+    <hyperlink ref="A133" r:id="rId_hyperlink_132"/>
+    <hyperlink ref="A134" r:id="rId_hyperlink_133"/>
+    <hyperlink ref="A135" r:id="rId_hyperlink_134"/>
+    <hyperlink ref="A136" r:id="rId_hyperlink_135"/>
+    <hyperlink ref="A137" r:id="rId_hyperlink_136"/>
+    <hyperlink ref="A138" r:id="rId_hyperlink_137"/>
+    <hyperlink ref="A139" r:id="rId_hyperlink_138"/>
   </hyperlinks>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DFS_LIST.XLSX
+++ b/DFS_LIST.XLSX
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="379">
   <si>
     <t>Product ID</t>
   </si>
@@ -173,18 +173,6 @@
     <t>LAT 5400 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-8665U) 1.90GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
-    <t>dell-optiplex-5070-sff-000255</t>
-  </si>
-  <si>
-    <t>Dell OptiPlex 5070 SFF</t>
-  </si>
-  <si>
-    <t>1x Intel Core i5-9600 (6-Core, 3.10 GHz)</t>
-  </si>
-  <si>
-    <t>OPT 5070 SFF STD 1x i56C (i5-9600) 3.10GHz 16GB 512GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
     <t>lenovo-thinkbook-14s-yoga-touch-no-os-000005</t>
   </si>
   <si>
@@ -269,7 +257,295 @@
     <t>OPT 3060 SFF STD 1x i56C (i5-8500) 3.00GHz 16GB 512GB NoOPT 32MB  W10P64</t>
   </si>
   <si>
-    <t>dell-optiplex-7070-sff-000230</t>
+    <t>dell-latitude-7420-touch-000059</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7420 Touch</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-1145G7 (4-Core, 2.60 GHz)</t>
+  </si>
+  <si>
+    <t>64-bit Windows 10 Professional</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-e14-gen-2-no-os-000004</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad E14 Gen 2 - No OS</t>
+  </si>
+  <si>
+    <t>1x Intel Core i7-1165G7 (4-Core, 2.80 GHz)</t>
+  </si>
+  <si>
+    <t>TKP E14 Gen 2 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1165G7) 2.80GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-touch-000058</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5420 Touch</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3070-mff-000164</t>
+  </si>
+  <si>
+    <t>dell-latitude-5520-touch-000026</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5520 Touch</t>
+  </si>
+  <si>
+    <t>LAT 5520 NB STD 15.6-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-3410-000024</t>
+  </si>
+  <si>
+    <t>Dell Latitude 3410</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-10210U (4-Core, 1.60 GHz)</t>
+  </si>
+  <si>
+    <t>LAT 3410 NB STD 14-in (1366 x 768) NoTCH CAM 1x i5Q (i5-10210U) 1.60GHz 8GB 256GB NoOPT 32MB NoBkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-precision-3561-000089</t>
+  </si>
+  <si>
+    <t>Dell Precision 3561</t>
+  </si>
+  <si>
+    <t>1x Intel Core i7-11850H (8-Core, 2.50 GHz)</t>
+  </si>
+  <si>
+    <t>PRE 3561 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i78C (i7-11850H) 2.50GHz 16GB 512GB NoOPT 4GB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-000282</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7420</t>
+  </si>
+  <si>
+    <t>LAT 7420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3090-mff-000030</t>
+  </si>
+  <si>
+    <t>Dell OptiPlex 3090 MFF</t>
+  </si>
+  <si>
+    <t>1x Intel Core i3-10105T (4-Core, 3.00 GHz)</t>
+  </si>
+  <si>
+    <t>OPT 3090 MFF STD 1x i3 (i3-10105T) 3.00GHz 8GB 256GB NoOPT 32MB  W11P64</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-t14-no-os-000013</t>
+  </si>
+  <si>
+    <t>TKP T14 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10210U) 1.60GHz 8GB 256GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-t14-no-os-000015</t>
+  </si>
+  <si>
+    <t>lenovo-thinkbook-14s-yoga-touch-no-os-000008</t>
+  </si>
+  <si>
+    <t>microsoft-surface-laptop-4-touch-no-os-000006</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3090-mff-000034</t>
+  </si>
+  <si>
+    <t>1x Intel Core i3-10100T (4-Core, 3.00 GHz)</t>
+  </si>
+  <si>
+    <t>OPT 3090 MFF STD 1x i3Q (i3-10100T) 3.00GHz 8GB 128GB NoOPT 32MB  W11P64</t>
+  </si>
+  <si>
+    <t>lenovo-thinkcentre-m720q-mff-000003</t>
+  </si>
+  <si>
+    <t>1x Intel Core i3-8100T (4-Core, 3.10 GHz)</t>
+  </si>
+  <si>
+    <t>TKC M720Q MFF STD 1x i3Q (i3-8100T) 3.10GHz 8GB 500GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3070-mff-000112</t>
+  </si>
+  <si>
+    <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 8GB 256GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3060-sff-000191</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3070-mff-000123</t>
+  </si>
+  <si>
+    <t>dell-latitude-5400-000493</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5400</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-8365U (4-Core, 1.60 GHz)</t>
+  </si>
+  <si>
+    <t>LAT 5400 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-8365U) 1.60GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7400-2-in-1-touch-000081</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7400 2-in-1 Touch</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-8265U (4-Core, 1.60 GHz)</t>
+  </si>
+  <si>
+    <t>LAT 7400 2-in-1 2N1 STD 1x i5Q (i5-8265U) 1.60GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5400-000498</t>
+  </si>
+  <si>
+    <t>dell-latitude-5490-000607</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5490</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-7300U (2-Core, 2.60 GHz)</t>
+  </si>
+  <si>
+    <t>LAT 5490 NB STD 14-in (1366 x 768) NoTCH CAM 1x i5 (i5-7300U) 2.60GHz 8GB 500GB NoOPT 32MB NoBkLIT W10P64</t>
+  </si>
+  <si>
+    <t>hp-zbook-15-g7-firefly-no-os-000001</t>
+  </si>
+  <si>
+    <t>HP Zbook 15 G7 FIREFLY - No OS</t>
+  </si>
+  <si>
+    <t>ZBK 15 G7 FIREFLY NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10210U) 1.60GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>dell-latitude-5400-000510</t>
+  </si>
+  <si>
+    <t>LAT 5400 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-8265U) 1.60GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5310-touch-000045</t>
+  </si>
+  <si>
+    <t>32 GB (2x 16GB)</t>
+  </si>
+  <si>
+    <t>LAT 5310 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i5Q (i5-10310U) 1.70GHz 32GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-t14-no-os-000010</t>
+  </si>
+  <si>
+    <t>1x Intel Core i7-10610U (4-Core, 1.80 GHz)</t>
+  </si>
+  <si>
+    <t>TKP T14 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-10610U) 1.80GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>dell-latitude-5490-touch-000055</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5490 Touch</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-8350U (4-Core, 1.70 GHz)</t>
+  </si>
+  <si>
+    <t>LAT 5490 NB STD 14-in (1920 x 1080) TCH CAM 1x i5Q (i5-8350U) 1.70GHz 8GB 500GB NoOPT 32MB NoBkLIT W10P64</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-t14-no-os-000012</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000420</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5420</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1135G7) 2.40GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000431</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5410-000457</t>
+  </si>
+  <si>
+    <t>LAT 5410 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10310U) 1.70GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000440</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB NoBkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3080-sff-000144</t>
+  </si>
+  <si>
+    <t>Dell OptiPlex 3080 SFF</t>
+  </si>
+  <si>
+    <t>1x Intel Celeron G5900 (2-Core, 3.40 GHz)</t>
+  </si>
+  <si>
+    <t>24 GB (1x 8GB, 1x 16GB)</t>
+  </si>
+  <si>
+    <t>OPT 3080 SFF STD 1x CDC (G5900) 3.40GHz 24GB 256GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-3420-000030</t>
+  </si>
+  <si>
+    <t>LAT 3420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1135G7) 2.40GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3070-mff-000162</t>
+  </si>
+  <si>
+    <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 16GB 500GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3070-mff-000165</t>
+  </si>
+  <si>
+    <t>12 GB (1x 4GB, 1x 8GB)</t>
+  </si>
+  <si>
+    <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 12GB 256GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3070-mff-000166</t>
+  </si>
+  <si>
+    <t>dell-optiplex-7070-sff-000278</t>
   </si>
   <si>
     <t>Dell OptiPlex 7070 SFF</t>
@@ -278,315 +554,6 @@
     <t>1x Intel Core i5-9500 (6-Core, 3.00 GHz)</t>
   </si>
   <si>
-    <t>OPT 7070 SFF STD 1x i56C (i5-9500) 3.00GHz 8GB 256GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-7420-touch-000059</t>
-  </si>
-  <si>
-    <t>Dell Latitude 7420 Touch</t>
-  </si>
-  <si>
-    <t>1x Intel Core i5-1145G7 (4-Core, 2.60 GHz)</t>
-  </si>
-  <si>
-    <t>64-bit Windows 10 Professional</t>
-  </si>
-  <si>
-    <t>lenovo-thinkpad-e14-gen-2-no-os-000004</t>
-  </si>
-  <si>
-    <t>Lenovo ThinkPad E14 Gen 2 - No OS</t>
-  </si>
-  <si>
-    <t>1x Intel Core i7-1165G7 (4-Core, 2.80 GHz)</t>
-  </si>
-  <si>
-    <t>TKP E14 Gen 2 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1165G7) 2.80GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>dell-latitude-5420-touch-000058</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5420 Touch</t>
-  </si>
-  <si>
-    <t>LAT 5420 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3070-mff-000164</t>
-  </si>
-  <si>
-    <t>dell-latitude-5520-touch-000026</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5520 Touch</t>
-  </si>
-  <si>
-    <t>LAT 5520 NB STD 15.6-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-3410-000024</t>
-  </si>
-  <si>
-    <t>Dell Latitude 3410</t>
-  </si>
-  <si>
-    <t>1x Intel Core i5-10210U (4-Core, 1.60 GHz)</t>
-  </si>
-  <si>
-    <t>LAT 3410 NB STD 14-in (1366 x 768) NoTCH CAM 1x i5Q (i5-10210U) 1.60GHz 8GB 256GB NoOPT 32MB NoBkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-precision-3561-000089</t>
-  </si>
-  <si>
-    <t>Dell Precision 3561</t>
-  </si>
-  <si>
-    <t>1x Intel Core i7-11850H (8-Core, 2.50 GHz)</t>
-  </si>
-  <si>
-    <t>PRE 3561 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i78C (i7-11850H) 2.50GHz 16GB 512GB NoOPT 4GB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-7420-000282</t>
-  </si>
-  <si>
-    <t>Dell Latitude 7420</t>
-  </si>
-  <si>
-    <t>LAT 7420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3090-mff-000030</t>
-  </si>
-  <si>
-    <t>Dell OptiPlex 3090 MFF</t>
-  </si>
-  <si>
-    <t>1x Intel Core i3-10105T (4-Core, 3.00 GHz)</t>
-  </si>
-  <si>
-    <t>OPT 3090 MFF STD 1x i3 (i3-10105T) 3.00GHz 8GB 256GB NoOPT 32MB  W11P64</t>
-  </si>
-  <si>
-    <t>lenovo-thinkpad-t14-no-os-000013</t>
-  </si>
-  <si>
-    <t>TKP T14 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10210U) 1.60GHz 8GB 256GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>lenovo-thinkpad-t14-no-os-000015</t>
-  </si>
-  <si>
-    <t>lenovo-thinkbook-14s-yoga-touch-no-os-000008</t>
-  </si>
-  <si>
-    <t>microsoft-surface-laptop-4-touch-no-os-000006</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3090-mff-000034</t>
-  </si>
-  <si>
-    <t>1x Intel Core i3-10100T (4-Core, 3.00 GHz)</t>
-  </si>
-  <si>
-    <t>OPT 3090 MFF STD 1x i3Q (i3-10100T) 3.00GHz 8GB 128GB NoOPT 32MB  W11P64</t>
-  </si>
-  <si>
-    <t>lenovo-thinkcentre-m720q-mff-000003</t>
-  </si>
-  <si>
-    <t>1x Intel Core i3-8100T (4-Core, 3.10 GHz)</t>
-  </si>
-  <si>
-    <t>TKC M720Q MFF STD 1x i3Q (i3-8100T) 3.10GHz 8GB 500GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3070-mff-000112</t>
-  </si>
-  <si>
-    <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 8GB 256GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3060-sff-000191</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3070-sff-000168</t>
-  </si>
-  <si>
-    <t>Dell OptiPlex 3070 SFF</t>
-  </si>
-  <si>
-    <t>OPT 3070 SFF STD 1x i56C (i5-9500) 3.00GHz 8GB 512GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3070-mff-000123</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3070-sff-000241</t>
-  </si>
-  <si>
-    <t>OPT 3070 SFF STD 1x i56C (i5-9500) 3.00GHz 16GB 512GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5400-000493</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5400</t>
-  </si>
-  <si>
-    <t>1x Intel Core i5-8365U (4-Core, 1.60 GHz)</t>
-  </si>
-  <si>
-    <t>LAT 5400 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-8365U) 1.60GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-7400-2-in-1-touch-000081</t>
-  </si>
-  <si>
-    <t>Dell Latitude 7400 2-in-1 Touch</t>
-  </si>
-  <si>
-    <t>1x Intel Core i5-8265U (4-Core, 1.60 GHz)</t>
-  </si>
-  <si>
-    <t>LAT 7400 2-in-1 2N1 STD 1x i5Q (i5-8265U) 1.60GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5400-000498</t>
-  </si>
-  <si>
-    <t>dell-latitude-5490-000607</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5490</t>
-  </si>
-  <si>
-    <t>1x Intel Core i5-7300U (2-Core, 2.60 GHz)</t>
-  </si>
-  <si>
-    <t>LAT 5490 NB STD 14-in (1366 x 768) NoTCH CAM 1x i5 (i5-7300U) 2.60GHz 8GB 500GB NoOPT 32MB NoBkLIT W10P64</t>
-  </si>
-  <si>
-    <t>hp-zbook-15-g7-firefly-no-os-000001</t>
-  </si>
-  <si>
-    <t>HP Zbook 15 G7 FIREFLY - No OS</t>
-  </si>
-  <si>
-    <t>ZBK 15 G7 FIREFLY NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10210U) 1.60GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>dell-latitude-5400-000510</t>
-  </si>
-  <si>
-    <t>LAT 5400 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-8265U) 1.60GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5310-touch-000045</t>
-  </si>
-  <si>
-    <t>32 GB (2x 16GB)</t>
-  </si>
-  <si>
-    <t>LAT 5310 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i5Q (i5-10310U) 1.70GHz 32GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>lenovo-thinkpad-t14-no-os-000010</t>
-  </si>
-  <si>
-    <t>1x Intel Core i7-10610U (4-Core, 1.80 GHz)</t>
-  </si>
-  <si>
-    <t>TKP T14 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-10610U) 1.80GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>dell-latitude-5490-touch-000055</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5490 Touch</t>
-  </si>
-  <si>
-    <t>1x Intel Core i5-8350U (4-Core, 1.70 GHz)</t>
-  </si>
-  <si>
-    <t>LAT 5490 NB STD 14-in (1920 x 1080) TCH CAM 1x i5Q (i5-8350U) 1.70GHz 8GB 500GB NoOPT 32MB NoBkLIT W10P64</t>
-  </si>
-  <si>
-    <t>lenovo-thinkpad-t14-no-os-000012</t>
-  </si>
-  <si>
-    <t>dell-latitude-5420-000420</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5420</t>
-  </si>
-  <si>
-    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1135G7) 2.40GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5420-000431</t>
-  </si>
-  <si>
-    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5410-000457</t>
-  </si>
-  <si>
-    <t>LAT 5410 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10310U) 1.70GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5420-000440</t>
-  </si>
-  <si>
-    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB NoBkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3080-sff-000144</t>
-  </si>
-  <si>
-    <t>Dell OptiPlex 3080 SFF</t>
-  </si>
-  <si>
-    <t>1x Intel Celeron G5900 (2-Core, 3.40 GHz)</t>
-  </si>
-  <si>
-    <t>24 GB (1x 8GB, 1x 16GB)</t>
-  </si>
-  <si>
-    <t>OPT 3080 SFF STD 1x CDC (G5900) 3.40GHz 24GB 256GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-3420-000030</t>
-  </si>
-  <si>
-    <t>LAT 3420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1135G7) 2.40GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3070-mff-000162</t>
-  </si>
-  <si>
-    <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 16GB 500GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3070-mff-000165</t>
-  </si>
-  <si>
-    <t>12 GB (1x 4GB, 1x 8GB)</t>
-  </si>
-  <si>
-    <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 12GB 256GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3070-mff-000166</t>
-  </si>
-  <si>
-    <t>dell-optiplex-7070-sff-000278</t>
-  </si>
-  <si>
     <t>OPT 7070 SFF STD 1x i56C (i5-9500) 3.00GHz 8GB 128GB NoOPT 32MB  W10P64</t>
   </si>
   <si>
@@ -969,12 +936,6 @@
   </si>
   <si>
     <t>dell-optiplex-3080-sff-000161</t>
-  </si>
-  <si>
-    <t>dell-optiplex-7070-sff-000284</t>
-  </si>
-  <si>
-    <t>OPT 7070 SFF STD 1x i56C (i5-9500) 3.00GHz 16GB 256GB NoOPT 32MB  W10P64</t>
   </si>
   <si>
     <t>microsoft-suface-book-3-touch-no-os-000001</t>
@@ -1530,7 +1491,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1835,16 +1796,16 @@
         <v>3</v>
       </c>
       <c r="D12">
-        <v>282.0</v>
+        <v>386.0</v>
       </c>
       <c r="E12" t="s">
         <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
         <v>55</v>
@@ -1861,16 +1822,16 @@
         <v>3</v>
       </c>
       <c r="D13">
-        <v>386.0</v>
+        <v>219.0</v>
       </c>
       <c r="E13" t="s">
         <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
         <v>59</v>
@@ -1887,16 +1848,16 @@
         <v>3</v>
       </c>
       <c r="D14">
-        <v>219.0</v>
+        <v>516.0</v>
       </c>
       <c r="E14" t="s">
         <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
         <v>63</v>
@@ -1913,16 +1874,16 @@
         <v>3</v>
       </c>
       <c r="D15">
-        <v>516.0</v>
+        <v>458.0</v>
       </c>
       <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
         <v>66</v>
-      </c>
-      <c r="F15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
       </c>
       <c r="H15" t="s">
         <v>67</v>
@@ -1939,36 +1900,36 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <v>458.0</v>
+        <v>901.0</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
         <v>70</v>
-      </c>
-      <c r="H16" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
         <v>72</v>
-      </c>
-      <c r="B17" t="s">
-        <v>73</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17">
-        <v>901.0</v>
+        <v>456.0</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s">
         <v>31</v>
@@ -1991,36 +1952,36 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>456.0</v>
+        <v>416.0</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
         <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>416.0</v>
+        <v>202.0</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -2029,33 +1990,30 @@
         <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20">
-        <v>202.0</v>
+        <v>669.0</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s">
         <v>20</v>
-      </c>
-      <c r="H20" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2069,16 +2027,16 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>299.0</v>
+        <v>466.0</v>
       </c>
       <c r="E21" t="s">
         <v>86</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
         <v>87</v>
@@ -2095,59 +2053,62 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>669.0</v>
+        <v>425.0</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
         <v>20</v>
       </c>
+      <c r="H22" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
-        <v>466.0</v>
+        <v>198.0</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24">
-        <v>425.0</v>
+        <v>448.0</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -2156,24 +2117,24 @@
         <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25">
-        <v>198.0</v>
+        <v>256.0</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -2182,24 +2143,24 @@
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" t="s">
         <v>100</v>
-      </c>
-      <c r="B26" t="s">
-        <v>101</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26">
-        <v>448.0</v>
+        <v>902.0</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -2222,114 +2183,114 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>256.0</v>
+        <v>490.0</v>
       </c>
       <c r="E27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" t="s">
         <v>105</v>
-      </c>
-      <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" t="s">
         <v>107</v>
-      </c>
-      <c r="B28" t="s">
-        <v>108</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28">
-        <v>902.0</v>
+        <v>345.0</v>
       </c>
       <c r="E28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
         <v>109</v>
-      </c>
-      <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29">
-        <v>490.0</v>
+        <v>291.0</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30">
-        <v>345.0</v>
+        <v>456.0</v>
       </c>
       <c r="E30" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31">
-        <v>291.0</v>
+        <v>386.0</v>
       </c>
       <c r="E31" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="F31" t="s">
         <v>31</v>
@@ -2338,24 +2299,24 @@
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32">
-        <v>456.0</v>
+        <v>901.0</v>
       </c>
       <c r="E32" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F32" t="s">
         <v>31</v>
@@ -2364,116 +2325,116 @@
         <v>20</v>
       </c>
       <c r="H32" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33">
-        <v>386.0</v>
+        <v>334.0</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34">
-        <v>901.0</v>
+        <v>160.0</v>
       </c>
       <c r="E34" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>334.0</v>
+        <v>199.0</v>
       </c>
       <c r="E35" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G35" t="s">
         <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>160.0</v>
+        <v>202.0</v>
       </c>
       <c r="E36" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
@@ -2494,76 +2455,76 @@
         <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>202.0</v>
+        <v>142.0</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="F38" t="s">
         <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>246.0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>131</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" t="s">
         <v>132</v>
-      </c>
-      <c r="B39" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>256.0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>86</v>
-      </c>
-      <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>199.0</v>
+        <v>142.0</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="F40" t="s">
         <v>11</v>
@@ -2572,30 +2533,30 @@
         <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>80.0</v>
+      </c>
+      <c r="E41" t="s">
         <v>136</v>
       </c>
-      <c r="B41" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>276.0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>86</v>
-      </c>
       <c r="F41" t="s">
         <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H41" t="s">
         <v>137</v>
@@ -2612,322 +2573,322 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>142.0</v>
+        <v>271.0</v>
       </c>
       <c r="E42" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" t="s">
         <v>140</v>
-      </c>
-      <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>142.0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" t="s">
         <v>142</v>
-      </c>
-      <c r="B43" t="s">
-        <v>143</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>246.0</v>
-      </c>
-      <c r="E43" t="s">
-        <v>144</v>
-      </c>
-      <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s">
-        <v>42</v>
-      </c>
-      <c r="H43" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44">
-        <v>142.0</v>
+        <v>352.0</v>
       </c>
       <c r="E44" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s">
         <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="H44" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>396.0</v>
+      </c>
+      <c r="E45" t="s">
         <v>147</v>
       </c>
-      <c r="B45" t="s">
+      <c r="F45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" t="s">
         <v>148</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>80.0</v>
-      </c>
-      <c r="E45" t="s">
-        <v>149</v>
-      </c>
-      <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>155.0</v>
+      </c>
+      <c r="E46" t="s">
         <v>151</v>
       </c>
-      <c r="B46" t="s">
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" t="s">
         <v>152</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>271.0</v>
-      </c>
-      <c r="E46" t="s">
-        <v>105</v>
-      </c>
-      <c r="F46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G46" t="s">
-        <v>32</v>
-      </c>
-      <c r="H46" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>142.0</v>
+        <v>291.0</v>
       </c>
       <c r="E47" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
         <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>305.0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>54</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" t="s">
         <v>156</v>
-      </c>
-      <c r="B48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>352.0</v>
-      </c>
-      <c r="E48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s">
-        <v>157</v>
-      </c>
-      <c r="H48" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49">
-        <v>396.0</v>
+        <v>435.0</v>
       </c>
       <c r="E49" t="s">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="H49" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B50" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>155.0</v>
+        <v>249.0</v>
       </c>
       <c r="E50" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="F50" t="s">
         <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H50" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51">
-        <v>291.0</v>
+        <v>335.0</v>
       </c>
       <c r="E51" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>230.0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>165</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>166</v>
+      </c>
+      <c r="H52" t="s">
         <v>167</v>
-      </c>
-      <c r="B52" t="s">
-        <v>168</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>305.0</v>
-      </c>
-      <c r="E52" t="s">
-        <v>58</v>
-      </c>
-      <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B53" t="s">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53">
-        <v>435.0</v>
+        <v>386.0</v>
       </c>
       <c r="E53" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F53" t="s">
         <v>11</v>
       </c>
       <c r="G53" t="s">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="H53" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54">
-        <v>249.0</v>
+        <v>218.0</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F54" t="s">
         <v>11</v>
@@ -2936,90 +2897,90 @@
         <v>32</v>
       </c>
       <c r="H54" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
+        <v>172</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>209.0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" t="s">
+        <v>173</v>
+      </c>
+      <c r="H55" t="s">
         <v>174</v>
-      </c>
-      <c r="B55" t="s">
-        <v>168</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>335.0</v>
-      </c>
-      <c r="E55" t="s">
-        <v>90</v>
-      </c>
-      <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s">
-        <v>20</v>
-      </c>
-      <c r="H55" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B56" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56">
-        <v>230.0</v>
+        <v>199.0</v>
       </c>
       <c r="E56" t="s">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="F56" t="s">
         <v>11</v>
       </c>
       <c r="G56" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="H56" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57">
-        <v>386.0</v>
+        <v>288.0</v>
       </c>
       <c r="E57" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B58" t="s">
         <v>15</v>
@@ -3028,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>218.0</v>
+        <v>219.0</v>
       </c>
       <c r="E58" t="s">
         <v>16</v>
@@ -3037,15 +2998,15 @@
         <v>11</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H58" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
@@ -3054,7 +3015,7 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <v>209.0</v>
+        <v>219.0</v>
       </c>
       <c r="E59" t="s">
         <v>16</v>
@@ -3063,215 +3024,215 @@
         <v>11</v>
       </c>
       <c r="G59" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="H59" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>199.0</v>
+        <v>352.0</v>
       </c>
       <c r="E60" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F60" t="s">
         <v>11</v>
       </c>
       <c r="G60" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="H60" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61">
-        <v>288.0</v>
+        <v>475.0</v>
       </c>
       <c r="E61" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="H61" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>189</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>219.0</v>
+        <v>425.0</v>
       </c>
       <c r="E62" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="F62" t="s">
         <v>11</v>
       </c>
       <c r="G62" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H62" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>401.0</v>
+      </c>
+      <c r="E63" t="s">
         <v>193</v>
       </c>
-      <c r="B63" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>219.0</v>
-      </c>
-      <c r="E63" t="s">
-        <v>16</v>
-      </c>
       <c r="F63" t="s">
         <v>11</v>
       </c>
       <c r="G63" t="s">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="H63" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64">
-        <v>352.0</v>
+        <v>261.0</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="F64" t="s">
         <v>11</v>
       </c>
       <c r="G64" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="H64" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B65" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>475.0</v>
+        <v>249.0</v>
       </c>
       <c r="E65" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G65" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="H65" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B66" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66">
-        <v>425.0</v>
+        <v>189.0</v>
       </c>
       <c r="E66" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F66" t="s">
         <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B67" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67">
-        <v>401.0</v>
+        <v>253.0</v>
       </c>
       <c r="E67" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F67" t="s">
         <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c r="H67" t="s">
         <v>206</v>
@@ -3288,10 +3249,10 @@
         <v>1</v>
       </c>
       <c r="D68">
-        <v>261.0</v>
+        <v>348.0</v>
       </c>
       <c r="E68" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="F68" t="s">
         <v>11</v>
@@ -3308,7 +3269,7 @@
         <v>210</v>
       </c>
       <c r="B69" t="s">
-        <v>177</v>
+        <v>9</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -3317,13 +3278,13 @@
         <v>249.0</v>
       </c>
       <c r="E69" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="F69" t="s">
         <v>11</v>
       </c>
       <c r="G69" t="s">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="H69" t="s">
         <v>211</v>
@@ -3334,22 +3295,22 @@
         <v>212</v>
       </c>
       <c r="B70" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70">
-        <v>189.0</v>
+        <v>520.0</v>
       </c>
       <c r="E70" t="s">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="H70" t="s">
         <v>213</v>
@@ -3360,308 +3321,308 @@
         <v>214</v>
       </c>
       <c r="B71" t="s">
+        <v>192</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>421.0</v>
+      </c>
+      <c r="E71" t="s">
         <v>215</v>
       </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>253.0</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
+        <v>37</v>
+      </c>
+      <c r="G71" t="s">
+        <v>194</v>
+      </c>
+      <c r="H71" t="s">
         <v>216</v>
-      </c>
-      <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s">
-        <v>32</v>
-      </c>
-      <c r="H71" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
+        <v>217</v>
+      </c>
+      <c r="B72" t="s">
         <v>218</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>619.0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>101</v>
+      </c>
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" t="s">
+        <v>144</v>
+      </c>
+      <c r="H72" t="s">
         <v>219</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>348.0</v>
-      </c>
-      <c r="E72" t="s">
-        <v>90</v>
-      </c>
-      <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s">
-        <v>32</v>
-      </c>
-      <c r="H72" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
+        <v>220</v>
+      </c>
+      <c r="B73" t="s">
+        <v>208</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>328.0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>82</v>
+      </c>
+      <c r="F73" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" t="s">
         <v>221</v>
-      </c>
-      <c r="B73" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>249.0</v>
-      </c>
-      <c r="E73" t="s">
-        <v>105</v>
-      </c>
-      <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s">
-        <v>32</v>
-      </c>
-      <c r="H73" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
+        <v>222</v>
+      </c>
+      <c r="B74" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>395.0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>86</v>
+      </c>
+      <c r="F74" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" t="s">
         <v>223</v>
-      </c>
-      <c r="B74" t="s">
-        <v>112</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>520.0</v>
-      </c>
-      <c r="E74" t="s">
-        <v>66</v>
-      </c>
-      <c r="F74" t="s">
-        <v>37</v>
-      </c>
-      <c r="G74" t="s">
-        <v>70</v>
-      </c>
-      <c r="H74" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
+        <v>224</v>
+      </c>
+      <c r="B75" t="s">
         <v>225</v>
       </c>
-      <c r="B75" t="s">
-        <v>203</v>
-      </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75">
-        <v>421.0</v>
+        <v>419.0</v>
       </c>
       <c r="E75" t="s">
+        <v>147</v>
+      </c>
+      <c r="F75" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" t="s">
         <v>226</v>
-      </c>
-      <c r="F75" t="s">
-        <v>37</v>
-      </c>
-      <c r="G75" t="s">
-        <v>205</v>
-      </c>
-      <c r="H75" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
+        <v>227</v>
+      </c>
+      <c r="B76" t="s">
         <v>228</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>416.0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>147</v>
+      </c>
+      <c r="F76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" t="s">
+        <v>32</v>
+      </c>
+      <c r="H76" t="s">
         <v>229</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>619.0</v>
-      </c>
-      <c r="E76" t="s">
-        <v>109</v>
-      </c>
-      <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s">
-        <v>157</v>
-      </c>
-      <c r="H76" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
+        <v>230</v>
+      </c>
+      <c r="B77" t="s">
+        <v>65</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>368.0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>82</v>
+      </c>
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" t="s">
         <v>231</v>
-      </c>
-      <c r="B77" t="s">
-        <v>219</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>328.0</v>
-      </c>
-      <c r="E77" t="s">
-        <v>90</v>
-      </c>
-      <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
+        <v>232</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>219.0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" t="s">
         <v>233</v>
-      </c>
-      <c r="B78" t="s">
-        <v>168</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>395.0</v>
-      </c>
-      <c r="E78" t="s">
-        <v>94</v>
-      </c>
-      <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s">
-        <v>20</v>
-      </c>
-      <c r="H78" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
+        <v>234</v>
+      </c>
+      <c r="B79" t="s">
         <v>235</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>566.0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>101</v>
+      </c>
+      <c r="F79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" t="s">
+        <v>32</v>
+      </c>
+      <c r="H79" t="s">
         <v>236</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>419.0</v>
-      </c>
-      <c r="E79" t="s">
-        <v>160</v>
-      </c>
-      <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s">
-        <v>20</v>
-      </c>
-      <c r="H79" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
+        <v>237</v>
+      </c>
+      <c r="B80" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>211.0</v>
+      </c>
+      <c r="E80" t="s">
         <v>238</v>
       </c>
-      <c r="B80" t="s">
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" t="s">
         <v>239</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>416.0</v>
-      </c>
-      <c r="E80" t="s">
-        <v>160</v>
-      </c>
-      <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s">
-        <v>32</v>
-      </c>
-      <c r="H80" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
+        <v>240</v>
+      </c>
+      <c r="B81" t="s">
+        <v>218</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>520.0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>101</v>
+      </c>
+      <c r="F81" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" t="s">
+        <v>32</v>
+      </c>
+      <c r="H81" t="s">
         <v>241</v>
-      </c>
-      <c r="B81" t="s">
-        <v>69</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>368.0</v>
-      </c>
-      <c r="E81" t="s">
-        <v>90</v>
-      </c>
-      <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s">
-        <v>20</v>
-      </c>
-      <c r="H81" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
+        <v>242</v>
+      </c>
+      <c r="B82" t="s">
         <v>243</v>
       </c>
-      <c r="B82" t="s">
-        <v>9</v>
-      </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82">
-        <v>219.0</v>
+        <v>418.0</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F82" t="s">
         <v>11</v>
       </c>
       <c r="G82" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="H82" t="s">
         <v>244</v>
@@ -3672,42 +3633,42 @@
         <v>245</v>
       </c>
       <c r="B83" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>530.0</v>
+      </c>
+      <c r="E83" t="s">
+        <v>62</v>
+      </c>
+      <c r="F83" t="s">
+        <v>37</v>
+      </c>
+      <c r="G83" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" t="s">
         <v>246</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>566.0</v>
-      </c>
-      <c r="E83" t="s">
-        <v>109</v>
-      </c>
-      <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s">
-        <v>32</v>
-      </c>
-      <c r="H83" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
+        <v>247</v>
+      </c>
+      <c r="B84" t="s">
         <v>248</v>
       </c>
-      <c r="B84" t="s">
-        <v>104</v>
-      </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84">
-        <v>211.0</v>
+        <v>248.0</v>
       </c>
       <c r="E84" t="s">
-        <v>249</v>
+        <v>10</v>
       </c>
       <c r="F84" t="s">
         <v>11</v>
@@ -3716,56 +3677,56 @@
         <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
+        <v>250</v>
+      </c>
+      <c r="B85" t="s">
+        <v>208</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>328.0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>54</v>
+      </c>
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" t="s">
         <v>251</v>
-      </c>
-      <c r="B85" t="s">
-        <v>229</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
-        <v>520.0</v>
-      </c>
-      <c r="E85" t="s">
-        <v>109</v>
-      </c>
-      <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s">
-        <v>32</v>
-      </c>
-      <c r="H85" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
+        <v>252</v>
+      </c>
+      <c r="B86" t="s">
         <v>253</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>120.0</v>
+      </c>
+      <c r="E86" t="s">
         <v>254</v>
       </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>418.0</v>
-      </c>
-      <c r="E86" t="s">
-        <v>66</v>
-      </c>
       <c r="F86" t="s">
         <v>11</v>
       </c>
       <c r="G86" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="H86" t="s">
         <v>255</v>
@@ -3776,22 +3737,22 @@
         <v>256</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87">
-        <v>530.0</v>
+        <v>811.0</v>
       </c>
       <c r="E87" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H87" t="s">
         <v>257</v>
@@ -3802,13 +3763,13 @@
         <v>258</v>
       </c>
       <c r="B88" t="s">
-        <v>259</v>
+        <v>9</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88">
-        <v>248.0</v>
+        <v>219.0</v>
       </c>
       <c r="E88" t="s">
         <v>10</v>
@@ -3817,85 +3778,85 @@
         <v>11</v>
       </c>
       <c r="G88" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H88" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
+        <v>260</v>
+      </c>
+      <c r="B89" t="s">
+        <v>72</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>436.0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>147</v>
+      </c>
+      <c r="F89" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" t="s">
+        <v>144</v>
+      </c>
+      <c r="H89" t="s">
         <v>261</v>
-      </c>
-      <c r="B89" t="s">
-        <v>219</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>328.0</v>
-      </c>
-      <c r="E89" t="s">
-        <v>58</v>
-      </c>
-      <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
-      <c r="H89" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
+        <v>262</v>
+      </c>
+      <c r="B90" t="s">
         <v>263</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>336.0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>147</v>
+      </c>
+      <c r="F90" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90" t="s">
+        <v>32</v>
+      </c>
+      <c r="H90" t="s">
         <v>264</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>120.0</v>
-      </c>
-      <c r="E90" t="s">
-        <v>265</v>
-      </c>
-      <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s">
-        <v>42</v>
-      </c>
-      <c r="H90" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
+        <v>265</v>
+      </c>
+      <c r="B91" t="s">
+        <v>266</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>525.0</v>
+      </c>
+      <c r="E91" t="s">
         <v>267</v>
-      </c>
-      <c r="B91" t="s">
-        <v>73</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>811.0</v>
-      </c>
-      <c r="E91" t="s">
-        <v>90</v>
       </c>
       <c r="F91" t="s">
         <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="H91" t="s">
         <v>268</v>
@@ -3906,74 +3867,74 @@
         <v>269</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>270</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92">
-        <v>219.0</v>
+        <v>691.0</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="F92" t="s">
         <v>11</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>194</v>
       </c>
       <c r="H92" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B93" t="s">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="D93">
-        <v>436.0</v>
+        <v>314.0</v>
       </c>
       <c r="E93" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G93" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="H93" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B94" t="s">
-        <v>274</v>
+        <v>208</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94">
-        <v>336.0</v>
+        <v>418.0</v>
       </c>
       <c r="E94" t="s">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H94" t="s">
         <v>275</v>
@@ -3984,100 +3945,100 @@
         <v>276</v>
       </c>
       <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>214.0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" t="s">
         <v>277</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95">
-        <v>525.0</v>
-      </c>
-      <c r="E95" t="s">
-        <v>278</v>
-      </c>
-      <c r="F95" t="s">
-        <v>31</v>
-      </c>
-      <c r="G95" t="s">
-        <v>70</v>
-      </c>
-      <c r="H95" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B96" t="s">
-        <v>281</v>
+        <v>81</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96">
-        <v>691.0</v>
+        <v>460.0</v>
       </c>
       <c r="E96" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="F96" t="s">
         <v>11</v>
       </c>
       <c r="G96" t="s">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c r="H96" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B97" t="s">
-        <v>236</v>
+        <v>96</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97">
-        <v>314.0</v>
+        <v>301.0</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
+        <v>281</v>
       </c>
       <c r="G97" t="s">
         <v>12</v>
       </c>
       <c r="H97" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
+        <v>283</v>
+      </c>
+      <c r="B98" t="s">
+        <v>284</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>455.0</v>
+      </c>
+      <c r="E98" t="s">
         <v>285</v>
       </c>
-      <c r="B98" t="s">
-        <v>219</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>418.0</v>
-      </c>
-      <c r="E98" t="s">
-        <v>66</v>
-      </c>
       <c r="F98" t="s">
         <v>11</v>
       </c>
       <c r="G98" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H98" t="s">
         <v>286</v>
@@ -4088,126 +4049,126 @@
         <v>287</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>288</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99">
-        <v>214.0</v>
+        <v>1134.0</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>289</v>
       </c>
       <c r="F99" t="s">
         <v>11</v>
       </c>
       <c r="G99" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="H99" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B100" t="s">
-        <v>89</v>
+        <v>292</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100">
-        <v>460.0</v>
+        <v>409.0</v>
       </c>
       <c r="E100" t="s">
-        <v>66</v>
+        <v>293</v>
       </c>
       <c r="F100" t="s">
         <v>11</v>
       </c>
       <c r="G100" t="s">
-        <v>20</v>
+        <v>294</v>
       </c>
       <c r="H100" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>248</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101">
-        <v>301.0</v>
+        <v>303.0</v>
       </c>
       <c r="E101" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="G101" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H101" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B102" t="s">
-        <v>295</v>
+        <v>76</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102">
-        <v>455.0</v>
+        <v>416.0</v>
       </c>
       <c r="E102" t="s">
-        <v>296</v>
+        <v>54</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H102" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B103" t="s">
-        <v>299</v>
+        <v>164</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103">
-        <v>1134.0</v>
+        <v>239.0</v>
       </c>
       <c r="E103" t="s">
-        <v>300</v>
+        <v>165</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="H103" t="s">
         <v>301</v>
@@ -4218,169 +4179,157 @@
         <v>302</v>
       </c>
       <c r="B104" t="s">
+        <v>248</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>283.0</v>
+      </c>
+      <c r="E104" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" t="s">
         <v>303</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104">
-        <v>409.0</v>
-      </c>
-      <c r="E104" t="s">
-        <v>304</v>
-      </c>
-      <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s">
-        <v>305</v>
-      </c>
-      <c r="H104" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B105" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105">
-        <v>303.0</v>
-      </c>
-      <c r="E105" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s">
-        <v>20</v>
-      </c>
-      <c r="H105" t="s">
-        <v>308</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B106" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106">
-        <v>416.0</v>
+        <v>239.0</v>
       </c>
       <c r="E106" t="s">
-        <v>58</v>
+        <v>165</v>
       </c>
       <c r="F106" t="s">
         <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H106" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B107" t="s">
-        <v>177</v>
+        <v>308</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107">
-        <v>239.0</v>
+        <v>536.0</v>
       </c>
       <c r="E107" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="H107" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B108" t="s">
-        <v>259</v>
+        <v>311</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108">
-        <v>283.0</v>
-      </c>
-      <c r="E108" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s">
-        <v>20</v>
-      </c>
-      <c r="H108" t="s">
-        <v>314</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B109" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109">
-        <v>1.0</v>
+        <v>179.0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" t="s">
+        <v>31</v>
+      </c>
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
+        <v>315</v>
+      </c>
+      <c r="B110" t="s">
+        <v>29</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>650.0</v>
+      </c>
+      <c r="E110" t="s">
+        <v>316</v>
+      </c>
+      <c r="F110" t="s">
+        <v>31</v>
+      </c>
+      <c r="G110" t="s">
+        <v>32</v>
+      </c>
+      <c r="H110" t="s">
         <v>317</v>
-      </c>
-      <c r="B110" t="s">
-        <v>177</v>
-      </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
-      <c r="D110">
-        <v>239.0</v>
-      </c>
-      <c r="E110" t="s">
-        <v>178</v>
-      </c>
-      <c r="F110" t="s">
-        <v>37</v>
-      </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H110" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4388,16 +4337,16 @@
         <v>318</v>
       </c>
       <c r="B111" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111">
-        <v>319.0</v>
+        <v>239.0</v>
       </c>
       <c r="E111" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="F111" t="s">
         <v>11</v>
@@ -4420,16 +4369,16 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>536.0</v>
+        <v>304.0</v>
       </c>
       <c r="E112" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G112" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="H112" t="s">
         <v>322</v>
@@ -4446,64 +4395,76 @@
         <v>1</v>
       </c>
       <c r="D113">
-        <v>2.0</v>
+        <v>381.0</v>
+      </c>
+      <c r="E113" t="s">
+        <v>325</v>
+      </c>
+      <c r="F113" t="s">
+        <v>37</v>
+      </c>
+      <c r="G113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B114" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114">
-        <v>179.0</v>
+        <v>575.0</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F114" t="s">
         <v>31</v>
       </c>
       <c r="G114" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="H114" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B115" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115">
-        <v>650.0</v>
+        <v>50.0</v>
       </c>
       <c r="E115" t="s">
-        <v>329</v>
+        <v>41</v>
       </c>
       <c r="F115" t="s">
         <v>31</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H115" t="s">
-        <v>330</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B116" t="s">
         <v>9</v>
@@ -4512,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <v>239.0</v>
+        <v>219.0</v>
       </c>
       <c r="E116" t="s">
         <v>10</v>
@@ -4521,608 +4482,478 @@
         <v>11</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H116" t="s">
-        <v>332</v>
+        <v>259</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
+        <v>331</v>
+      </c>
+      <c r="B117" t="s">
+        <v>332</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>110.0</v>
+      </c>
+      <c r="E117" t="s">
+        <v>119</v>
+      </c>
+      <c r="F117" t="s">
+        <v>31</v>
+      </c>
+      <c r="G117" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" t="s">
         <v>333</v>
-      </c>
-      <c r="B117" t="s">
-        <v>334</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117">
-        <v>304.0</v>
-      </c>
-      <c r="E117" t="s">
-        <v>10</v>
-      </c>
-      <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s">
-        <v>20</v>
-      </c>
-      <c r="H117" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B118" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
       <c r="D118">
-        <v>381.0</v>
+        <v>160.0</v>
       </c>
       <c r="E118" t="s">
-        <v>338</v>
+        <v>24</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H118" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B119" t="s">
-        <v>321</v>
+        <v>15</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119">
-        <v>575.0</v>
+        <v>208.0</v>
       </c>
       <c r="E119" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G119" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="H119" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B120" t="s">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120">
-        <v>50.0</v>
+        <v>348.0</v>
       </c>
       <c r="E120" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G120" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H120" t="s">
-        <v>43</v>
+        <v>339</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>308</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121">
-        <v>219.0</v>
+        <v>726.0</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="H121" t="s">
-        <v>270</v>
+        <v>341</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
+        <v>342</v>
+      </c>
+      <c r="B122" t="s">
+        <v>343</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>428.0</v>
+      </c>
+      <c r="E122" t="s">
         <v>344</v>
       </c>
-      <c r="B122" t="s">
-        <v>345</v>
-      </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-      <c r="D122">
-        <v>110.0</v>
-      </c>
-      <c r="E122" t="s">
-        <v>127</v>
-      </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G122" t="s">
         <v>12</v>
       </c>
       <c r="H122" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
+        <v>346</v>
+      </c>
+      <c r="B123" t="s">
         <v>347</v>
       </c>
-      <c r="B123" t="s">
-        <v>345</v>
-      </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123">
-        <v>160.0</v>
+        <v>128.0</v>
       </c>
       <c r="E123" t="s">
-        <v>24</v>
+        <v>348</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H123" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B124" t="s">
-        <v>15</v>
+        <v>351</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124">
-        <v>208.0</v>
+        <v>959.0</v>
       </c>
       <c r="E124" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="H124" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B125" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
       <c r="D125">
-        <v>348.0</v>
+        <v>445.0</v>
       </c>
       <c r="E125" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G125" t="s">
         <v>32</v>
       </c>
       <c r="H125" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B126" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126">
-        <v>726.0</v>
+        <v>630.0</v>
       </c>
       <c r="E126" t="s">
-        <v>30</v>
+        <v>357</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G126" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="H126" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B127" t="s">
-        <v>356</v>
+        <v>243</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
       <c r="D127">
-        <v>428.0</v>
+        <v>427.0</v>
       </c>
       <c r="E127" t="s">
-        <v>357</v>
+        <v>62</v>
       </c>
       <c r="F127" t="s">
         <v>11</v>
       </c>
       <c r="G127" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H127" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B128" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
       <c r="D128">
-        <v>128.0</v>
+        <v>892.0</v>
       </c>
       <c r="E128" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="H128" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B129" t="s">
-        <v>364</v>
+        <v>69</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129">
-        <v>959.0</v>
+        <v>881.0</v>
       </c>
       <c r="E129" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="F129" t="s">
         <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="H129" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B130" t="s">
-        <v>168</v>
+        <v>368</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130">
-        <v>445.0</v>
+        <v>199.0</v>
       </c>
       <c r="E130" t="s">
-        <v>66</v>
+        <v>369</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H130" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B131" t="s">
-        <v>369</v>
+        <v>72</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
       <c r="D131">
-        <v>630.0</v>
+        <v>356.0</v>
       </c>
       <c r="E131" t="s">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="H131" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B132" t="s">
-        <v>254</v>
+        <v>85</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132">
-        <v>427.0</v>
+        <v>376.0</v>
       </c>
       <c r="E132" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H132" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B133" t="s">
-        <v>375</v>
+        <v>72</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133">
-        <v>892.0</v>
+        <v>396.0</v>
       </c>
       <c r="E133" t="s">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="F133" t="s">
         <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="H133" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B134" t="s">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134">
-        <v>881.0</v>
+        <v>475.0</v>
       </c>
       <c r="E134" t="s">
-        <v>66</v>
+        <v>363</v>
       </c>
       <c r="F134" t="s">
         <v>31</v>
       </c>
       <c r="G134" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="H134" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" t="s">
-        <v>380</v>
-      </c>
-      <c r="B135" t="s">
-        <v>381</v>
-      </c>
-      <c r="C135">
-        <v>1</v>
-      </c>
-      <c r="D135">
-        <v>199.0</v>
-      </c>
-      <c r="E135" t="s">
-        <v>382</v>
-      </c>
-      <c r="F135" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" t="s">
-        <v>12</v>
-      </c>
-      <c r="H135" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" t="s">
-        <v>384</v>
-      </c>
-      <c r="B136" t="s">
-        <v>76</v>
-      </c>
-      <c r="C136">
-        <v>1</v>
-      </c>
-      <c r="D136">
-        <v>356.0</v>
-      </c>
-      <c r="E136" t="s">
-        <v>90</v>
-      </c>
-      <c r="F136" t="s">
-        <v>31</v>
-      </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
-      <c r="H136" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" t="s">
-        <v>386</v>
-      </c>
-      <c r="B137" t="s">
-        <v>93</v>
-      </c>
-      <c r="C137">
-        <v>1</v>
-      </c>
-      <c r="D137">
-        <v>376.0</v>
-      </c>
-      <c r="E137" t="s">
-        <v>58</v>
-      </c>
-      <c r="F137" t="s">
-        <v>31</v>
-      </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
-      <c r="H137" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" t="s">
-        <v>388</v>
-      </c>
-      <c r="B138" t="s">
-        <v>76</v>
-      </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-      <c r="D138">
-        <v>396.0</v>
-      </c>
-      <c r="E138" t="s">
-        <v>90</v>
-      </c>
-      <c r="F138" t="s">
-        <v>31</v>
-      </c>
-      <c r="G138" t="s">
-        <v>20</v>
-      </c>
-      <c r="H138" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139" t="s">
-        <v>390</v>
-      </c>
-      <c r="B139" t="s">
-        <v>197</v>
-      </c>
-      <c r="C139">
-        <v>1</v>
-      </c>
-      <c r="D139">
-        <v>475.0</v>
-      </c>
-      <c r="E139" t="s">
-        <v>376</v>
-      </c>
-      <c r="F139" t="s">
-        <v>31</v>
-      </c>
-      <c r="G139" t="s">
-        <v>157</v>
-      </c>
-      <c r="H139" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -5260,11 +5091,6 @@
     <hyperlink ref="A132" r:id="rId_hyperlink_131"/>
     <hyperlink ref="A133" r:id="rId_hyperlink_132"/>
     <hyperlink ref="A134" r:id="rId_hyperlink_133"/>
-    <hyperlink ref="A135" r:id="rId_hyperlink_134"/>
-    <hyperlink ref="A136" r:id="rId_hyperlink_135"/>
-    <hyperlink ref="A137" r:id="rId_hyperlink_136"/>
-    <hyperlink ref="A138" r:id="rId_hyperlink_137"/>
-    <hyperlink ref="A139" r:id="rId_hyperlink_138"/>
   </hyperlinks>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DFS_LIST.XLSX
+++ b/DFS_LIST.XLSX
@@ -1559,7 +1559,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>198.0</v>

--- a/DFS_LIST.XLSX
+++ b/DFS_LIST.XLSX
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="363">
   <si>
     <t>Product ID</t>
   </si>
@@ -494,12 +494,6 @@
     <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
-    <t>dell-latitude-5410-000457</t>
-  </si>
-  <si>
-    <t>LAT 5410 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10310U) 1.70GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
     <t>dell-latitude-5420-000440</t>
   </si>
   <si>
@@ -647,12 +641,6 @@
     <t>LAT 5520 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
-    <t>dell-latitude-5410-000486</t>
-  </si>
-  <si>
-    <t>LAT 5410 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10210U) 1.60GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
     <t>dell-latitude-7420-000260</t>
   </si>
   <si>
@@ -713,21 +701,6 @@
     <t>LAT 5320 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
-    <t>dell-latitude-5410-000493</t>
-  </si>
-  <si>
-    <t>LAT 5410 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10310U) 1.70GHz 8GB 256GB NoOPT 32MB NoBkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-precision-5760-000028</t>
-  </si>
-  <si>
-    <t>Dell Precision 5760</t>
-  </si>
-  <si>
-    <t>PRE 5760 NB STD 17-in (1920 x 1200) NoTCH CAM 1x i78C (i7-11850H) 2.50GHz 16GB 256GB NoOPT 4GB BkLIT W10P64</t>
-  </si>
-  <si>
     <t>dell-latitude-3410-000025</t>
   </si>
   <si>
@@ -845,12 +818,6 @@
     <t>LAT 5520 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
-    <t>dell-latitude-5410-000498</t>
-  </si>
-  <si>
-    <t>LAT 5410 NB STD 14-in (1366 x 768) NoTCH CAM 1x i5Q (i5-10310U) 1.70GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
     <t>dell-latitude-7420-touch-000121</t>
   </si>
   <si>
@@ -953,15 +920,6 @@
     <t>chargeTestFinale</t>
   </si>
   <si>
-    <t>dell-latitude-5410-no-os-000065</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5410 - No OS</t>
-  </si>
-  <si>
-    <t>LAT 5410 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10310U) 1.70GHz 8GB 256GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
     <t>microsoft-surface-laptop-3-touch-no-os-000026</t>
   </si>
   <si>
@@ -969,12 +927,6 @@
   </si>
   <si>
     <t>SUR Laptop 3 NB STD 13.5-in (2256 x 1504) TCH CAM 1x i5 (i5-1035G7) 1.20GHz 16GB 256GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>dell-latitude-5410-000505</t>
-  </si>
-  <si>
-    <t>LAT 5410 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10310U) 1.70GHz 16GB 256GB NoOPT 32MB NoBkLIT W10P64</t>
   </si>
   <si>
     <t>dell-latitude-7410-000212</t>
@@ -1491,7 +1443,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2775,22 +2727,22 @@
         <v>159</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>249.0</v>
+        <v>335.0</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="F50" t="s">
         <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H50" t="s">
         <v>160</v>
@@ -2801,48 +2753,48 @@
         <v>161</v>
       </c>
       <c r="B51" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51">
-        <v>335.0</v>
+        <v>230.0</v>
       </c>
       <c r="E51" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="F51" t="s">
         <v>11</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="H51" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52">
-        <v>230.0</v>
+        <v>386.0</v>
       </c>
       <c r="E52" t="s">
-        <v>165</v>
+        <v>54</v>
       </c>
       <c r="F52" t="s">
         <v>11</v>
       </c>
       <c r="G52" t="s">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="H52" t="s">
         <v>167</v>
@@ -2853,16 +2805,16 @@
         <v>168</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53">
-        <v>386.0</v>
+        <v>218.0</v>
       </c>
       <c r="E53" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="F53" t="s">
         <v>11</v>
@@ -2885,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="D54">
-        <v>218.0</v>
+        <v>209.0</v>
       </c>
       <c r="E54" t="s">
         <v>16</v>
@@ -2894,15 +2846,15 @@
         <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="H54" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
@@ -2911,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>209.0</v>
+        <v>199.0</v>
       </c>
       <c r="E55" t="s">
         <v>16</v>
@@ -2920,27 +2872,27 @@
         <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="H55" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
+        <v>174</v>
+      </c>
+      <c r="B56" t="s">
         <v>175</v>
       </c>
-      <c r="B56" t="s">
-        <v>15</v>
-      </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56">
-        <v>199.0</v>
+        <v>288.0</v>
       </c>
       <c r="E56" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="F56" t="s">
         <v>11</v>
@@ -2949,30 +2901,30 @@
         <v>12</v>
       </c>
       <c r="H56" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B57" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57">
-        <v>288.0</v>
+        <v>219.0</v>
       </c>
       <c r="E57" t="s">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
       </c>
       <c r="G57" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H57" t="s">
         <v>179</v>
@@ -2998,7 +2950,7 @@
         <v>11</v>
       </c>
       <c r="G58" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H58" t="s">
         <v>181</v>
@@ -3009,152 +2961,152 @@
         <v>182</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>219.0</v>
+        <v>352.0</v>
       </c>
       <c r="E59" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F59" t="s">
         <v>11</v>
       </c>
       <c r="G59" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="H59" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60" t="s">
         <v>184</v>
       </c>
-      <c r="B60" t="s">
-        <v>19</v>
-      </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>352.0</v>
+        <v>475.0</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="H60" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B61" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61">
-        <v>475.0</v>
+        <v>425.0</v>
       </c>
       <c r="E61" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G61" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="H61" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B62" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>425.0</v>
+        <v>401.0</v>
       </c>
       <c r="E62" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="F62" t="s">
         <v>11</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="H62" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B63" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63">
-        <v>401.0</v>
+        <v>261.0</v>
       </c>
       <c r="E63" t="s">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="F63" t="s">
         <v>11</v>
       </c>
       <c r="G63" t="s">
-        <v>194</v>
+        <v>32</v>
       </c>
       <c r="H63" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B64" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64">
-        <v>261.0</v>
+        <v>249.0</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="F64" t="s">
         <v>11</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="H64" t="s">
         <v>198</v>
@@ -3165,22 +3117,22 @@
         <v>199</v>
       </c>
       <c r="B65" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>249.0</v>
+        <v>189.0</v>
       </c>
       <c r="E65" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F65" t="s">
         <v>11</v>
       </c>
       <c r="G65" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="H65" t="s">
         <v>200</v>
@@ -3191,42 +3143,42 @@
         <v>201</v>
       </c>
       <c r="B66" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66">
-        <v>189.0</v>
+        <v>253.0</v>
       </c>
       <c r="E66" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="F66" t="s">
         <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H66" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B67" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67">
-        <v>253.0</v>
+        <v>348.0</v>
       </c>
       <c r="E67" t="s">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="F67" t="s">
         <v>11</v>
@@ -3235,30 +3187,30 @@
         <v>32</v>
       </c>
       <c r="H67" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B68" t="s">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68">
-        <v>348.0</v>
+        <v>520.0</v>
       </c>
       <c r="E68" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="H68" t="s">
         <v>209</v>
@@ -3269,100 +3221,100 @@
         <v>210</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>190</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69">
-        <v>249.0</v>
+        <v>421.0</v>
       </c>
       <c r="E69" t="s">
-        <v>97</v>
+        <v>211</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="H69" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B70" t="s">
-        <v>104</v>
+        <v>214</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70">
-        <v>520.0</v>
+        <v>619.0</v>
       </c>
       <c r="E70" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G70" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="H70" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B71" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71">
-        <v>421.0</v>
+        <v>328.0</v>
       </c>
       <c r="E71" t="s">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G71" t="s">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="H71" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B72" t="s">
-        <v>218</v>
+        <v>155</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72">
-        <v>619.0</v>
+        <v>395.0</v>
       </c>
       <c r="E72" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F72" t="s">
         <v>11</v>
       </c>
       <c r="G72" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="H72" t="s">
         <v>219</v>
@@ -3373,68 +3325,68 @@
         <v>220</v>
       </c>
       <c r="B73" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73">
-        <v>328.0</v>
+        <v>419.0</v>
       </c>
       <c r="E73" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="F73" t="s">
         <v>11</v>
       </c>
       <c r="G73" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H73" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B74" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74">
-        <v>395.0</v>
+        <v>416.0</v>
       </c>
       <c r="E74" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="F74" t="s">
         <v>11</v>
       </c>
       <c r="G74" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H74" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B75" t="s">
-        <v>225</v>
+        <v>65</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75">
-        <v>419.0</v>
+        <v>368.0</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="F75" t="s">
         <v>11</v>
@@ -3443,128 +3395,128 @@
         <v>20</v>
       </c>
       <c r="H75" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B76" t="s">
-        <v>228</v>
+        <v>96</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76">
-        <v>416.0</v>
+        <v>211.0</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>229</v>
       </c>
       <c r="F76" t="s">
         <v>11</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H76" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B77" t="s">
-        <v>65</v>
+        <v>214</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77">
-        <v>368.0</v>
+        <v>520.0</v>
       </c>
       <c r="E77" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="F77" t="s">
         <v>11</v>
       </c>
       <c r="G77" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H77" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>234</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78">
-        <v>219.0</v>
+        <v>418.0</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F78" t="s">
         <v>11</v>
       </c>
       <c r="G78" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="H78" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B79" t="s">
-        <v>235</v>
+        <v>81</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79">
-        <v>566.0</v>
+        <v>530.0</v>
       </c>
       <c r="E79" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G79" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H79" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B80" t="s">
-        <v>96</v>
+        <v>239</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80">
-        <v>211.0</v>
+        <v>248.0</v>
       </c>
       <c r="E80" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="F80" t="s">
         <v>11</v>
@@ -3573,99 +3525,99 @@
         <v>12</v>
       </c>
       <c r="H80" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B81" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81">
-        <v>520.0</v>
+        <v>328.0</v>
       </c>
       <c r="E81" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="F81" t="s">
         <v>11</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H81" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B82" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82">
-        <v>418.0</v>
+        <v>120.0</v>
       </c>
       <c r="E82" t="s">
-        <v>62</v>
+        <v>245</v>
       </c>
       <c r="F82" t="s">
         <v>11</v>
       </c>
       <c r="G82" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="H82" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83">
-        <v>530.0</v>
+        <v>811.0</v>
       </c>
       <c r="E83" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B84" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84">
-        <v>248.0</v>
+        <v>219.0</v>
       </c>
       <c r="E84" t="s">
         <v>10</v>
@@ -3674,59 +3626,59 @@
         <v>11</v>
       </c>
       <c r="G84" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H84" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B85" t="s">
-        <v>208</v>
+        <v>72</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85">
-        <v>328.0</v>
+        <v>436.0</v>
       </c>
       <c r="E85" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="H85" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B86" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86">
-        <v>120.0</v>
+        <v>336.0</v>
       </c>
       <c r="E86" t="s">
-        <v>254</v>
+        <v>147</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H86" t="s">
         <v>255</v>
@@ -3737,126 +3689,126 @@
         <v>256</v>
       </c>
       <c r="B87" t="s">
-        <v>69</v>
+        <v>257</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87">
-        <v>811.0</v>
+        <v>525.0</v>
       </c>
       <c r="E87" t="s">
-        <v>82</v>
+        <v>258</v>
       </c>
       <c r="F87" t="s">
         <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="H87" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>261</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88">
-        <v>219.0</v>
+        <v>691.0</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="F88" t="s">
         <v>11</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="H88" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B89" t="s">
-        <v>72</v>
+        <v>221</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89">
-        <v>436.0</v>
+        <v>314.0</v>
       </c>
       <c r="E89" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G89" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="H89" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B90" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90">
-        <v>336.0</v>
+        <v>418.0</v>
       </c>
       <c r="E90" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H90" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B91" t="s">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91">
-        <v>525.0</v>
+        <v>460.0</v>
       </c>
       <c r="E91" t="s">
-        <v>267</v>
+        <v>62</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G91" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="H91" t="s">
         <v>268</v>
@@ -3867,22 +3819,22 @@
         <v>269</v>
       </c>
       <c r="B92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>301.0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>97</v>
+      </c>
+      <c r="F92" t="s">
         <v>270</v>
       </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>691.0</v>
-      </c>
-      <c r="E92" t="s">
-        <v>86</v>
-      </c>
-      <c r="F92" t="s">
-        <v>11</v>
-      </c>
       <c r="G92" t="s">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="H92" t="s">
         <v>271</v>
@@ -3893,94 +3845,94 @@
         <v>272</v>
       </c>
       <c r="B93" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="D93">
-        <v>314.0</v>
+        <v>455.0</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>274</v>
       </c>
       <c r="F93" t="s">
         <v>11</v>
       </c>
       <c r="G93" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H93" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B94" t="s">
-        <v>208</v>
+        <v>277</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94">
-        <v>418.0</v>
+        <v>1134.0</v>
       </c>
       <c r="E94" t="s">
-        <v>62</v>
+        <v>278</v>
       </c>
       <c r="F94" t="s">
         <v>11</v>
       </c>
       <c r="G94" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="H94" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>281</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95">
-        <v>214.0</v>
+        <v>409.0</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>282</v>
       </c>
       <c r="F95" t="s">
         <v>11</v>
       </c>
       <c r="G95" t="s">
-        <v>12</v>
+        <v>283</v>
       </c>
       <c r="H95" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B96" t="s">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96">
-        <v>460.0</v>
+        <v>303.0</v>
       </c>
       <c r="E96" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="F96" t="s">
         <v>11</v>
@@ -3989,212 +3941,188 @@
         <v>20</v>
       </c>
       <c r="H96" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97">
-        <v>301.0</v>
+        <v>416.0</v>
       </c>
       <c r="E97" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="F97" t="s">
-        <v>281</v>
+        <v>37</v>
       </c>
       <c r="G97" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H97" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B98" t="s">
-        <v>284</v>
+        <v>162</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98">
-        <v>455.0</v>
+        <v>239.0</v>
       </c>
       <c r="E98" t="s">
-        <v>285</v>
+        <v>163</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H98" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B99" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99">
-        <v>1134.0</v>
+        <v>283.0</v>
       </c>
       <c r="E99" t="s">
-        <v>289</v>
+        <v>10</v>
       </c>
       <c r="F99" t="s">
         <v>11</v>
       </c>
       <c r="G99" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="H99" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B100" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100">
-        <v>409.0</v>
-      </c>
-      <c r="E100" t="s">
-        <v>293</v>
-      </c>
-      <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s">
-        <v>294</v>
-      </c>
-      <c r="H100" t="s">
-        <v>295</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B101" t="s">
-        <v>248</v>
+        <v>162</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101">
-        <v>303.0</v>
+        <v>239.0</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
+        <v>296</v>
+      </c>
+      <c r="B102" t="s">
+        <v>297</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>536.0</v>
+      </c>
+      <c r="E102" t="s">
+        <v>30</v>
+      </c>
+      <c r="F102" t="s">
+        <v>31</v>
+      </c>
+      <c r="G102" t="s">
+        <v>144</v>
+      </c>
+      <c r="H102" t="s">
         <v>298</v>
-      </c>
-      <c r="B102" t="s">
-        <v>76</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102">
-        <v>416.0</v>
-      </c>
-      <c r="E102" t="s">
-        <v>54</v>
-      </c>
-      <c r="F102" t="s">
-        <v>37</v>
-      </c>
-      <c r="G102" t="s">
-        <v>20</v>
-      </c>
-      <c r="H102" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
+        <v>299</v>
+      </c>
+      <c r="B103" t="s">
         <v>300</v>
       </c>
-      <c r="B103" t="s">
-        <v>164</v>
-      </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103">
-        <v>239.0</v>
-      </c>
-      <c r="E103" t="s">
-        <v>165</v>
-      </c>
-      <c r="F103" t="s">
-        <v>37</v>
-      </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
-      <c r="H103" t="s">
-        <v>301</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
+        <v>301</v>
+      </c>
+      <c r="B104" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>650.0</v>
+      </c>
+      <c r="E104" t="s">
         <v>302</v>
       </c>
-      <c r="B104" t="s">
-        <v>248</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104">
-        <v>283.0</v>
-      </c>
-      <c r="E104" t="s">
-        <v>10</v>
-      </c>
       <c r="F104" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H104" t="s">
         <v>303</v>
@@ -4211,24 +4139,36 @@
         <v>1</v>
       </c>
       <c r="D105">
-        <v>1.0</v>
+        <v>304.0</v>
+      </c>
+      <c r="E105" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" t="s">
+        <v>20</v>
+      </c>
+      <c r="H105" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B106" t="s">
-        <v>164</v>
+        <v>308</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106">
-        <v>239.0</v>
+        <v>381.0</v>
       </c>
       <c r="E106" t="s">
-        <v>165</v>
+        <v>309</v>
       </c>
       <c r="F106" t="s">
         <v>37</v>
@@ -4237,21 +4177,21 @@
         <v>12</v>
       </c>
       <c r="H106" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B107" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107">
-        <v>536.0</v>
+        <v>575.0</v>
       </c>
       <c r="E107" t="s">
         <v>30</v>
@@ -4263,47 +4203,59 @@
         <v>144</v>
       </c>
       <c r="H107" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B108" t="s">
-        <v>311</v>
+        <v>40</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108">
-        <v>2.0</v>
+        <v>50.0</v>
+      </c>
+      <c r="E108" t="s">
+        <v>41</v>
+      </c>
+      <c r="F108" t="s">
+        <v>31</v>
+      </c>
+      <c r="G108" t="s">
+        <v>42</v>
+      </c>
+      <c r="H108" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B109" t="s">
-        <v>313</v>
+        <v>9</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109">
-        <v>179.0</v>
+        <v>219.0</v>
       </c>
       <c r="E109" t="s">
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G109" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H109" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4311,22 +4263,22 @@
         <v>315</v>
       </c>
       <c r="B110" t="s">
-        <v>29</v>
+        <v>316</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110">
-        <v>650.0</v>
+        <v>110.0</v>
       </c>
       <c r="E110" t="s">
-        <v>316</v>
+        <v>119</v>
       </c>
       <c r="F110" t="s">
         <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H110" t="s">
         <v>317</v>
@@ -4337,19 +4289,19 @@
         <v>318</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>316</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111">
-        <v>239.0</v>
+        <v>160.0</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
@@ -4363,16 +4315,16 @@
         <v>320</v>
       </c>
       <c r="B112" t="s">
-        <v>321</v>
+        <v>15</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112">
-        <v>304.0</v>
+        <v>208.0</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F112" t="s">
         <v>11</v>
@@ -4381,47 +4333,47 @@
         <v>20</v>
       </c>
       <c r="H112" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
+        <v>322</v>
+      </c>
+      <c r="B113" t="s">
+        <v>206</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>348.0</v>
+      </c>
+      <c r="E113" t="s">
+        <v>54</v>
+      </c>
+      <c r="F113" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" t="s">
+        <v>32</v>
+      </c>
+      <c r="H113" t="s">
         <v>323</v>
-      </c>
-      <c r="B113" t="s">
-        <v>324</v>
-      </c>
-      <c r="C113">
-        <v>1</v>
-      </c>
-      <c r="D113">
-        <v>381.0</v>
-      </c>
-      <c r="E113" t="s">
-        <v>325</v>
-      </c>
-      <c r="F113" t="s">
-        <v>37</v>
-      </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
-      <c r="H113" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B114" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114">
-        <v>575.0</v>
+        <v>726.0</v>
       </c>
       <c r="E114" t="s">
         <v>30</v>
@@ -4433,33 +4385,33 @@
         <v>144</v>
       </c>
       <c r="H114" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
+        <v>326</v>
+      </c>
+      <c r="B115" t="s">
+        <v>327</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>428.0</v>
+      </c>
+      <c r="E115" t="s">
+        <v>328</v>
+      </c>
+      <c r="F115" t="s">
+        <v>11</v>
+      </c>
+      <c r="G115" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" t="s">
         <v>329</v>
-      </c>
-      <c r="B115" t="s">
-        <v>40</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115">
-        <v>50.0</v>
-      </c>
-      <c r="E115" t="s">
-        <v>41</v>
-      </c>
-      <c r="F115" t="s">
-        <v>31</v>
-      </c>
-      <c r="G115" t="s">
-        <v>42</v>
-      </c>
-      <c r="H115" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4467,146 +4419,146 @@
         <v>330</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>331</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116">
-        <v>219.0</v>
+        <v>128.0</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>332</v>
       </c>
       <c r="F116" t="s">
         <v>11</v>
       </c>
       <c r="G116" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H116" t="s">
-        <v>259</v>
+        <v>333</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B117" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117">
-        <v>110.0</v>
+        <v>959.0</v>
       </c>
       <c r="E117" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="F117" t="s">
         <v>31</v>
       </c>
       <c r="G117" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="H117" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B118" t="s">
-        <v>332</v>
+        <v>155</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
       <c r="D118">
-        <v>160.0</v>
+        <v>445.0</v>
       </c>
       <c r="E118" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
         <v>32</v>
       </c>
       <c r="H118" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
+        <v>340</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119">
-        <v>208.0</v>
+        <v>630.0</v>
       </c>
       <c r="E119" t="s">
-        <v>16</v>
+        <v>341</v>
       </c>
       <c r="F119" t="s">
         <v>11</v>
       </c>
       <c r="G119" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="H119" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B120" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120">
-        <v>348.0</v>
+        <v>427.0</v>
       </c>
       <c r="E120" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F120" t="s">
         <v>11</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H120" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B121" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121">
-        <v>726.0</v>
+        <v>892.0</v>
       </c>
       <c r="E121" t="s">
-        <v>30</v>
+        <v>347</v>
       </c>
       <c r="F121" t="s">
         <v>31</v>
@@ -4615,50 +4567,50 @@
         <v>144</v>
       </c>
       <c r="H121" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="B122" t="s">
-        <v>343</v>
+        <v>69</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122">
-        <v>428.0</v>
+        <v>881.0</v>
       </c>
       <c r="E122" t="s">
-        <v>344</v>
+        <v>62</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H122" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B123" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123">
-        <v>128.0</v>
+        <v>199.0</v>
       </c>
       <c r="E123" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F123" t="s">
         <v>11</v>
@@ -4667,293 +4619,111 @@
         <v>12</v>
       </c>
       <c r="H123" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B124" t="s">
-        <v>351</v>
+        <v>72</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124">
-        <v>959.0</v>
+        <v>356.0</v>
       </c>
       <c r="E124" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="F124" t="s">
         <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="H124" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B125" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
       <c r="D125">
-        <v>445.0</v>
+        <v>376.0</v>
       </c>
       <c r="E125" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F125" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H125" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B126" t="s">
-        <v>356</v>
+        <v>72</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126">
-        <v>630.0</v>
+        <v>396.0</v>
       </c>
       <c r="E126" t="s">
-        <v>357</v>
+        <v>82</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G126" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="H126" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B127" t="s">
-        <v>243</v>
+        <v>184</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
       <c r="D127">
-        <v>427.0</v>
+        <v>475.0</v>
       </c>
       <c r="E127" t="s">
-        <v>62</v>
+        <v>347</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="H127" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" t="s">
-        <v>361</v>
-      </c>
-      <c r="B128" t="s">
         <v>362</v>
-      </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-      <c r="D128">
-        <v>892.0</v>
-      </c>
-      <c r="E128" t="s">
-        <v>363</v>
-      </c>
-      <c r="F128" t="s">
-        <v>31</v>
-      </c>
-      <c r="G128" t="s">
-        <v>144</v>
-      </c>
-      <c r="H128" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" t="s">
-        <v>365</v>
-      </c>
-      <c r="B129" t="s">
-        <v>69</v>
-      </c>
-      <c r="C129">
-        <v>1</v>
-      </c>
-      <c r="D129">
-        <v>881.0</v>
-      </c>
-      <c r="E129" t="s">
-        <v>62</v>
-      </c>
-      <c r="F129" t="s">
-        <v>31</v>
-      </c>
-      <c r="G129" t="s">
-        <v>20</v>
-      </c>
-      <c r="H129" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" t="s">
-        <v>367</v>
-      </c>
-      <c r="B130" t="s">
-        <v>368</v>
-      </c>
-      <c r="C130">
-        <v>1</v>
-      </c>
-      <c r="D130">
-        <v>199.0</v>
-      </c>
-      <c r="E130" t="s">
-        <v>369</v>
-      </c>
-      <c r="F130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
-      <c r="H130" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" t="s">
-        <v>371</v>
-      </c>
-      <c r="B131" t="s">
-        <v>72</v>
-      </c>
-      <c r="C131">
-        <v>1</v>
-      </c>
-      <c r="D131">
-        <v>356.0</v>
-      </c>
-      <c r="E131" t="s">
-        <v>82</v>
-      </c>
-      <c r="F131" t="s">
-        <v>31</v>
-      </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
-      <c r="H131" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" t="s">
-        <v>373</v>
-      </c>
-      <c r="B132" t="s">
-        <v>85</v>
-      </c>
-      <c r="C132">
-        <v>1</v>
-      </c>
-      <c r="D132">
-        <v>376.0</v>
-      </c>
-      <c r="E132" t="s">
-        <v>54</v>
-      </c>
-      <c r="F132" t="s">
-        <v>31</v>
-      </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
-      <c r="H132" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" t="s">
-        <v>375</v>
-      </c>
-      <c r="B133" t="s">
-        <v>72</v>
-      </c>
-      <c r="C133">
-        <v>1</v>
-      </c>
-      <c r="D133">
-        <v>396.0</v>
-      </c>
-      <c r="E133" t="s">
-        <v>82</v>
-      </c>
-      <c r="F133" t="s">
-        <v>31</v>
-      </c>
-      <c r="G133" t="s">
-        <v>20</v>
-      </c>
-      <c r="H133" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" t="s">
-        <v>377</v>
-      </c>
-      <c r="B134" t="s">
-        <v>186</v>
-      </c>
-      <c r="C134">
-        <v>1</v>
-      </c>
-      <c r="D134">
-        <v>475.0</v>
-      </c>
-      <c r="E134" t="s">
-        <v>363</v>
-      </c>
-      <c r="F134" t="s">
-        <v>31</v>
-      </c>
-      <c r="G134" t="s">
-        <v>144</v>
-      </c>
-      <c r="H134" t="s">
-        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -5084,13 +4854,6 @@
     <hyperlink ref="A125" r:id="rId_hyperlink_124"/>
     <hyperlink ref="A126" r:id="rId_hyperlink_125"/>
     <hyperlink ref="A127" r:id="rId_hyperlink_126"/>
-    <hyperlink ref="A128" r:id="rId_hyperlink_127"/>
-    <hyperlink ref="A129" r:id="rId_hyperlink_128"/>
-    <hyperlink ref="A130" r:id="rId_hyperlink_129"/>
-    <hyperlink ref="A131" r:id="rId_hyperlink_130"/>
-    <hyperlink ref="A132" r:id="rId_hyperlink_131"/>
-    <hyperlink ref="A133" r:id="rId_hyperlink_132"/>
-    <hyperlink ref="A134" r:id="rId_hyperlink_133"/>
   </hyperlinks>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DFS_LIST.XLSX
+++ b/DFS_LIST.XLSX
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="479">
   <si>
     <t>Product ID</t>
   </si>
@@ -59,6 +59,66 @@
     <t>LAT 5410 NB STD 14-in (1366 x 768) NoTCH NoCAM 1x i5Q (i5-10310U) 1.70GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
+    <t>dell-latitude-7420-touch-000087</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7420 Touch</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-1145G7 (4-Core, 2.60 GHz)</t>
+  </si>
+  <si>
+    <t>16 GB (1x 16GB)</t>
+  </si>
+  <si>
+    <t>LAT 7420 NB STD 14-in (1920 x 1080) TCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-monitor-22-inch-p2222h-000001</t>
+  </si>
+  <si>
+    <t>Dell Monitor 22-inch (P2222H)</t>
+  </si>
+  <si>
+    <t>Dell Professional Series P2222H</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-touch-000065</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-touch-000058</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5420 Touch</t>
+  </si>
+  <si>
+    <t>1x Intel Core i7-1185G7 (4-Core, 3.00 GHz)</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5400-touch-000083</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5400 Touch</t>
+  </si>
+  <si>
+    <t>1x Intel Core i7-8665U (4-Core, 1.90 GHz)</t>
+  </si>
+  <si>
+    <t>LAT 5400 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-8665U) 1.90GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-touch-000083</t>
+  </si>
+  <si>
+    <t>LAT 7420 NB STD 14-in (1920 x 1080) TCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-touch-000032</t>
+  </si>
+  <si>
     <t>dell-optiplex-3070-mff-000161</t>
   </si>
   <si>
@@ -71,18 +131,114 @@
     <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 8GB 500GB NoOPT 32MB  W10P64</t>
   </si>
   <si>
+    <t>dell-monitor-21-5-inch-p2217h-000001</t>
+  </si>
+  <si>
+    <t>Dell Monitor 21.5-inch (P2217H)</t>
+  </si>
+  <si>
+    <t>Dell Professional Series P2217H</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-touch-000107</t>
+  </si>
+  <si>
+    <t>Windows 11 Pro</t>
+  </si>
+  <si>
+    <t>LAT 7420 NB STD 14-in (1920 x 1080) TCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB BkLIT W11P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5320-touch-000115</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5320 Touch</t>
+  </si>
+  <si>
+    <t>32 GB (1x 32GB)</t>
+  </si>
+  <si>
+    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000431</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5420</t>
+  </si>
+  <si>
+    <t>32 GB (2x 16GB)</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5320-touch-000106</t>
+  </si>
+  <si>
+    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000284</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5320-touch-000110</t>
+  </si>
+  <si>
+    <t>dell-latitude-5320-000264</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5320</t>
+  </si>
+  <si>
+    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-monitor-21-5-inch-p2219h-000001</t>
+  </si>
+  <si>
+    <t>Dell Monitor 21.5-inch (P2219H)</t>
+  </si>
+  <si>
+    <t>Dell Professional Series P2219H</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-touch-000064</t>
+  </si>
+  <si>
     <t>dell-latitude-5310-touch-000046</t>
   </si>
   <si>
     <t>Dell Latitude 5310 Touch</t>
   </si>
   <si>
-    <t>16 GB (1x 16GB)</t>
-  </si>
-  <si>
     <t>LAT 5310 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i5Q (i5-10310U) 1.70GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
+    <t>dell-latitude-5420-000422</t>
+  </si>
+  <si>
+    <t>16 GB (2x 8GB)</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 256GB NoOPT 32MB NoBkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000436</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000440</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB NoBkLIT W10P64</t>
+  </si>
+  <si>
     <t>lenovo-thinkcentre-m720q-mff-000007</t>
   </si>
   <si>
@@ -95,12 +251,33 @@
     <t>TKC M720Q MFF STD 1x i56C (i5-8500T) 2.10GHz 8GB 500GB NoOPT 32MB  W10P64</t>
   </si>
   <si>
+    <t>dell-latitude-7420-000155</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7420</t>
+  </si>
+  <si>
+    <t>LAT 7420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
     <t>dell-latitude-5310-touch-000044</t>
   </si>
   <si>
     <t>LAT 5310 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i5Q (i5-10310U) 1.70GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
+    <t>dell-latitude-7420-touch-000097</t>
+  </si>
+  <si>
+    <t>dell-latitude-7320-touch-000026</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7320 Touch</t>
+  </si>
+  <si>
+    <t>LAT 7320 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W11P64</t>
+  </si>
+  <si>
     <t>microsoft-surface-laptop-3-touch-no-os-000020</t>
   </si>
   <si>
@@ -113,9 +290,6 @@
     <t>No Operating System</t>
   </si>
   <si>
-    <t>16 GB (2x 8GB)</t>
-  </si>
-  <si>
     <t>SUR Laptop 3 NB STD 13.5-in (2256 x 1504) TCH CAM 1x i7Q (i7-1065G7) 1.30GHz 16GB 256GB NoOPT 32MB BkLIT NoOS</t>
   </si>
   <si>
@@ -128,12 +302,18 @@
     <t>1x Intel Core i3-1005G1 (2-Core, 3.40 GHz)</t>
   </si>
   <si>
-    <t>Windows 11 Pro</t>
-  </si>
-  <si>
     <t>LAT 3420 NB STD 14-in (1366 x 768) NoTCH CAM 1x i3 (i3-1005G1) 3.40GHz 8GB 256GB NoOPT 32MB BkLIT W11P64</t>
   </si>
   <si>
+    <t>microsoft-surface-laptop-4-touch-no-os-000006</t>
+  </si>
+  <si>
+    <t>Microsoft Surface Laptop 4 Touch - No OS</t>
+  </si>
+  <si>
+    <t>SUR Laptop 4 NB STD 13.5-in (2256 x 1504) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
     <t>dell-wyse-5070-usff-no-os-000005</t>
   </si>
   <si>
@@ -161,16 +341,16 @@
     <t>OPT 3060 SFF STD 1x i56C (i5-8500) 3.00GHz 16GB 1024GB NoOPT 32MB  W10P64</t>
   </si>
   <si>
-    <t>dell-latitude-5400-touch-000083</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5400 Touch</t>
-  </si>
-  <si>
-    <t>1x Intel Core i7-8665U (4-Core, 1.90 GHz)</t>
-  </si>
-  <si>
-    <t>LAT 5400 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-8665U) 1.90GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+    <t>dell-latitude-7420-touch-000072</t>
+  </si>
+  <si>
+    <t>LAT 7420 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-000170</t>
+  </si>
+  <si>
+    <t>LAT 7420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
     <t>lenovo-thinkbook-14s-yoga-touch-no-os-000005</t>
@@ -185,6 +365,21 @@
     <t>TKB 14s Yoga NB STD 14-in (1920 x 1080) TCH CAM 1x i5Q (i5-1135G7) 2.40GHz 8GB 256GB NoOPT 32MB BkLIT NoOS</t>
   </si>
   <si>
+    <t>dell-latitude-5420-000418</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 256GB NoOPT 32MB NoBkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-000210</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-touch-000098</t>
+  </si>
+  <si>
+    <t>LAT 7420 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB BkLIT W11P64</t>
+  </si>
+  <si>
     <t>dell-optiplex-5090-sff-000079</t>
   </si>
   <si>
@@ -197,37 +392,25 @@
     <t>OPT 5090 SFF STD 1x i3Q (i3-10105) 3.70GHz 16GB 128GB NoOPT 32MB  W10P64</t>
   </si>
   <si>
-    <t>dell-latitude-7320-touch-000026</t>
-  </si>
-  <si>
-    <t>Dell Latitude 7320 Touch</t>
-  </si>
-  <si>
-    <t>1x Intel Core i7-1185G7 (4-Core, 3.00 GHz)</t>
-  </si>
-  <si>
-    <t>LAT 7320 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W11P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5320-touch-000115</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5320 Touch</t>
-  </si>
-  <si>
-    <t>32 GB (1x 32GB)</t>
-  </si>
-  <si>
-    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB BkLIT W10P64</t>
+    <t>dell-latitude-5420-000514</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-000279</t>
+  </si>
+  <si>
+    <t>LAT 7420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 256GB NoOPT 32MB BkLIT W11P64</t>
   </si>
   <si>
     <t>microsoft-surface-laptop-4-touch-no-os-000004</t>
   </si>
   <si>
-    <t>Microsoft Surface Laptop 4 Touch - No OS</t>
-  </si>
-  <si>
-    <t>SUR Laptop 4 NB STD 13.5-in (2256 x 1504) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
+    <t>dell-latitude-5420-000551</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-000292</t>
   </si>
   <si>
     <t>lenovo-thinkpad-t14-no-os-000016</t>
@@ -251,24 +434,51 @@
     <t>LAT 7320 NB STD 13.3-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
-    <t>dell-optiplex-3060-sff-000190</t>
-  </si>
-  <si>
-    <t>OPT 3060 SFF STD 1x i56C (i5-8500) 3.00GHz 16GB 512GB NoOPT 32MB  W10P64</t>
+    <t>dell-optiplex-3070-sff-000209</t>
+  </si>
+  <si>
+    <t>Dell OptiPlex 3070 SFF</t>
+  </si>
+  <si>
+    <t>OPT 3070 SFF STD 1x i56C (i5-8500) 3.00GHz 8GB 256GB NoOPT 32MB  W10P64</t>
   </si>
   <si>
     <t>dell-latitude-7420-touch-000059</t>
   </si>
   <si>
-    <t>Dell Latitude 7420 Touch</t>
-  </si>
-  <si>
-    <t>1x Intel Core i5-1145G7 (4-Core, 2.60 GHz)</t>
-  </si>
-  <si>
     <t>64-bit Windows 10 Professional</t>
   </si>
   <si>
+    <t>dell-latitude-5420-000275</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000276</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000285</t>
+  </si>
+  <si>
+    <t>dell-latitude-5400-touch-000086</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-000167</t>
+  </si>
+  <si>
+    <t>LAT 7420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000317</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1135G7) 2.40GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7320-000096</t>
+  </si>
+  <si>
+    <t>LAT 7320 NB STD 13.3-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
     <t>lenovo-thinkpad-e14-gen-2-no-os-000004</t>
   </si>
   <si>
@@ -281,18 +491,432 @@
     <t>TKP E14 Gen 2 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1165G7) 2.80GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
   </si>
   <si>
-    <t>dell-latitude-5420-touch-000058</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5420 Touch</t>
-  </si>
-  <si>
-    <t>LAT 5420 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+    <t>dell-latitude-7420-000212</t>
+  </si>
+  <si>
+    <t>dell-latitude-7320-touch-000021</t>
+  </si>
+  <si>
+    <t>LAT 7320 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
     <t>dell-optiplex-3070-mff-000164</t>
   </si>
   <si>
+    <t>dell-latitude-5320-touch-000097</t>
+  </si>
+  <si>
+    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB BkLIT W11P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5320-touch-000098</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000521</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 256GB NoOPT 32MB BkLIT W11P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-3410-000024</t>
+  </si>
+  <si>
+    <t>Dell Latitude 3410</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-10210U (4-Core, 1.60 GHz)</t>
+  </si>
+  <si>
+    <t>LAT 3410 NB STD 14-in (1366 x 768) NoTCH CAM 1x i5Q (i5-10210U) 1.60GHz 8GB 256GB NoOPT 32MB NoBkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-precision-3561-000089</t>
+  </si>
+  <si>
+    <t>Dell Precision 3561</t>
+  </si>
+  <si>
+    <t>1x Intel Core i7-11850H (8-Core, 2.50 GHz)</t>
+  </si>
+  <si>
+    <t>PRE 3561 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i78C (i7-11850H) 2.50GHz 16GB 512GB NoOPT 4GB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-000282</t>
+  </si>
+  <si>
+    <t>LAT 7420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3090-mff-000030</t>
+  </si>
+  <si>
+    <t>Dell OptiPlex 3090 MFF</t>
+  </si>
+  <si>
+    <t>1x Intel Core i3-10105T (4-Core, 3.00 GHz)</t>
+  </si>
+  <si>
+    <t>OPT 3090 MFF STD 1x i3 (i3-10105T) 3.00GHz 8GB 256GB NoOPT 32MB  W11P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5320-touch-000127</t>
+  </si>
+  <si>
+    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>microsoft-surface-laptop-4-touch-no-os-000005</t>
+  </si>
+  <si>
+    <t>SUR Laptop 4 NB STD 13.5-in (2256 x 1504) TCH CAM 1x i5Q (i5-1145G7) 2.60GHz 8GB 256GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-t14-no-os-000013</t>
+  </si>
+  <si>
+    <t>TKP T14 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10210U) 1.60GHz 8GB 256GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-t14-no-os-000015</t>
+  </si>
+  <si>
+    <t>dell-latitude-5320-000214</t>
+  </si>
+  <si>
+    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000553</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-touch-000121</t>
+  </si>
+  <si>
+    <t>LAT 7420 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>lenovo-thinkbook-14s-yoga-touch-no-os-000008</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000577</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W11P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3090-mff-000034</t>
+  </si>
+  <si>
+    <t>1x Intel Core i3-10100T (4-Core, 3.00 GHz)</t>
+  </si>
+  <si>
+    <t>OPT 3090 MFF STD 1x i3Q (i3-10100T) 3.00GHz 8GB 128GB NoOPT 32MB  W11P64</t>
+  </si>
+  <si>
+    <t>lenovo-thinkcentre-m720q-mff-000003</t>
+  </si>
+  <si>
+    <t>1x Intel Core i3-8100T (4-Core, 3.10 GHz)</t>
+  </si>
+  <si>
+    <t>TKC M720Q MFF STD 1x i3Q (i3-8100T) 3.10GHz 8GB 500GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>hp-elitebook-x360-1040-g8-no-os-000005</t>
+  </si>
+  <si>
+    <t>HP EliteBook X360 1040 G8 - No OS</t>
+  </si>
+  <si>
+    <t>EBK X360 1040 G8 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-touch-000141</t>
+  </si>
+  <si>
+    <t>LAT 7420 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-1165G7) 2.80GHz 16GB 512GB NoOPT 32MB BkLIT W11P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3070-mff-000112</t>
+  </si>
+  <si>
+    <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 8GB 256GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3070-mff-000117</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3070-mff-000123</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3070-sff-000171</t>
+  </si>
+  <si>
+    <t>dell-optiplex-7070-sff-000241</t>
+  </si>
+  <si>
+    <t>Dell OptiPlex 7070 SFF</t>
+  </si>
+  <si>
+    <t>1x Intel Core i7-8700 (6-Core, 3.20 GHz)</t>
+  </si>
+  <si>
+    <t>OPT 7070 SFF STD 1x i76C (i7-8700) 3.20GHz 32GB 512GB NoOPT 2GB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000273</t>
+  </si>
+  <si>
+    <t>dell-latitude-7400-000333</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7400</t>
+  </si>
+  <si>
+    <t>LAT 7400 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-8665U) 1.90GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000277</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1135G7) 2.40GHz 16GB 256GB NoOPT 32MB NoBkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000279</t>
+  </si>
+  <si>
+    <t>dell-latitude-7400-2-in-1-touch-000081</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7400 2-in-1 Touch</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-8265U (4-Core, 1.60 GHz)</t>
+  </si>
+  <si>
+    <t>LAT 7400 2-in-1 2N1 STD 1x i5Q (i5-8265U) 1.60GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-000158</t>
+  </si>
+  <si>
+    <t>LAT 7420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1165G7) 2.80GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>hp-zbook-15-g7-firefly-no-os-000001</t>
+  </si>
+  <si>
+    <t>HP Zbook 15 G7 FIREFLY - No OS</t>
+  </si>
+  <si>
+    <t>ZBK 15 G7 FIREFLY NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10210U) 1.60GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>hp-elitebook-x360-1040-g8-no-os-000003</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-touch-000071</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000325</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1135G7) 2.40GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-touch-000073</t>
+  </si>
+  <si>
+    <t>LAT 7420 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5310-touch-000045</t>
+  </si>
+  <si>
+    <t>LAT 5310 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i5Q (i5-10310U) 1.70GHz 32GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-t14-no-os-000010</t>
+  </si>
+  <si>
+    <t>1x Intel Core i7-10610U (4-Core, 1.80 GHz)</t>
+  </si>
+  <si>
+    <t>TKP T14 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-10610U) 1.80GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000364</t>
+  </si>
+  <si>
+    <t>dell-latitude-5300-2-in-1-touch-000096</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5300 2-In-1 Touch</t>
+  </si>
+  <si>
+    <t>LAT 5300 2-In-1 2N1 STD 1x i7Q (i7-8665U) 1.90GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-t14-no-os-000012</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000420</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000424</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000435</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7400-000374</t>
+  </si>
+  <si>
+    <t>LAT 7400 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-8665U) 1.90GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3080-sff-000144</t>
+  </si>
+  <si>
+    <t>Dell OptiPlex 3080 SFF</t>
+  </si>
+  <si>
+    <t>1x Intel Celeron G5900 (2-Core, 3.40 GHz)</t>
+  </si>
+  <si>
+    <t>24 GB (1x 8GB, 1x 16GB)</t>
+  </si>
+  <si>
+    <t>OPT 3080 SFF STD 1x CDC (G5900) 3.40GHz 24GB 256GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-3420-000030</t>
+  </si>
+  <si>
+    <t>LAT 3420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1135G7) 2.40GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3070-mff-000162</t>
+  </si>
+  <si>
+    <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 16GB 500GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3070-mff-000165</t>
+  </si>
+  <si>
+    <t>12 GB (1x 4GB, 1x 8GB)</t>
+  </si>
+  <si>
+    <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 12GB 256GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3070-mff-000166</t>
+  </si>
+  <si>
+    <t>dell-optiplex-7070-sff-000278</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-9500 (6-Core, 3.00 GHz)</t>
+  </si>
+  <si>
+    <t>OPT 7070 SFF STD 1x i56C (i5-9500) 3.00GHz 8GB 128GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3070-mff-000167</t>
+  </si>
+  <si>
+    <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 16GB 256GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3070-mff-000169</t>
+  </si>
+  <si>
+    <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 8GB 512GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5320-000161</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000491</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 8GB 256GB NoOPT 32MB NoBkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5310-touch-000049</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-x1-carbon-8th-gen-000005</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad X1 Carbon 8th Gen</t>
+  </si>
+  <si>
+    <t>TKP X1 Carbon 8th Gen NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-10610U) 1.80GHz 16GB 1024GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7320-detachable-000064</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7320 Detachable</t>
+  </si>
+  <si>
+    <t>1x Intel Core I7-1180G7 (4-Core, 2.20 GHz)</t>
+  </si>
+  <si>
+    <t>16 GB</t>
+  </si>
+  <si>
+    <t>LAT 7320 Detachable TAB STD 13.3-in (1920 x 1280) 1x i7Q (I7-1180G7) 2.20GHz 16GB 256GB W10P0</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-t490-20ny-000009</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad T490 (20NY)</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-8365U (4-Core, 1.60 GHz)</t>
+  </si>
+  <si>
+    <t>TKP 20NY NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-8365U) 1.60GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3080-sff-000150</t>
+  </si>
+  <si>
+    <t>OPT 3080 SFF STD 1x CDC (G5900) 3.40GHz 32GB 500GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-monitor-24-inch-e2422h-000001</t>
+  </si>
+  <si>
+    <t>Dell Monitor 24-inch (E2422H)</t>
+  </si>
+  <si>
+    <t>Dell E Series E2422H</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3080-sff-000152</t>
+  </si>
+  <si>
+    <t>OPT 3080 SFF STD 1x CDC (G5900) 3.40GHz 8GB 500GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5320-000182</t>
+  </si>
+  <si>
+    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 256GB NoOPT 32MB BkLIT W11P64</t>
+  </si>
+  <si>
     <t>dell-latitude-5520-touch-000026</t>
   </si>
   <si>
@@ -302,808 +926,532 @@
     <t>LAT 5520 NB STD 15.6-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
-    <t>dell-latitude-3410-000024</t>
-  </si>
-  <si>
-    <t>Dell Latitude 3410</t>
-  </si>
-  <si>
-    <t>1x Intel Core i5-10210U (4-Core, 1.60 GHz)</t>
-  </si>
-  <si>
-    <t>LAT 3410 NB STD 14-in (1366 x 768) NoTCH CAM 1x i5Q (i5-10210U) 1.60GHz 8GB 256GB NoOPT 32MB NoBkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-precision-3561-000089</t>
-  </si>
-  <si>
-    <t>Dell Precision 3561</t>
-  </si>
-  <si>
-    <t>1x Intel Core i7-11850H (8-Core, 2.50 GHz)</t>
-  </si>
-  <si>
-    <t>PRE 3561 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i78C (i7-11850H) 2.50GHz 16GB 512GB NoOPT 4GB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-7420-000282</t>
-  </si>
-  <si>
-    <t>Dell Latitude 7420</t>
-  </si>
-  <si>
-    <t>LAT 7420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3090-mff-000030</t>
-  </si>
-  <si>
-    <t>Dell OptiPlex 3090 MFF</t>
-  </si>
-  <si>
-    <t>1x Intel Core i3-10105T (4-Core, 3.00 GHz)</t>
-  </si>
-  <si>
-    <t>OPT 3090 MFF STD 1x i3 (i3-10105T) 3.00GHz 8GB 256GB NoOPT 32MB  W11P64</t>
-  </si>
-  <si>
-    <t>lenovo-thinkpad-t14-no-os-000013</t>
-  </si>
-  <si>
-    <t>TKP T14 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10210U) 1.60GHz 8GB 256GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>lenovo-thinkpad-t14-no-os-000015</t>
-  </si>
-  <si>
-    <t>lenovo-thinkbook-14s-yoga-touch-no-os-000008</t>
-  </si>
-  <si>
-    <t>microsoft-surface-laptop-4-touch-no-os-000006</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3090-mff-000034</t>
-  </si>
-  <si>
-    <t>1x Intel Core i3-10100T (4-Core, 3.00 GHz)</t>
-  </si>
-  <si>
-    <t>OPT 3090 MFF STD 1x i3Q (i3-10100T) 3.00GHz 8GB 128GB NoOPT 32MB  W11P64</t>
-  </si>
-  <si>
-    <t>lenovo-thinkcentre-m720q-mff-000003</t>
-  </si>
-  <si>
-    <t>1x Intel Core i3-8100T (4-Core, 3.10 GHz)</t>
-  </si>
-  <si>
-    <t>TKC M720Q MFF STD 1x i3Q (i3-8100T) 3.10GHz 8GB 500GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3070-mff-000112</t>
-  </si>
-  <si>
-    <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 8GB 256GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3060-sff-000191</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3070-mff-000123</t>
-  </si>
-  <si>
-    <t>dell-latitude-5400-000493</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5400</t>
-  </si>
-  <si>
-    <t>1x Intel Core i5-8365U (4-Core, 1.60 GHz)</t>
-  </si>
-  <si>
-    <t>LAT 5400 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-8365U) 1.60GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-7400-2-in-1-touch-000081</t>
-  </si>
-  <si>
-    <t>Dell Latitude 7400 2-in-1 Touch</t>
-  </si>
-  <si>
-    <t>1x Intel Core i5-8265U (4-Core, 1.60 GHz)</t>
-  </si>
-  <si>
-    <t>LAT 7400 2-in-1 2N1 STD 1x i5Q (i5-8265U) 1.60GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5400-000498</t>
-  </si>
-  <si>
-    <t>dell-latitude-5490-000607</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5490</t>
-  </si>
-  <si>
-    <t>1x Intel Core i5-7300U (2-Core, 2.60 GHz)</t>
-  </si>
-  <si>
-    <t>LAT 5490 NB STD 14-in (1366 x 768) NoTCH CAM 1x i5 (i5-7300U) 2.60GHz 8GB 500GB NoOPT 32MB NoBkLIT W10P64</t>
-  </si>
-  <si>
-    <t>hp-zbook-15-g7-firefly-no-os-000001</t>
-  </si>
-  <si>
-    <t>HP Zbook 15 G7 FIREFLY - No OS</t>
-  </si>
-  <si>
-    <t>ZBK 15 G7 FIREFLY NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10210U) 1.60GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>dell-latitude-5400-000510</t>
-  </si>
-  <si>
-    <t>LAT 5400 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-8265U) 1.60GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5310-touch-000045</t>
-  </si>
-  <si>
-    <t>32 GB (2x 16GB)</t>
-  </si>
-  <si>
-    <t>LAT 5310 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i5Q (i5-10310U) 1.70GHz 32GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>lenovo-thinkpad-t14-no-os-000010</t>
-  </si>
-  <si>
-    <t>1x Intel Core i7-10610U (4-Core, 1.80 GHz)</t>
-  </si>
-  <si>
-    <t>TKP T14 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-10610U) 1.80GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>dell-latitude-5490-touch-000055</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5490 Touch</t>
-  </si>
-  <si>
-    <t>1x Intel Core i5-8350U (4-Core, 1.70 GHz)</t>
-  </si>
-  <si>
-    <t>LAT 5490 NB STD 14-in (1920 x 1080) TCH CAM 1x i5Q (i5-8350U) 1.70GHz 8GB 500GB NoOPT 32MB NoBkLIT W10P64</t>
-  </si>
-  <si>
-    <t>lenovo-thinkpad-t14-no-os-000012</t>
-  </si>
-  <si>
-    <t>dell-latitude-5420-000420</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5420</t>
-  </si>
-  <si>
-    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1135G7) 2.40GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5420-000431</t>
-  </si>
-  <si>
-    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5420-000440</t>
-  </si>
-  <si>
-    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB NoBkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3080-sff-000144</t>
-  </si>
-  <si>
-    <t>Dell OptiPlex 3080 SFF</t>
-  </si>
-  <si>
-    <t>1x Intel Celeron G5900 (2-Core, 3.40 GHz)</t>
-  </si>
-  <si>
-    <t>24 GB (1x 8GB, 1x 16GB)</t>
-  </si>
-  <si>
-    <t>OPT 3080 SFF STD 1x CDC (G5900) 3.40GHz 24GB 256GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-3420-000030</t>
-  </si>
-  <si>
-    <t>LAT 3420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1135G7) 2.40GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3070-mff-000162</t>
-  </si>
-  <si>
-    <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 16GB 500GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3070-mff-000165</t>
-  </si>
-  <si>
-    <t>12 GB (1x 4GB, 1x 8GB)</t>
-  </si>
-  <si>
-    <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 12GB 256GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3070-mff-000166</t>
-  </si>
-  <si>
-    <t>dell-optiplex-7070-sff-000278</t>
-  </si>
-  <si>
-    <t>Dell OptiPlex 7070 SFF</t>
-  </si>
-  <si>
-    <t>1x Intel Core i5-9500 (6-Core, 3.00 GHz)</t>
-  </si>
-  <si>
-    <t>OPT 7070 SFF STD 1x i56C (i5-9500) 3.00GHz 8GB 128GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3070-mff-000167</t>
-  </si>
-  <si>
-    <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 16GB 256GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3070-mff-000169</t>
-  </si>
-  <si>
-    <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 8GB 512GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5310-touch-000049</t>
-  </si>
-  <si>
-    <t>lenovo-thinkpad-p1-gen-4-no-os-000001</t>
+    <t>dell-latitude-5421-000064</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5421</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-11500H (6-Core, 2.90 GHz)</t>
+  </si>
+  <si>
+    <t>LAT 5421 NB STD 14-in (1366 x 768) NoTCH CAM 1x i56C (i5-11500H) 2.90GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-000260</t>
+  </si>
+  <si>
+    <t>LAT 7420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 256GB NoOPT 32MB BkLIT W11P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7320-detachable-000068</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-1140G7 (4-Core, 1.80 GHz)</t>
+  </si>
+  <si>
+    <t>8 GB</t>
+  </si>
+  <si>
+    <t>LAT 7320 Detachable TAB STD 13.3-in (1920 x 1280) 1x i5Q (i5-1140G7) 1.80GHz 8GB 256GB W10P0</t>
+  </si>
+  <si>
+    <t>dell-latitude-7320-detachable-000069</t>
+  </si>
+  <si>
+    <t>LAT 7320 Detachable TAB STD 13.3-in (1920 x 1280) 1x i5Q (i5-1140G7) 1.80GHz 16GB 512GB W11P0</t>
+  </si>
+  <si>
+    <t>dell-precision-5560-000205</t>
+  </si>
+  <si>
+    <t>Dell Precision 5560</t>
+  </si>
+  <si>
+    <t>PRE 5560 NB STD 15.6-in (1920 x 1200) NoTCH CAM 1x i78C (i7-11850H) 2.50GHz 32GB 1024GB NoOPT 4GB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000522</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1165G7) 2.80GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000533</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB BkLIT W11P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7410-touch-000079</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7410 Touch</t>
+  </si>
+  <si>
+    <t>LAT 7410 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-10610U) 1.80GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-000275</t>
+  </si>
+  <si>
+    <t>LAT 7420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1165G7) 2.80GHz 16GB 512GB NoOPT 32MB BkLIT W11P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-9410-2-in-1-touch-000017</t>
+  </si>
+  <si>
+    <t>Dell Latitude 9410 2-In-1 Touch</t>
+  </si>
+  <si>
+    <t>LAT 9410 2-In-1 2N1 STD 1x i7Q (i7-10610U) 1.80GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5320-touch-000124</t>
+  </si>
+  <si>
+    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7220-rugged-000044</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7220 Rugged</t>
+  </si>
+  <si>
+    <t>LAT 7220 Rugged TAB STD 11.6-in (1920 x 1080) 1x i5Q (i5-8365U) 1.60GHz 8GB 256GB W11P0</t>
+  </si>
+  <si>
+    <t>dell-latitude-3410-000025</t>
+  </si>
+  <si>
+    <t>1x Intel Core i3-10110U (2-Core, 2.10 GHz)</t>
+  </si>
+  <si>
+    <t>LAT 3410 NB STD 14-in (1366 x 768) NoTCH CAM 1x i3 (i3-10110U) 2.10GHz 8GB 256GB NoOPT 32MB NoBkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-precision-5560-000219</t>
+  </si>
+  <si>
+    <t>PRE 5560 NB STD 15.6-in (1920 x 1200) NoTCH CAM 1x i78C (i7-11850H) 2.50GHz 16GB 256GB NoOPT 4GB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5320-000210</t>
+  </si>
+  <si>
+    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB NoBkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-touch-000116</t>
+  </si>
+  <si>
+    <t>LAT 7420 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W11P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000540</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 32GB 512GB NoOPT 32MB NoBkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-5090-mff-000047</t>
+  </si>
+  <si>
+    <t>Dell OptiPlex 5090 MFF</t>
+  </si>
+  <si>
+    <t>1x Intel Pentium Gold G6405T (2-Core, 2.30 GHz)</t>
+  </si>
+  <si>
+    <t>OPT 5090 MFF STD 1x PDC (G6405T) 2.30GHz 16GB 256GB NoOPT 32MB  W11P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-5040-mt-000070</t>
+  </si>
+  <si>
+    <t>Dell OptiPlex 5040 MT</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-6500 (4-Core, 3.20 GHz)</t>
+  </si>
+  <si>
+    <t>OPT 5040 MT STD 1x i5Q (i5-6500) 3.20GHz 8GB 500GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>microsoft-surface-laptop-3-touch-no-os-000022</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000546</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1135G7) 2.40GHz 16GB 256GB NoOPT 32MB BkLIT W11P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5410-000495</t>
+  </si>
+  <si>
+    <t>LAT 5410 NB STD 14-in (1366 x 768) NoTCH NoCAM 1x i5Q (i5-10310U) 1.70GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-t14-no-os-000014</t>
+  </si>
+  <si>
+    <t>TKP T14 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-10610U) 1.80GHz 32GB 512GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-p1-20me-no-os-000006</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad P1 (20ME) - No OS</t>
+  </si>
+  <si>
+    <t>TKP 20ME NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-10610U) 1.80GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-x1-no-os-000009</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad X1 - No OS</t>
+  </si>
+  <si>
+    <t>1x  7-165U (12-Core, 3.80 GHz)</t>
+  </si>
+  <si>
+    <t>TKP X1 NB STD 14-in (1920 x 1080) NoTCH CAM 1x CU716C (7-165U) 3.80GHz 32GB 1024GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>microsoft-surface-pro-7-m1960-000025</t>
+  </si>
+  <si>
+    <t>Microsoft Surface Pro 7 (M1960)</t>
+  </si>
+  <si>
+    <t>SURPRO M1960 TAB STD 12.3-in (2736 x 1824) 1x i7Q (i7-1165G7) 2.80GHz 16GB 512GB W10P0</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000552</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 256GB NoOPT 32MB BkLIT W11P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7410-touch-000080</t>
+  </si>
+  <si>
+    <t>LAT 7410 NB STD 14-in (1920 x 1080) TCH CAM 1x i5Q (i5-10310U) 1.70GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7320-detachable-000070</t>
+  </si>
+  <si>
+    <t>LAT 7320 Detachable TAB STD 13.3-in (1920 x 1280) 1x i7Q (I7-1180G7) 2.20GHz 16GB 512GB W11P0</t>
+  </si>
+  <si>
+    <t>dell-latitude-3410-000027</t>
+  </si>
+  <si>
+    <t>Windows 10 Home</t>
+  </si>
+  <si>
+    <t>LAT 3410 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10210U) 1.60GHz 8GB 512GB NoOPT 32MB BkLIT W10H64</t>
+  </si>
+  <si>
+    <t>dell-latitude-9510-touch-000015</t>
+  </si>
+  <si>
+    <t>Dell Latitude 9510 Touch</t>
+  </si>
+  <si>
+    <t>1x Intel Core i7-10710U (6-Core, 1.10 GHz)</t>
+  </si>
+  <si>
+    <t>LAT 9510 2N1 STD 1x i76C (i7-10710U) 1.10GHz 16GB 1024GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-xps-15-9510-000039</t>
+  </si>
+  <si>
+    <t>Dell XPS 15 (9510)</t>
+  </si>
+  <si>
+    <t>1x Intel Core i9-11900H (8-Core, 2.50 GHz)</t>
+  </si>
+  <si>
+    <t>XPS 9510 NB SLV 15.6-in (1920 x 1200) NoTCH CAM 1x i98C (i9-11900H) 2.50GHz 32GB 512GB NoOPT 4GB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5320-000216</t>
+  </si>
+  <si>
+    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7320-000157</t>
+  </si>
+  <si>
+    <t>LAT 7320 NB STD 13.3-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1135G7) 2.40GHz 16GB 256GB NoOPT 32MB BkLIT W11P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3080-sff-000160</t>
+  </si>
+  <si>
+    <t>OPT 3080 SFF STD 1x CDC (G5900) 3.40GHz 8GB 500GB NoOPT 32MB  W11P64</t>
+  </si>
+  <si>
+    <t>auction__1-060325-060325</t>
+  </si>
+  <si>
+    <t>TEST30</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3080-sff-000161</t>
+  </si>
+  <si>
+    <t>microsoft-suface-book-3-touch-no-os-000001</t>
+  </si>
+  <si>
+    <t>Microsoft Suface Book 3 Touch - No OS</t>
+  </si>
+  <si>
+    <t>SURBK 3 2N1 STD 1x i7Q (i7-1065G7) 1.30GHz 32GB 512GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>auction__2-060425-060625</t>
+  </si>
+  <si>
+    <t>chargeTestFinale</t>
+  </si>
+  <si>
+    <t>microsoft-surface-laptop-3-touch-no-os-000026</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-1035G7 (4-Core, 1.20 GHz)</t>
+  </si>
+  <si>
+    <t>SUR Laptop 3 NB STD 13.5-in (2256 x 1504) TCH CAM 1x i5 (i5-1035G7) 1.20GHz 16GB 256GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>dell-latitude-7410-000212</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7410</t>
+  </si>
+  <si>
+    <t>LAT 7410 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10310U) 1.70GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3000-mff-000003</t>
+  </si>
+  <si>
+    <t>Dell OptiPlex 3000 MFF</t>
+  </si>
+  <si>
+    <t>1x Intel Core i3-12100T (4-Core, 2.20 GHz)</t>
+  </si>
+  <si>
+    <t>OPT 3000 MFF STD 1x i3Q (i3-12100T) 2.20GHz 8GB 256GB NoOPT 32MB  W11P64</t>
+  </si>
+  <si>
+    <t>microsoft-suface-book-3-touch-no-os-000003</t>
+  </si>
+  <si>
+    <t>SURBK 3 2N1 STD 1x i7Q (i7-1065G7) 1.30GHz 32GB 1024GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>dell-wyse-5070-usff-no-os-000006</t>
+  </si>
+  <si>
+    <t>dell-latitude-5410-000508</t>
+  </si>
+  <si>
+    <t>lenovo-thinkcentre-m720q-mff-no-os-000001</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkCentre M720Q MFF - No OS</t>
+  </si>
+  <si>
+    <t>TKC M720Q MFF STD 1x i3Q (i3-8100T) 3.10GHz 8GB 500GB NoOPT 32MB  NoOS</t>
+  </si>
+  <si>
+    <t>lenovo-thinkcentre-m720q-mff-no-os-000004</t>
+  </si>
+  <si>
+    <t>TKC M720Q MFF STD 1x i56C (i5-8500T) 2.10GHz 16GB 500GB NoOPT 32MB  NoOS</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3070-mff-000178</t>
+  </si>
+  <si>
+    <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 16GB 250GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>microsoft-suface-book-3-touch-no-os-000004</t>
+  </si>
+  <si>
+    <t>SURBK 3 2N1 STD 1x i7Q (i7-1065G7) 1.30GHz 32GB 512GB NoOPT 6GB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>dell-latitude-7320-detachable-000073</t>
+  </si>
+  <si>
+    <t>LAT 7320 Detachable TAB STD 13.3-in (1920 x 1280) 1x i5Q (i5-1140G7) 1.80GHz 16GB 512GB W10P0</t>
+  </si>
+  <si>
+    <t>dell-precision-7560-no-os-000067</t>
+  </si>
+  <si>
+    <t>Dell Precision 7560 - No OS</t>
+  </si>
+  <si>
+    <t>PRE 7560 NB STD 15.6-in (3840 x 2160) NoTCH CAM 1x i78C (i7-11850H) 2.50GHz 32GB 1024GB NoOPT 16GB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000596</t>
+  </si>
+  <si>
+    <t>dell-latitude-5320-000227</t>
+  </si>
+  <si>
+    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 1024GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-precision-3561-no-os-000016</t>
+  </si>
+  <si>
+    <t>Dell Precision 3561 - No OS</t>
+  </si>
+  <si>
+    <t>1x Intel Core i7-11800H (8-Core, 1.90 GHz)</t>
+  </si>
+  <si>
+    <t>PRE 3561 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i78C (i7-11800H) 1.90GHz 32GB 512GB NoOPT 4GB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>microsoft-surface-laptop-4-touch-no-os-000007</t>
+  </si>
+  <si>
+    <t>SUR Laptop 4 NB STD 13.5-in (2256 x 1504) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 256GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>dell-latitude-7480-000894</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7480</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-6300U (2-Core, 2.40 GHz)</t>
+  </si>
+  <si>
+    <t>LAT 7480 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5 (i5-6300U) 2.40GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-t14-no-os-000017</t>
+  </si>
+  <si>
+    <t>TKP T14 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 8GB 256GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-e14-gen-2-no-os-000005</t>
+  </si>
+  <si>
+    <t>TKP E14 Gen 2 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1135G7) 2.40GHz 8GB 256GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-t14-no-os-000018</t>
+  </si>
+  <si>
+    <t>TKP T14 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-p1-gen-4-no-os-000004</t>
   </si>
   <si>
     <t>Lenovo ThinkPad P1 Gen 4 - No OS</t>
   </si>
   <si>
-    <t>TKP P1 Gen 4 NB STD 16-in (2560 x 1600) NoTCH CAM 1x i78C (i7-11850H) 2.50GHz 32GB 1024GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>lenovo-thinkpad-x1-carbon-8th-gen-000005</t>
-  </si>
-  <si>
-    <t>Lenovo ThinkPad X1 Carbon 8th Gen</t>
-  </si>
-  <si>
-    <t>TKP X1 Carbon 8th Gen NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-10610U) 1.80GHz 16GB 1024GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-7320-detachable-000064</t>
-  </si>
-  <si>
-    <t>Dell Latitude 7320 Detachable</t>
-  </si>
-  <si>
-    <t>1x Intel Core I7-1180G7 (4-Core, 2.20 GHz)</t>
-  </si>
-  <si>
-    <t>16 GB</t>
-  </si>
-  <si>
-    <t>LAT 7320 Detachable TAB STD 13.3-in (1920 x 1280) 1x i7Q (I7-1180G7) 2.20GHz 16GB 256GB W10P0</t>
-  </si>
-  <si>
-    <t>lenovo-thinkpad-t490-20ny-000009</t>
-  </si>
-  <si>
-    <t>Lenovo ThinkPad T490 (20NY)</t>
-  </si>
-  <si>
-    <t>TKP 20NY NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-8365U) 1.60GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3080-sff-000150</t>
-  </si>
-  <si>
-    <t>OPT 3080 SFF STD 1x CDC (G5900) 3.40GHz 32GB 500GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3080-sff-000152</t>
-  </si>
-  <si>
-    <t>OPT 3080 SFF STD 1x CDC (G5900) 3.40GHz 8GB 500GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5421-000064</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5421</t>
-  </si>
-  <si>
-    <t>1x Intel Core i5-11500H (6-Core, 2.90 GHz)</t>
-  </si>
-  <si>
-    <t>LAT 5421 NB STD 14-in (1366 x 768) NoTCH CAM 1x i56C (i5-11500H) 2.90GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5520-000208</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5520</t>
-  </si>
-  <si>
-    <t>LAT 5520 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-7420-000260</t>
-  </si>
-  <si>
-    <t>LAT 7420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 256GB NoOPT 32MB BkLIT W11P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-7320-detachable-000069</t>
-  </si>
-  <si>
-    <t>1x Intel Core i5-1140G7 (4-Core, 1.80 GHz)</t>
-  </si>
-  <si>
-    <t>LAT 7320 Detachable TAB STD 13.3-in (1920 x 1280) 1x i5Q (i5-1140G7) 1.80GHz 16GB 512GB W11P0</t>
-  </si>
-  <si>
-    <t>dell-precision-5560-000205</t>
-  </si>
-  <si>
-    <t>Dell Precision 5560</t>
-  </si>
-  <si>
-    <t>PRE 5560 NB STD 15.6-in (1920 x 1200) NoTCH CAM 1x i78C (i7-11850H) 2.50GHz 32GB 1024GB NoOPT 4GB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5520-000211</t>
-  </si>
-  <si>
-    <t>LAT 5520 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5420-000522</t>
-  </si>
-  <si>
-    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1165G7) 2.80GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-7410-touch-000079</t>
-  </si>
-  <si>
-    <t>Dell Latitude 7410 Touch</t>
-  </si>
-  <si>
-    <t>LAT 7410 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-10610U) 1.80GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-9410-2-in-1-touch-000017</t>
-  </si>
-  <si>
-    <t>Dell Latitude 9410 2-In-1 Touch</t>
-  </si>
-  <si>
-    <t>LAT 9410 2-In-1 2N1 STD 1x i7Q (i7-10610U) 1.80GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5320-touch-000124</t>
-  </si>
-  <si>
-    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-3410-000025</t>
-  </si>
-  <si>
-    <t>1x Intel Core i3-10110U (2-Core, 2.10 GHz)</t>
-  </si>
-  <si>
-    <t>LAT 3410 NB STD 14-in (1366 x 768) NoTCH CAM 1x i3 (i3-10110U) 2.10GHz 8GB 256GB NoOPT 32MB NoBkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-precision-5560-000219</t>
-  </si>
-  <si>
-    <t>PRE 5560 NB STD 15.6-in (1920 x 1200) NoTCH CAM 1x i78C (i7-11850H) 2.50GHz 16GB 256GB NoOPT 4GB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5320-000210</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5320</t>
-  </si>
-  <si>
-    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB NoBkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-7420-touch-000116</t>
-  </si>
-  <si>
-    <t>LAT 7420 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W11P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5510-000215</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5510</t>
-  </si>
-  <si>
-    <t>LAT 5510 NB STD 15.6-in (1366 x 768) NoTCH CAM 1x i5Q (i5-10310U) 1.70GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5520-000230</t>
-  </si>
-  <si>
-    <t>LAT 5520 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1135G7) 2.40GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-5040-mt-000070</t>
-  </si>
-  <si>
-    <t>Dell OptiPlex 5040 MT</t>
-  </si>
-  <si>
-    <t>1x Intel Core i5-6500 (4-Core, 3.20 GHz)</t>
-  </si>
-  <si>
-    <t>OPT 5040 MT STD 1x i5Q (i5-6500) 3.20GHz 8GB 500GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>microsoft-surface-laptop-4-touch-no-os-000005</t>
-  </si>
-  <si>
-    <t>SUR Laptop 4 NB STD 13.5-in (2256 x 1504) TCH CAM 1x i5Q (i5-1145G7) 2.60GHz 8GB 256GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>dell-latitude-5410-000495</t>
-  </si>
-  <si>
-    <t>LAT 5410 NB STD 14-in (1366 x 768) NoTCH NoCAM 1x i5Q (i5-10310U) 1.70GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>lenovo-thinkpad-t14-no-os-000014</t>
-  </si>
-  <si>
-    <t>TKP T14 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-10610U) 1.80GHz 32GB 512GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>lenovo-thinkpad-p1-20me-no-os-000006</t>
-  </si>
-  <si>
-    <t>Lenovo ThinkPad P1 (20ME) - No OS</t>
-  </si>
-  <si>
-    <t>TKP 20ME NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-10610U) 1.80GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>lenovo-thinkpad-x1-no-os-000009</t>
-  </si>
-  <si>
-    <t>Lenovo ThinkPad X1 - No OS</t>
-  </si>
-  <si>
-    <t>1x  7-165U (12-Core, 3.80 GHz)</t>
-  </si>
-  <si>
-    <t>TKP X1 NB STD 14-in (1920 x 1080) NoTCH CAM 1x CU716C (7-165U) 3.80GHz 32GB 1024GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>microsoft-surface-pro-7-m1960-000025</t>
-  </si>
-  <si>
-    <t>Microsoft Surface Pro 7 (M1960)</t>
-  </si>
-  <si>
-    <t>SURPRO M1960 TAB STD 12.3-in (2736 x 1824) 1x i7Q (i7-1165G7) 2.80GHz 16GB 512GB W10P0</t>
-  </si>
-  <si>
-    <t>dell-latitude-7410-touch-000080</t>
-  </si>
-  <si>
-    <t>LAT 7410 NB STD 14-in (1920 x 1080) TCH CAM 1x i5Q (i5-10310U) 1.70GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5520-000235</t>
-  </si>
-  <si>
-    <t>LAT 5520 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-7420-touch-000121</t>
-  </si>
-  <si>
-    <t>LAT 7420 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-3410-000027</t>
-  </si>
-  <si>
-    <t>Windows 10 Home</t>
-  </si>
-  <si>
-    <t>LAT 3410 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10210U) 1.60GHz 8GB 512GB NoOPT 32MB BkLIT W10H64</t>
-  </si>
-  <si>
-    <t>dell-latitude-9510-touch-000015</t>
-  </si>
-  <si>
-    <t>Dell Latitude 9510 Touch</t>
-  </si>
-  <si>
-    <t>1x Intel Core i7-10710U (6-Core, 1.10 GHz)</t>
-  </si>
-  <si>
-    <t>LAT 9510 2N1 STD 1x i76C (i7-10710U) 1.10GHz 16GB 1024GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-xps-15-9510-000039</t>
-  </si>
-  <si>
-    <t>Dell XPS 15 (9510)</t>
-  </si>
-  <si>
-    <t>1x Intel Core i9-11900H (8-Core, 2.50 GHz)</t>
-  </si>
-  <si>
-    <t>XPS 9510 NB SLV 15.6-in (1920 x 1200) NoTCH CAM 1x i98C (i9-11900H) 2.50GHz 32GB 512GB NoOPT 4GB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-precision-7550-000417</t>
-  </si>
-  <si>
-    <t>Dell Precision 7550</t>
-  </si>
-  <si>
-    <t>1x Intel Core i7-10850H (6-Core, 2.70 GHz)</t>
-  </si>
-  <si>
-    <t>32 GB (4x 8GB)</t>
-  </si>
-  <si>
-    <t>PRE 7550 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i76C (i7-10850H) 2.70GHz 32GB 256GB NoOPT 4GB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5510-000217</t>
-  </si>
-  <si>
-    <t>LAT 5510 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10310U) 1.70GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-7320-000157</t>
-  </si>
-  <si>
-    <t>LAT 7320 NB STD 13.3-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1135G7) 2.40GHz 16GB 256GB NoOPT 32MB BkLIT W11P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3080-sff-000160</t>
-  </si>
-  <si>
-    <t>OPT 3080 SFF STD 1x CDC (G5900) 3.40GHz 8GB 500GB NoOPT 32MB  W11P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5510-000218</t>
-  </si>
-  <si>
-    <t>LAT 5510 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10310U) 1.70GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>auction__1-060325-060325</t>
-  </si>
-  <si>
-    <t>TEST30</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3080-sff-000161</t>
-  </si>
-  <si>
-    <t>microsoft-suface-book-3-touch-no-os-000001</t>
-  </si>
-  <si>
-    <t>Microsoft Suface Book 3 Touch - No OS</t>
-  </si>
-  <si>
-    <t>SURBK 3 2N1 STD 1x i7Q (i7-1065G7) 1.30GHz 32GB 512GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>auction__2-060425-060625</t>
-  </si>
-  <si>
-    <t>chargeTestFinale</t>
-  </si>
-  <si>
-    <t>microsoft-surface-laptop-3-touch-no-os-000026</t>
-  </si>
-  <si>
-    <t>1x Intel Core i5-1035G7 (4-Core, 1.20 GHz)</t>
-  </si>
-  <si>
-    <t>SUR Laptop 3 NB STD 13.5-in (2256 x 1504) TCH CAM 1x i5 (i5-1035G7) 1.20GHz 16GB 256GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>dell-latitude-7410-000212</t>
-  </si>
-  <si>
-    <t>Dell Latitude 7410</t>
-  </si>
-  <si>
-    <t>LAT 7410 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10310U) 1.70GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3000-mff-000003</t>
-  </si>
-  <si>
-    <t>Dell OptiPlex 3000 MFF</t>
-  </si>
-  <si>
-    <t>1x Intel Core i3-12100T (4-Core, 2.20 GHz)</t>
-  </si>
-  <si>
-    <t>OPT 3000 MFF STD 1x i3Q (i3-12100T) 2.20GHz 8GB 256GB NoOPT 32MB  W11P64</t>
-  </si>
-  <si>
-    <t>microsoft-suface-book-3-touch-no-os-000003</t>
-  </si>
-  <si>
-    <t>SURBK 3 2N1 STD 1x i7Q (i7-1065G7) 1.30GHz 32GB 1024GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>dell-wyse-5070-usff-no-os-000006</t>
-  </si>
-  <si>
-    <t>dell-latitude-5410-000508</t>
-  </si>
-  <si>
-    <t>lenovo-thinkcentre-m720q-mff-no-os-000001</t>
-  </si>
-  <si>
-    <t>Lenovo ThinkCentre M720Q MFF - No OS</t>
-  </si>
-  <si>
-    <t>TKC M720Q MFF STD 1x i3Q (i3-8100T) 3.10GHz 8GB 500GB NoOPT 32MB  NoOS</t>
-  </si>
-  <si>
-    <t>lenovo-thinkcentre-m720q-mff-no-os-000004</t>
-  </si>
-  <si>
-    <t>TKC M720Q MFF STD 1x i56C (i5-8500T) 2.10GHz 16GB 500GB NoOPT 32MB  NoOS</t>
-  </si>
-  <si>
-    <t>dell-optiplex-3070-mff-000178</t>
-  </si>
-  <si>
-    <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 16GB 250GB NoOPT 32MB  W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5520-000252</t>
-  </si>
-  <si>
-    <t>LAT 5520 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1135G7) 2.40GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>microsoft-suface-book-3-touch-no-os-000004</t>
-  </si>
-  <si>
-    <t>SURBK 3 2N1 STD 1x i7Q (i7-1065G7) 1.30GHz 32GB 512GB NoOPT 6GB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>dell-latitude-5510-touch-000024</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5510 Touch</t>
-  </si>
-  <si>
-    <t>1x Intel Core i7-10810U (6-Core, 1.10 GHz)</t>
-  </si>
-  <si>
-    <t>LAT 5510 NB STD 15.6-in (1920 x 1080) TCH CAM 1x i76C (i7-10810U) 1.10GHz 8GB 512GB NoOPT 4GB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5580-000509</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5580</t>
-  </si>
-  <si>
-    <t>1x Intel Core i5-6200U (2-Core, 2.30 GHz)</t>
-  </si>
-  <si>
-    <t>LAT 5580 NB STD 15.6-in (1366 x 768) NoTCH CAM 1x i5 (i5-6200U) 2.30GHz 8GB 128GB NoOPT 32MB NoBkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-precision-7560-no-os-000067</t>
-  </si>
-  <si>
-    <t>Dell Precision 7560 - No OS</t>
-  </si>
-  <si>
-    <t>PRE 7560 NB STD 15.6-in (3840 x 2160) NoTCH CAM 1x i78C (i7-11850H) 2.50GHz 32GB 1024GB NoOPT 16GB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>dell-latitude-5420-000596</t>
-  </si>
-  <si>
-    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W11P64</t>
-  </si>
-  <si>
-    <t>dell-precision-5560-touch-000111</t>
-  </si>
-  <si>
-    <t>Dell Precision 5560 Touch</t>
-  </si>
-  <si>
-    <t>1x Intel Xeon W W-11955M (8-Core, 2.60 GHz)</t>
-  </si>
-  <si>
-    <t>PRE 5560 NB STD 15.6-in (3840 x 2400) TCH CAM 1x X8C (W-11955M) 2.60GHz 32GB 512GB NoOPT 4GB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5320-000227</t>
-  </si>
-  <si>
-    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 1024GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-precision-3561-no-os-000016</t>
-  </si>
-  <si>
-    <t>Dell Precision 3561 - No OS</t>
-  </si>
-  <si>
-    <t>1x Intel Core i7-11800H (8-Core, 1.90 GHz)</t>
-  </si>
-  <si>
-    <t>PRE 3561 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i78C (i7-11800H) 1.90GHz 32GB 512GB NoOPT 4GB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>microsoft-surface-laptop-4-touch-no-os-000007</t>
-  </si>
-  <si>
-    <t>SUR Laptop 4 NB STD 13.5-in (2256 x 1504) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 256GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>dell-latitude-7480-000894</t>
-  </si>
-  <si>
-    <t>Dell Latitude 7480</t>
-  </si>
-  <si>
-    <t>1x Intel Core i5-6300U (2-Core, 2.40 GHz)</t>
-  </si>
-  <si>
-    <t>LAT 7480 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5 (i5-6300U) 2.40GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>lenovo-thinkpad-t14-no-os-000017</t>
-  </si>
-  <si>
-    <t>TKP T14 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 8GB 256GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>lenovo-thinkpad-e14-gen-2-no-os-000005</t>
-  </si>
-  <si>
-    <t>TKP E14 Gen 2 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1135G7) 2.40GHz 8GB 256GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>lenovo-thinkpad-t14-no-os-000018</t>
-  </si>
-  <si>
-    <t>TKP T14 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>lenovo-thinkpad-p1-gen-4-no-os-000004</t>
-  </si>
-  <si>
     <t>TKP P1 Gen 4 NB STD 16-in (2560 x 1600) NoTCH CAM 1x i78C (i7-11800H) 1.90GHz 32GB 1024GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>microsoft-surface-laptop-4-touch-no-os-000008</t>
+  </si>
+  <si>
+    <t>SUR Laptop 4 NB STD 13.5-in (2256 x 1504) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3090-sff-000030</t>
+  </si>
+  <si>
+    <t>Dell OptiPlex 3090 SFF</t>
+  </si>
+  <si>
+    <t>1x Intel Celeron G5905 (2-Core, 3.50 GHz)</t>
+  </si>
+  <si>
+    <t>OPT 3090 SFF STD 1x CDC (G5905) 3.50GHz 8GB 500GB NoOPT 32MB  W11P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7220-rugged-000054</t>
+  </si>
+  <si>
+    <t>LAT 7220 Rugged TAB STD 11.6-in (1920 x 1080) 1x i5Q (i5-8365U) 1.60GHz 8GB 128GB W11P0</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-000335</t>
+  </si>
+  <si>
+    <t>LAT 7420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1165G7) 2.80GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-x1-carbon-8th-gen-no-os-000005</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad X1 Carbon 8th Gen - No OS</t>
+  </si>
+  <si>
+    <t>TKP X1 Carbon 8th Gen NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1165G7) 2.80GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000652</t>
+  </si>
+  <si>
+    <t>64 GB (2x 32GB)</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 64GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-xe3-sff-000004</t>
+  </si>
+  <si>
+    <t>Dell OptiPlex XE3 SFF</t>
+  </si>
+  <si>
+    <t>OPT XE3 SFF STD 1x i56C (i5-8500) 3.00GHz 8GB 256GB NoOPT 32MB  W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5320-touch-no-os-000037</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5320 Touch - No OS</t>
+  </si>
+  <si>
+    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 256GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000653</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1135G7) 2.40GHz 8GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>lenovo-thinkpad-t14-no-os-000019</t>
+  </si>
+  <si>
+    <t>1x Intel Core i5-1235U (10-Core, 3.30 GHz)</t>
+  </si>
+  <si>
+    <t>TKP T14 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i510C (i5-1235U) 3.30GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
   </si>
 </sst>
 </file>
@@ -1443,7 +1791,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1485,7 +1833,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D2">
         <v>199.0</v>
@@ -1511,10 +1859,10 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>198.0</v>
+        <v>430.0</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -1523,33 +1871,24 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>312.0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
+        <v>89.0</v>
       </c>
       <c r="H4" t="s">
         <v>21</v>
@@ -1560,478 +1899,463 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>190.0</v>
+        <v>430.0</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>425.0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
         <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>292.0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>242.0</v>
+      </c>
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>715.0</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
         <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>271.0</v>
+        <v>410.0</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>50.0</v>
+        <v>425.0</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>241.0</v>
+        <v>198.0</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>242.0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
+        <v>49.0</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>386.0</v>
+        <v>480.0</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>219.0</v>
+        <v>458.0</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>516.0</v>
+        <v>435.0</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>458.0</v>
+        <v>348.0</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>901.0</v>
+        <v>375.0</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>456.0</v>
+        <v>348.0</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>416.0</v>
+        <v>298.0</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>202.0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s">
-        <v>20</v>
+        <v>59.0</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>669.0</v>
+        <v>410.0</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>466.0</v>
+        <v>312.0</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>425.0</v>
+        <v>315.0</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="H22" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>198.0</v>
+        <v>325.0</v>
       </c>
       <c r="E23" t="s">
         <v>16</v>
@@ -2040,53 +2364,53 @@
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>448.0</v>
+        <v>335.0</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>256.0</v>
+        <v>190.0</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -2095,804 +2419,801 @@
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26">
-        <v>902.0</v>
+        <v>400.0</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>490.0</v>
+        <v>292.0</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>345.0</v>
+        <v>480.0</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H28" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>291.0</v>
+        <v>516.0</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H29" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>456.0</v>
+        <v>715.0</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="G30" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="H30" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>386.0</v>
+        <v>271.0</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32">
         <v>901.0</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H32" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>334.0</v>
+        <v>50.0</v>
       </c>
       <c r="E33" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="H33" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>160.0</v>
+        <v>241.0</v>
       </c>
       <c r="E34" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F34" t="s">
         <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H34" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>199.0</v>
+        <v>480.0</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H35" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>202.0</v>
+        <v>430.0</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H36" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>199.0</v>
+        <v>386.0</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="G37" t="s">
         <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>142.0</v>
+        <v>405.0</v>
       </c>
       <c r="E38" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="F38" t="s">
         <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="H38" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D39">
-        <v>246.0</v>
+        <v>430.0</v>
       </c>
       <c r="E39" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="H39" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D40">
-        <v>142.0</v>
+        <v>570.0</v>
       </c>
       <c r="E40" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B41" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>80.0</v>
+        <v>219.0</v>
       </c>
       <c r="E41" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F41" t="s">
         <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H41" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>271.0</v>
+        <v>375.0</v>
       </c>
       <c r="E42" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H42" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D43">
-        <v>142.0</v>
+        <v>480.0</v>
       </c>
       <c r="E43" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>352.0</v>
+        <v>901.0</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="G44" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="H44" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>396.0</v>
+        <v>345.0</v>
       </c>
       <c r="E45" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="H45" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B46" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>155.0</v>
+        <v>400.0</v>
       </c>
       <c r="E46" t="s">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H46" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D47">
-        <v>291.0</v>
+        <v>456.0</v>
       </c>
       <c r="E47" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H47" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B48" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D48">
-        <v>305.0</v>
+        <v>416.0</v>
       </c>
       <c r="E48" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="F48" t="s">
         <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H48" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B49" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>435.0</v>
+        <v>206.0</v>
       </c>
       <c r="E49" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="F49" t="s">
         <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B50" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>335.0</v>
+        <v>669.0</v>
       </c>
       <c r="E50" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="G50" t="s">
-        <v>20</v>
-      </c>
-      <c r="H50" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>230.0</v>
+        <v>335.0</v>
       </c>
       <c r="E51" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="F51" t="s">
         <v>11</v>
       </c>
       <c r="G51" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="H51" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52">
-        <v>386.0</v>
+        <v>315.0</v>
       </c>
       <c r="E52" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="F52" t="s">
         <v>11</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="H52" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>218.0</v>
+        <v>405.0</v>
       </c>
       <c r="E53" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F53" t="s">
         <v>11</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H53" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>209.0</v>
+        <v>242.0</v>
       </c>
       <c r="E54" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F54" t="s">
         <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>171</v>
+        <v>17</v>
       </c>
       <c r="H54" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55">
-        <v>199.0</v>
+        <v>450.0</v>
       </c>
       <c r="E55" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F55" t="s">
         <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H55" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="B56" t="s">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <v>288.0</v>
+        <v>305.0</v>
       </c>
       <c r="E56" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="F56" t="s">
         <v>11</v>
@@ -2901,232 +3222,232 @@
         <v>12</v>
       </c>
       <c r="H56" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <v>219.0</v>
+        <v>436.0</v>
       </c>
       <c r="E57" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
       </c>
       <c r="G57" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H57" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58">
-        <v>219.0</v>
+        <v>466.0</v>
       </c>
       <c r="E58" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="G58" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H58" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59">
-        <v>352.0</v>
+        <v>450.0</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F59" t="s">
         <v>11</v>
       </c>
       <c r="G59" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="H59" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="B60" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60">
-        <v>475.0</v>
+        <v>466.0</v>
       </c>
       <c r="E60" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G60" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="H60" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="B61" t="s">
-        <v>187</v>
+        <v>35</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61">
-        <v>425.0</v>
+        <v>198.0</v>
       </c>
       <c r="E61" t="s">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="F61" t="s">
         <v>11</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H61" t="s">
-        <v>188</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="B62" t="s">
-        <v>190</v>
+        <v>45</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62">
-        <v>401.0</v>
+        <v>418.0</v>
       </c>
       <c r="E62" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="H62" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="B63" t="s">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63">
-        <v>261.0</v>
+        <v>458.0</v>
       </c>
       <c r="E63" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="F63" t="s">
         <v>11</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="B64" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64">
-        <v>249.0</v>
+        <v>375.0</v>
       </c>
       <c r="E64" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="H64" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="B65" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65">
-        <v>189.0</v>
+        <v>256.0</v>
       </c>
       <c r="E65" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F65" t="s">
         <v>11</v>
@@ -3135,1274 +3456,1298 @@
         <v>12</v>
       </c>
       <c r="H65" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="B66" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66">
-        <v>253.0</v>
+        <v>902.0</v>
       </c>
       <c r="E66" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="F66" t="s">
         <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H66" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="B67" t="s">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67">
-        <v>348.0</v>
+        <v>490.0</v>
       </c>
       <c r="E67" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="F67" t="s">
         <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="B68" t="s">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>520.0</v>
+        <v>345.0</v>
       </c>
       <c r="E68" t="s">
-        <v>62</v>
+        <v>179</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="B69" t="s">
-        <v>190</v>
+        <v>45</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>421.0</v>
+        <v>398.0</v>
       </c>
       <c r="E69" t="s">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G69" t="s">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="H69" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="B70" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70">
-        <v>619.0</v>
+        <v>811.0</v>
       </c>
       <c r="E70" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="G70" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="B71" t="s">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71">
-        <v>328.0</v>
+        <v>291.0</v>
       </c>
       <c r="E71" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="G71" t="s">
         <v>12</v>
       </c>
       <c r="H71" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="B72" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72">
-        <v>395.0</v>
+        <v>456.0</v>
       </c>
       <c r="E72" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="G72" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H72" t="s">
-        <v>219</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="B73" t="s">
-        <v>221</v>
+        <v>58</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73">
-        <v>419.0</v>
+        <v>388.0</v>
       </c>
       <c r="E73" t="s">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="F73" t="s">
         <v>11</v>
       </c>
       <c r="G73" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H73" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="B74" t="s">
-        <v>224</v>
+        <v>49</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74">
-        <v>416.0</v>
+        <v>395.0</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="F74" t="s">
         <v>11</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H74" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="B75" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75">
-        <v>368.0</v>
+        <v>460.0</v>
       </c>
       <c r="E75" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="F75" t="s">
         <v>11</v>
       </c>
       <c r="G75" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H75" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="B76" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76">
-        <v>211.0</v>
+        <v>386.0</v>
       </c>
       <c r="E76" t="s">
-        <v>229</v>
+        <v>114</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="G76" t="s">
         <v>12</v>
       </c>
       <c r="H76" t="s">
-        <v>230</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="B77" t="s">
-        <v>214</v>
+        <v>49</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>520.0</v>
+        <v>445.0</v>
       </c>
       <c r="E77" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H77" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="B78" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>418.0</v>
+        <v>334.0</v>
       </c>
       <c r="E78" t="s">
-        <v>62</v>
+        <v>198</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G78" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="H78" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>530.0</v>
+        <v>160.0</v>
       </c>
       <c r="E79" t="s">
-        <v>62</v>
+        <v>201</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H79" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="B80" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>248.0</v>
+        <v>336.0</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="G80" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H80" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="B81" t="s">
-        <v>206</v>
+        <v>15</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <v>328.0</v>
+        <v>530.0</v>
       </c>
       <c r="E81" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H81" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="B82" t="s">
-        <v>244</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82">
-        <v>120.0</v>
+        <v>199.0</v>
       </c>
       <c r="E82" t="s">
-        <v>245</v>
+        <v>36</v>
       </c>
       <c r="F82" t="s">
         <v>11</v>
       </c>
       <c r="G82" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="H82" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="B83" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83">
-        <v>811.0</v>
+        <v>198.0</v>
       </c>
       <c r="E83" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G83" t="s">
         <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>248</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84">
-        <v>219.0</v>
+        <v>199.0</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
         <v>11</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="B85" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85">
-        <v>436.0</v>
+        <v>206.0</v>
       </c>
       <c r="E85" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G85" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>252</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="B86" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86">
-        <v>336.0</v>
+        <v>389.0</v>
       </c>
       <c r="E86" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H86" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="B87" t="s">
-        <v>257</v>
+        <v>49</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87">
-        <v>525.0</v>
+        <v>435.0</v>
       </c>
       <c r="E87" t="s">
-        <v>258</v>
+        <v>25</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G87" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="H87" t="s">
-        <v>259</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="B88" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88">
-        <v>691.0</v>
+        <v>261.0</v>
       </c>
       <c r="E88" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="F88" t="s">
         <v>11</v>
       </c>
       <c r="G88" t="s">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="H88" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="B89" t="s">
-        <v>221</v>
+        <v>49</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89">
-        <v>314.0</v>
+        <v>315.0</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="F89" t="s">
         <v>11</v>
       </c>
       <c r="G89" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H89" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="B90" t="s">
-        <v>206</v>
+        <v>49</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90">
-        <v>418.0</v>
+        <v>325.0</v>
       </c>
       <c r="E90" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="F90" t="s">
         <v>11</v>
       </c>
       <c r="G90" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H90" t="s">
-        <v>266</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="B91" t="s">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91">
-        <v>460.0</v>
+        <v>246.0</v>
       </c>
       <c r="E91" t="s">
-        <v>62</v>
+        <v>226</v>
       </c>
       <c r="F91" t="s">
         <v>11</v>
       </c>
       <c r="G91" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="H91" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92">
-        <v>301.0</v>
+        <v>450.0</v>
       </c>
       <c r="E92" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="F92" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="G92" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H92" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="B93" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="D93">
-        <v>455.0</v>
+        <v>271.0</v>
       </c>
       <c r="E93" t="s">
-        <v>274</v>
+        <v>169</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="H93" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="B94" t="s">
-        <v>277</v>
+        <v>204</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94">
-        <v>1134.0</v>
+        <v>336.0</v>
       </c>
       <c r="E94" t="s">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="G94" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="H94" t="s">
-        <v>279</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="B95" t="s">
-        <v>281</v>
+        <v>15</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95">
-        <v>409.0</v>
+        <v>460.0</v>
       </c>
       <c r="E95" t="s">
-        <v>282</v>
+        <v>25</v>
       </c>
       <c r="F95" t="s">
         <v>11</v>
       </c>
       <c r="G95" t="s">
-        <v>283</v>
+        <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>284</v>
+        <v>193</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="B96" t="s">
-        <v>239</v>
+        <v>49</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96">
-        <v>303.0</v>
+        <v>325.0</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="F96" t="s">
         <v>11</v>
       </c>
       <c r="G96" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="H96" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="B97" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97">
-        <v>416.0</v>
+        <v>520.0</v>
       </c>
       <c r="E97" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G97" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H97" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="B98" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98">
-        <v>239.0</v>
+        <v>352.0</v>
       </c>
       <c r="E98" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G98" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="H98" t="s">
-        <v>290</v>
+        <v>240</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>291</v>
+        <v>241</v>
       </c>
       <c r="B99" t="s">
-        <v>239</v>
+        <v>133</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99">
-        <v>283.0</v>
+        <v>396.0</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>242</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="G99" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H99" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="B100" t="s">
-        <v>294</v>
+        <v>49</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100">
-        <v>1.0</v>
+        <v>345.0</v>
+      </c>
+      <c r="E100" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" t="s">
+        <v>68</v>
+      </c>
+      <c r="H100" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="B101" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101">
-        <v>239.0</v>
+        <v>213.0</v>
       </c>
       <c r="E101" t="s">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G101" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H101" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="B102" t="s">
-        <v>297</v>
+        <v>133</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102">
-        <v>536.0</v>
+        <v>291.0</v>
       </c>
       <c r="E102" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="G102" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="H102" t="s">
-        <v>298</v>
+        <v>186</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="B103" t="s">
-        <v>300</v>
+        <v>49</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103">
-        <v>2.0</v>
+        <v>305.0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>114</v>
+      </c>
+      <c r="F103" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="B104" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104">
-        <v>650.0</v>
+        <v>325.0</v>
       </c>
       <c r="E104" t="s">
-        <v>302</v>
+        <v>114</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H104" t="s">
-        <v>303</v>
+        <v>236</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="B105" t="s">
-        <v>305</v>
+        <v>49</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105">
-        <v>304.0</v>
+        <v>305.0</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F105" t="s">
         <v>11</v>
       </c>
       <c r="G105" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H105" t="s">
-        <v>306</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>307</v>
+        <v>253</v>
       </c>
       <c r="B106" t="s">
-        <v>308</v>
+        <v>219</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106">
-        <v>381.0</v>
+        <v>281.0</v>
       </c>
       <c r="E106" t="s">
-        <v>309</v>
+        <v>29</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G106" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H106" t="s">
-        <v>310</v>
+        <v>254</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>311</v>
+        <v>255</v>
       </c>
       <c r="B107" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107">
-        <v>575.0</v>
+        <v>230.0</v>
       </c>
       <c r="E107" t="s">
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G107" t="s">
-        <v>144</v>
+        <v>258</v>
       </c>
       <c r="H107" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="B108" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108">
-        <v>50.0</v>
+        <v>386.0</v>
       </c>
       <c r="E108" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G108" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="H108" t="s">
-        <v>43</v>
+        <v>261</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>314</v>
+        <v>262</v>
       </c>
       <c r="B109" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109">
-        <v>219.0</v>
+        <v>218.0</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F109" t="s">
         <v>11</v>
       </c>
       <c r="G109" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="H109" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>315</v>
+        <v>264</v>
       </c>
       <c r="B110" t="s">
-        <v>316</v>
+        <v>35</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110">
-        <v>110.0</v>
+        <v>209.0</v>
       </c>
       <c r="E110" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G110" t="s">
-        <v>12</v>
+        <v>265</v>
       </c>
       <c r="H110" t="s">
-        <v>317</v>
+        <v>266</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>318</v>
+        <v>267</v>
       </c>
       <c r="B111" t="s">
-        <v>316</v>
+        <v>35</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111">
-        <v>160.0</v>
+        <v>199.0</v>
       </c>
       <c r="E111" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G111" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H111" t="s">
-        <v>319</v>
+        <v>209</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>320</v>
+        <v>268</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>214</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112">
-        <v>208.0</v>
+        <v>288.0</v>
       </c>
       <c r="E112" t="s">
-        <v>16</v>
+        <v>269</v>
       </c>
       <c r="F112" t="s">
         <v>11</v>
       </c>
       <c r="G112" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H112" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="B113" t="s">
-        <v>206</v>
+        <v>35</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113">
-        <v>348.0</v>
+        <v>219.0</v>
       </c>
       <c r="E113" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F113" t="s">
         <v>11</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H113" t="s">
-        <v>323</v>
+        <v>272</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>324</v>
+        <v>273</v>
       </c>
       <c r="B114" t="s">
-        <v>297</v>
+        <v>35</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114">
-        <v>726.0</v>
+        <v>219.0</v>
       </c>
       <c r="E114" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G114" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="H114" t="s">
-        <v>325</v>
+        <v>274</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>326</v>
+        <v>275</v>
       </c>
       <c r="B115" t="s">
-        <v>327</v>
+        <v>58</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115">
-        <v>428.0</v>
+        <v>298.0</v>
       </c>
       <c r="E115" t="s">
-        <v>328</v>
+        <v>16</v>
       </c>
       <c r="F115" t="s">
         <v>11</v>
@@ -4411,24 +4756,24 @@
         <v>12</v>
       </c>
       <c r="H115" t="s">
-        <v>329</v>
+        <v>59</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="B116" t="s">
-        <v>331</v>
+        <v>49</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116">
-        <v>128.0</v>
+        <v>295.0</v>
       </c>
       <c r="E116" t="s">
-        <v>332</v>
+        <v>16</v>
       </c>
       <c r="F116" t="s">
         <v>11</v>
@@ -4437,180 +4782,171 @@
         <v>12</v>
       </c>
       <c r="H116" t="s">
-        <v>333</v>
+        <v>277</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>334</v>
+        <v>278</v>
       </c>
       <c r="B117" t="s">
-        <v>335</v>
+        <v>65</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117">
-        <v>959.0</v>
+        <v>352.0</v>
       </c>
       <c r="E117" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G117" t="s">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="H117" t="s">
-        <v>336</v>
+        <v>240</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>337</v>
+        <v>279</v>
       </c>
       <c r="B118" t="s">
-        <v>155</v>
+        <v>280</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
       <c r="D118">
-        <v>445.0</v>
+        <v>425.0</v>
       </c>
       <c r="E118" t="s">
-        <v>62</v>
+        <v>242</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="H118" t="s">
-        <v>338</v>
+        <v>281</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
       <c r="B119" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119">
-        <v>630.0</v>
+        <v>401.0</v>
       </c>
       <c r="E119" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="F119" t="s">
         <v>11</v>
       </c>
       <c r="G119" t="s">
-        <v>144</v>
+        <v>285</v>
       </c>
       <c r="H119" t="s">
-        <v>342</v>
+        <v>286</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>343</v>
+        <v>287</v>
       </c>
       <c r="B120" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120">
-        <v>427.0</v>
+        <v>261.0</v>
       </c>
       <c r="E120" t="s">
-        <v>62</v>
+        <v>289</v>
       </c>
       <c r="F120" t="s">
         <v>11</v>
       </c>
       <c r="G120" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="H120" t="s">
-        <v>344</v>
+        <v>290</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>345</v>
+        <v>291</v>
       </c>
       <c r="B121" t="s">
-        <v>346</v>
+        <v>256</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121">
-        <v>892.0</v>
+        <v>249.0</v>
       </c>
       <c r="E121" t="s">
-        <v>347</v>
+        <v>257</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G121" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="H121" t="s">
-        <v>348</v>
+        <v>292</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>349</v>
+        <v>293</v>
       </c>
       <c r="B122" t="s">
-        <v>69</v>
+        <v>294</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122">
-        <v>881.0</v>
-      </c>
-      <c r="E122" t="s">
-        <v>62</v>
-      </c>
-      <c r="F122" t="s">
-        <v>31</v>
-      </c>
-      <c r="G122" t="s">
-        <v>20</v>
+        <v>0.0</v>
       </c>
       <c r="H122" t="s">
-        <v>350</v>
+        <v>295</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="B123" t="s">
-        <v>352</v>
+        <v>256</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123">
-        <v>199.0</v>
+        <v>189.0</v>
       </c>
       <c r="E123" t="s">
-        <v>353</v>
+        <v>257</v>
       </c>
       <c r="F123" t="s">
         <v>11</v>
@@ -4619,111 +4955,1855 @@
         <v>12</v>
       </c>
       <c r="H123" t="s">
-        <v>354</v>
+        <v>297</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>355</v>
+        <v>298</v>
       </c>
       <c r="B124" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124">
-        <v>356.0</v>
+        <v>418.0</v>
       </c>
       <c r="E124" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H124" t="s">
-        <v>356</v>
+        <v>299</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="B125" t="s">
-        <v>85</v>
+        <v>301</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
       <c r="D125">
-        <v>376.0</v>
+        <v>448.0</v>
       </c>
       <c r="E125" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G125" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H125" t="s">
-        <v>358</v>
+        <v>302</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>359</v>
+        <v>303</v>
       </c>
       <c r="B126" t="s">
-        <v>72</v>
+        <v>304</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126">
-        <v>396.0</v>
+        <v>253.0</v>
       </c>
       <c r="E126" t="s">
-        <v>82</v>
+        <v>305</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G126" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="H126" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
+        <v>307</v>
+      </c>
+      <c r="B127" t="s">
+        <v>79</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>520.0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>25</v>
+      </c>
+      <c r="F127" t="s">
+        <v>42</v>
+      </c>
+      <c r="G127" t="s">
+        <v>46</v>
+      </c>
+      <c r="H127" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" t="s">
+        <v>309</v>
+      </c>
+      <c r="B128" t="s">
+        <v>283</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>331.0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>310</v>
+      </c>
+      <c r="F128" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128" t="s">
+        <v>311</v>
+      </c>
+      <c r="H128" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" t="s">
+        <v>313</v>
+      </c>
+      <c r="B129" t="s">
+        <v>283</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>421.0</v>
+      </c>
+      <c r="E129" t="s">
+        <v>310</v>
+      </c>
+      <c r="F129" t="s">
+        <v>42</v>
+      </c>
+      <c r="G129" t="s">
+        <v>285</v>
+      </c>
+      <c r="H129" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" t="s">
+        <v>315</v>
+      </c>
+      <c r="B130" t="s">
+        <v>316</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>619.0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>173</v>
+      </c>
+      <c r="F130" t="s">
+        <v>11</v>
+      </c>
+      <c r="G130" t="s">
+        <v>50</v>
+      </c>
+      <c r="H130" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" t="s">
+        <v>318</v>
+      </c>
+      <c r="B131" t="s">
+        <v>49</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>395.0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>156</v>
+      </c>
+      <c r="F131" t="s">
+        <v>11</v>
+      </c>
+      <c r="G131" t="s">
+        <v>17</v>
+      </c>
+      <c r="H131" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" t="s">
+        <v>320</v>
+      </c>
+      <c r="B132" t="s">
+        <v>49</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>395.0</v>
+      </c>
+      <c r="E132" t="s">
+        <v>16</v>
+      </c>
+      <c r="F132" t="s">
+        <v>42</v>
+      </c>
+      <c r="G132" t="s">
+        <v>17</v>
+      </c>
+      <c r="H132" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" t="s">
+        <v>322</v>
+      </c>
+      <c r="B133" t="s">
+        <v>323</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>419.0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>242</v>
+      </c>
+      <c r="F133" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" t="s">
+        <v>17</v>
+      </c>
+      <c r="H133" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" t="s">
+        <v>325</v>
+      </c>
+      <c r="B134" t="s">
+        <v>79</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>500.0</v>
+      </c>
+      <c r="E134" t="s">
+        <v>156</v>
+      </c>
+      <c r="F134" t="s">
+        <v>42</v>
+      </c>
+      <c r="G134" t="s">
+        <v>17</v>
+      </c>
+      <c r="H134" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" t="s">
+        <v>327</v>
+      </c>
+      <c r="B135" t="s">
+        <v>328</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>416.0</v>
+      </c>
+      <c r="E135" t="s">
+        <v>242</v>
+      </c>
+      <c r="F135" t="s">
+        <v>11</v>
+      </c>
+      <c r="G135" t="s">
+        <v>68</v>
+      </c>
+      <c r="H135" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" t="s">
+        <v>330</v>
+      </c>
+      <c r="B136" t="s">
+        <v>45</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>368.0</v>
+      </c>
+      <c r="E136" t="s">
+        <v>16</v>
+      </c>
+      <c r="F136" t="s">
+        <v>11</v>
+      </c>
+      <c r="G136" t="s">
+        <v>17</v>
+      </c>
+      <c r="H136" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" t="s">
+        <v>332</v>
+      </c>
+      <c r="B137" t="s">
+        <v>333</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>339.0</v>
+      </c>
+      <c r="E137" t="s">
+        <v>289</v>
+      </c>
+      <c r="F137" t="s">
+        <v>42</v>
+      </c>
+      <c r="G137" t="s">
+        <v>311</v>
+      </c>
+      <c r="H137" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" t="s">
+        <v>335</v>
+      </c>
+      <c r="B138" t="s">
+        <v>168</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>211.0</v>
+      </c>
+      <c r="E138" t="s">
+        <v>336</v>
+      </c>
+      <c r="F138" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" t="s">
+        <v>12</v>
+      </c>
+      <c r="H138" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" t="s">
+        <v>338</v>
+      </c>
+      <c r="B139" t="s">
+        <v>316</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>520.0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>173</v>
+      </c>
+      <c r="F139" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" t="s">
+        <v>68</v>
+      </c>
+      <c r="H139" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" t="s">
+        <v>340</v>
+      </c>
+      <c r="B140" t="s">
+        <v>58</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>418.0</v>
+      </c>
+      <c r="E140" t="s">
+        <v>25</v>
+      </c>
+      <c r="F140" t="s">
+        <v>11</v>
+      </c>
+      <c r="G140" t="s">
+        <v>46</v>
+      </c>
+      <c r="H140" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" t="s">
+        <v>342</v>
+      </c>
+      <c r="B141" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>530.0</v>
+      </c>
+      <c r="E141" t="s">
+        <v>25</v>
+      </c>
+      <c r="F141" t="s">
+        <v>42</v>
+      </c>
+      <c r="G141" t="s">
+        <v>17</v>
+      </c>
+      <c r="H141" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" t="s">
+        <v>344</v>
+      </c>
+      <c r="B142" t="s">
+        <v>49</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>375.0</v>
+      </c>
+      <c r="E142" t="s">
+        <v>16</v>
+      </c>
+      <c r="F142" t="s">
+        <v>11</v>
+      </c>
+      <c r="G142" t="s">
+        <v>50</v>
+      </c>
+      <c r="H142" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" t="s">
+        <v>346</v>
+      </c>
+      <c r="B143" t="s">
+        <v>347</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>326.0</v>
+      </c>
+      <c r="E143" t="s">
+        <v>348</v>
+      </c>
+      <c r="F143" t="s">
+        <v>42</v>
+      </c>
+      <c r="G143" t="s">
+        <v>68</v>
+      </c>
+      <c r="H143" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" t="s">
+        <v>350</v>
+      </c>
+      <c r="B144" t="s">
+        <v>351</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>120.0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>352</v>
+      </c>
+      <c r="F144" t="s">
+        <v>11</v>
+      </c>
+      <c r="G144" t="s">
+        <v>102</v>
+      </c>
+      <c r="H144" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" t="s">
+        <v>354</v>
+      </c>
+      <c r="B145" t="s">
+        <v>88</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>715.0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>89</v>
+      </c>
+      <c r="F145" t="s">
+        <v>90</v>
+      </c>
+      <c r="G145" t="s">
+        <v>68</v>
+      </c>
+      <c r="H145" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" t="s">
+        <v>355</v>
+      </c>
+      <c r="B146" t="s">
+        <v>49</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>375.0</v>
+      </c>
+      <c r="E146" t="s">
+        <v>114</v>
+      </c>
+      <c r="F146" t="s">
+        <v>42</v>
+      </c>
+      <c r="G146" t="s">
+        <v>17</v>
+      </c>
+      <c r="H146" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" t="s">
+        <v>357</v>
+      </c>
+      <c r="B147" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>219.0</v>
+      </c>
+      <c r="E147" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" t="s">
+        <v>11</v>
+      </c>
+      <c r="G147" t="s">
+        <v>68</v>
+      </c>
+      <c r="H147" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" t="s">
+        <v>359</v>
+      </c>
+      <c r="B148" t="s">
+        <v>133</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>436.0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>242</v>
+      </c>
+      <c r="F148" t="s">
+        <v>90</v>
+      </c>
+      <c r="G148" t="s">
+        <v>50</v>
+      </c>
+      <c r="H148" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" t="s">
         <v>361</v>
       </c>
-      <c r="B127" t="s">
-        <v>184</v>
-      </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-      <c r="D127">
+      <c r="B149" t="s">
+        <v>362</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>336.0</v>
+      </c>
+      <c r="E149" t="s">
+        <v>242</v>
+      </c>
+      <c r="F149" t="s">
+        <v>90</v>
+      </c>
+      <c r="G149" t="s">
+        <v>68</v>
+      </c>
+      <c r="H149" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" t="s">
+        <v>364</v>
+      </c>
+      <c r="B150" t="s">
+        <v>365</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>525.0</v>
+      </c>
+      <c r="E150" t="s">
+        <v>366</v>
+      </c>
+      <c r="F150" t="s">
+        <v>90</v>
+      </c>
+      <c r="G150" t="s">
+        <v>46</v>
+      </c>
+      <c r="H150" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" t="s">
+        <v>368</v>
+      </c>
+      <c r="B151" t="s">
+        <v>369</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>691.0</v>
+      </c>
+      <c r="E151" t="s">
+        <v>156</v>
+      </c>
+      <c r="F151" t="s">
+        <v>11</v>
+      </c>
+      <c r="G151" t="s">
+        <v>285</v>
+      </c>
+      <c r="H151" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" t="s">
+        <v>371</v>
+      </c>
+      <c r="B152" t="s">
+        <v>49</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>425.0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>25</v>
+      </c>
+      <c r="F152" t="s">
+        <v>42</v>
+      </c>
+      <c r="G152" t="s">
+        <v>17</v>
+      </c>
+      <c r="H152" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" t="s">
+        <v>373</v>
+      </c>
+      <c r="B153" t="s">
+        <v>323</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>314.0</v>
+      </c>
+      <c r="E153" t="s">
+        <v>10</v>
+      </c>
+      <c r="F153" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153" t="s">
+        <v>12</v>
+      </c>
+      <c r="H153" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" t="s">
+        <v>375</v>
+      </c>
+      <c r="B154" t="s">
+        <v>283</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>471.0</v>
+      </c>
+      <c r="E154" t="s">
+        <v>284</v>
+      </c>
+      <c r="F154" t="s">
+        <v>42</v>
+      </c>
+      <c r="G154" t="s">
+        <v>285</v>
+      </c>
+      <c r="H154" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" t="s">
+        <v>377</v>
+      </c>
+      <c r="B155" t="s">
+        <v>168</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>301.0</v>
+      </c>
+      <c r="E155" t="s">
+        <v>169</v>
+      </c>
+      <c r="F155" t="s">
+        <v>378</v>
+      </c>
+      <c r="G155" t="s">
+        <v>12</v>
+      </c>
+      <c r="H155" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" t="s">
+        <v>380</v>
+      </c>
+      <c r="B156" t="s">
+        <v>381</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>455.0</v>
+      </c>
+      <c r="E156" t="s">
+        <v>382</v>
+      </c>
+      <c r="F156" t="s">
+        <v>11</v>
+      </c>
+      <c r="G156" t="s">
+        <v>68</v>
+      </c>
+      <c r="H156" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" t="s">
+        <v>384</v>
+      </c>
+      <c r="B157" t="s">
+        <v>385</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>1134.0</v>
+      </c>
+      <c r="E157" t="s">
+        <v>386</v>
+      </c>
+      <c r="F157" t="s">
+        <v>11</v>
+      </c>
+      <c r="G157" t="s">
+        <v>50</v>
+      </c>
+      <c r="H157" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" t="s">
+        <v>388</v>
+      </c>
+      <c r="B158" t="s">
+        <v>58</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>318.0</v>
+      </c>
+      <c r="E158" t="s">
+        <v>16</v>
+      </c>
+      <c r="F158" t="s">
+        <v>11</v>
+      </c>
+      <c r="G158" t="s">
+        <v>17</v>
+      </c>
+      <c r="H158" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" t="s">
+        <v>390</v>
+      </c>
+      <c r="B159" t="s">
+        <v>137</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>416.0</v>
+      </c>
+      <c r="E159" t="s">
+        <v>114</v>
+      </c>
+      <c r="F159" t="s">
+        <v>42</v>
+      </c>
+      <c r="G159" t="s">
+        <v>17</v>
+      </c>
+      <c r="H159" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" t="s">
+        <v>392</v>
+      </c>
+      <c r="B160" t="s">
+        <v>256</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>239.0</v>
+      </c>
+      <c r="E160" t="s">
+        <v>257</v>
+      </c>
+      <c r="F160" t="s">
+        <v>42</v>
+      </c>
+      <c r="G160" t="s">
+        <v>12</v>
+      </c>
+      <c r="H160" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" t="s">
+        <v>394</v>
+      </c>
+      <c r="B161" t="s">
+        <v>395</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" t="s">
+        <v>396</v>
+      </c>
+      <c r="B162" t="s">
+        <v>256</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>239.0</v>
+      </c>
+      <c r="E162" t="s">
+        <v>257</v>
+      </c>
+      <c r="F162" t="s">
+        <v>42</v>
+      </c>
+      <c r="G162" t="s">
+        <v>12</v>
+      </c>
+      <c r="H162" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" t="s">
+        <v>397</v>
+      </c>
+      <c r="B163" t="s">
+        <v>398</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>536.0</v>
+      </c>
+      <c r="E163" t="s">
+        <v>89</v>
+      </c>
+      <c r="F163" t="s">
+        <v>90</v>
+      </c>
+      <c r="G163" t="s">
+        <v>50</v>
+      </c>
+      <c r="H163" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" t="s">
+        <v>400</v>
+      </c>
+      <c r="B164" t="s">
+        <v>401</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" t="s">
+        <v>402</v>
+      </c>
+      <c r="B165" t="s">
+        <v>88</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>650.0</v>
+      </c>
+      <c r="E165" t="s">
+        <v>403</v>
+      </c>
+      <c r="F165" t="s">
+        <v>90</v>
+      </c>
+      <c r="G165" t="s">
+        <v>68</v>
+      </c>
+      <c r="H165" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" t="s">
+        <v>405</v>
+      </c>
+      <c r="B166" t="s">
+        <v>406</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>304.0</v>
+      </c>
+      <c r="E166" t="s">
+        <v>10</v>
+      </c>
+      <c r="F166" t="s">
+        <v>11</v>
+      </c>
+      <c r="G166" t="s">
+        <v>17</v>
+      </c>
+      <c r="H166" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" t="s">
+        <v>408</v>
+      </c>
+      <c r="B167" t="s">
+        <v>409</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>381.0</v>
+      </c>
+      <c r="E167" t="s">
+        <v>410</v>
+      </c>
+      <c r="F167" t="s">
+        <v>42</v>
+      </c>
+      <c r="G167" t="s">
+        <v>12</v>
+      </c>
+      <c r="H167" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" t="s">
+        <v>412</v>
+      </c>
+      <c r="B168" t="s">
+        <v>398</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>575.0</v>
+      </c>
+      <c r="E168" t="s">
+        <v>89</v>
+      </c>
+      <c r="F168" t="s">
+        <v>90</v>
+      </c>
+      <c r="G168" t="s">
+        <v>50</v>
+      </c>
+      <c r="H168" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" t="s">
+        <v>414</v>
+      </c>
+      <c r="B169" t="s">
+        <v>100</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>50.0</v>
+      </c>
+      <c r="E169" t="s">
+        <v>101</v>
+      </c>
+      <c r="F169" t="s">
+        <v>90</v>
+      </c>
+      <c r="G169" t="s">
+        <v>102</v>
+      </c>
+      <c r="H169" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" t="s">
+        <v>415</v>
+      </c>
+      <c r="B170" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>219.0</v>
+      </c>
+      <c r="E170" t="s">
+        <v>10</v>
+      </c>
+      <c r="F170" t="s">
+        <v>11</v>
+      </c>
+      <c r="G170" t="s">
+        <v>17</v>
+      </c>
+      <c r="H170" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" t="s">
+        <v>416</v>
+      </c>
+      <c r="B171" t="s">
+        <v>417</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>110.0</v>
+      </c>
+      <c r="E171" t="s">
+        <v>201</v>
+      </c>
+      <c r="F171" t="s">
+        <v>90</v>
+      </c>
+      <c r="G171" t="s">
+        <v>12</v>
+      </c>
+      <c r="H171" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" t="s">
+        <v>419</v>
+      </c>
+      <c r="B172" t="s">
+        <v>417</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>160.0</v>
+      </c>
+      <c r="E172" t="s">
+        <v>76</v>
+      </c>
+      <c r="F172" t="s">
+        <v>90</v>
+      </c>
+      <c r="G172" t="s">
+        <v>68</v>
+      </c>
+      <c r="H172" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" t="s">
+        <v>421</v>
+      </c>
+      <c r="B173" t="s">
+        <v>35</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>208.0</v>
+      </c>
+      <c r="E173" t="s">
+        <v>36</v>
+      </c>
+      <c r="F173" t="s">
+        <v>11</v>
+      </c>
+      <c r="G173" t="s">
+        <v>17</v>
+      </c>
+      <c r="H173" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" t="s">
+        <v>423</v>
+      </c>
+      <c r="B174" t="s">
+        <v>398</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>726.0</v>
+      </c>
+      <c r="E174" t="s">
+        <v>89</v>
+      </c>
+      <c r="F174" t="s">
+        <v>90</v>
+      </c>
+      <c r="G174" t="s">
+        <v>50</v>
+      </c>
+      <c r="H174" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" t="s">
+        <v>425</v>
+      </c>
+      <c r="B175" t="s">
+        <v>283</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>371.0</v>
+      </c>
+      <c r="E175" t="s">
+        <v>310</v>
+      </c>
+      <c r="F175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G175" t="s">
+        <v>285</v>
+      </c>
+      <c r="H175" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" t="s">
+        <v>427</v>
+      </c>
+      <c r="B176" t="s">
+        <v>428</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>959.0</v>
+      </c>
+      <c r="E176" t="s">
+        <v>173</v>
+      </c>
+      <c r="F176" t="s">
+        <v>90</v>
+      </c>
+      <c r="G176" t="s">
+        <v>50</v>
+      </c>
+      <c r="H176" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" t="s">
+        <v>430</v>
+      </c>
+      <c r="B177" t="s">
+        <v>49</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>445.0</v>
+      </c>
+      <c r="E177" t="s">
+        <v>25</v>
+      </c>
+      <c r="F177" t="s">
+        <v>42</v>
+      </c>
+      <c r="G177" t="s">
+        <v>68</v>
+      </c>
+      <c r="H177" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" t="s">
+        <v>431</v>
+      </c>
+      <c r="B178" t="s">
+        <v>58</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>427.0</v>
+      </c>
+      <c r="E178" t="s">
+        <v>25</v>
+      </c>
+      <c r="F178" t="s">
+        <v>11</v>
+      </c>
+      <c r="G178" t="s">
+        <v>17</v>
+      </c>
+      <c r="H178" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" t="s">
+        <v>433</v>
+      </c>
+      <c r="B179" t="s">
+        <v>434</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>892.0</v>
+      </c>
+      <c r="E179" t="s">
+        <v>435</v>
+      </c>
+      <c r="F179" t="s">
+        <v>90</v>
+      </c>
+      <c r="G179" t="s">
+        <v>50</v>
+      </c>
+      <c r="H179" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" t="s">
+        <v>437</v>
+      </c>
+      <c r="B180" t="s">
+        <v>97</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>881.0</v>
+      </c>
+      <c r="E180" t="s">
+        <v>25</v>
+      </c>
+      <c r="F180" t="s">
+        <v>90</v>
+      </c>
+      <c r="G180" t="s">
+        <v>17</v>
+      </c>
+      <c r="H180" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" t="s">
+        <v>439</v>
+      </c>
+      <c r="B181" t="s">
+        <v>440</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>199.0</v>
+      </c>
+      <c r="E181" t="s">
+        <v>441</v>
+      </c>
+      <c r="F181" t="s">
+        <v>11</v>
+      </c>
+      <c r="G181" t="s">
+        <v>12</v>
+      </c>
+      <c r="H181" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" t="s">
+        <v>443</v>
+      </c>
+      <c r="B182" t="s">
+        <v>133</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>356.0</v>
+      </c>
+      <c r="E182" t="s">
+        <v>16</v>
+      </c>
+      <c r="F182" t="s">
+        <v>90</v>
+      </c>
+      <c r="G182" t="s">
+        <v>12</v>
+      </c>
+      <c r="H182" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" t="s">
+        <v>445</v>
+      </c>
+      <c r="B183" t="s">
+        <v>155</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>376.0</v>
+      </c>
+      <c r="E183" t="s">
+        <v>114</v>
+      </c>
+      <c r="F183" t="s">
+        <v>90</v>
+      </c>
+      <c r="G183" t="s">
+        <v>12</v>
+      </c>
+      <c r="H183" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" t="s">
+        <v>447</v>
+      </c>
+      <c r="B184" t="s">
+        <v>133</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>396.0</v>
+      </c>
+      <c r="E184" t="s">
+        <v>16</v>
+      </c>
+      <c r="F184" t="s">
+        <v>90</v>
+      </c>
+      <c r="G184" t="s">
+        <v>17</v>
+      </c>
+      <c r="H184" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" t="s">
+        <v>449</v>
+      </c>
+      <c r="B185" t="s">
+        <v>450</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
         <v>475.0</v>
       </c>
-      <c r="E127" t="s">
-        <v>347</v>
-      </c>
-      <c r="F127" t="s">
-        <v>31</v>
-      </c>
-      <c r="G127" t="s">
-        <v>144</v>
-      </c>
-      <c r="H127" t="s">
-        <v>362</v>
+      <c r="E185" t="s">
+        <v>435</v>
+      </c>
+      <c r="F185" t="s">
+        <v>90</v>
+      </c>
+      <c r="G185" t="s">
+        <v>50</v>
+      </c>
+      <c r="H185" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" t="s">
+        <v>452</v>
+      </c>
+      <c r="B186" t="s">
+        <v>97</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>941.0</v>
+      </c>
+      <c r="E186" t="s">
+        <v>25</v>
+      </c>
+      <c r="F186" t="s">
+        <v>90</v>
+      </c>
+      <c r="G186" t="s">
+        <v>46</v>
+      </c>
+      <c r="H186" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" t="s">
+        <v>454</v>
+      </c>
+      <c r="B187" t="s">
+        <v>455</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>449.0</v>
+      </c>
+      <c r="E187" t="s">
+        <v>456</v>
+      </c>
+      <c r="F187" t="s">
+        <v>42</v>
+      </c>
+      <c r="G187" t="s">
+        <v>12</v>
+      </c>
+      <c r="H187" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" t="s">
+        <v>458</v>
+      </c>
+      <c r="B188" t="s">
+        <v>333</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>328.0</v>
+      </c>
+      <c r="E188" t="s">
+        <v>289</v>
+      </c>
+      <c r="F188" t="s">
+        <v>42</v>
+      </c>
+      <c r="G188" t="s">
+        <v>311</v>
+      </c>
+      <c r="H188" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" t="s">
+        <v>460</v>
+      </c>
+      <c r="B189" t="s">
+        <v>79</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>430.0</v>
+      </c>
+      <c r="E189" t="s">
+        <v>156</v>
+      </c>
+      <c r="F189" t="s">
+        <v>11</v>
+      </c>
+      <c r="G189" t="s">
+        <v>17</v>
+      </c>
+      <c r="H189" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" t="s">
+        <v>462</v>
+      </c>
+      <c r="B190" t="s">
+        <v>463</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>386.0</v>
+      </c>
+      <c r="E190" t="s">
+        <v>156</v>
+      </c>
+      <c r="F190" t="s">
+        <v>90</v>
+      </c>
+      <c r="G190" t="s">
+        <v>17</v>
+      </c>
+      <c r="H190" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" t="s">
+        <v>465</v>
+      </c>
+      <c r="B191" t="s">
+        <v>49</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>515.0</v>
+      </c>
+      <c r="E191" t="s">
+        <v>25</v>
+      </c>
+      <c r="F191" t="s">
+        <v>11</v>
+      </c>
+      <c r="G191" t="s">
+        <v>466</v>
+      </c>
+      <c r="H191" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" t="s">
+        <v>468</v>
+      </c>
+      <c r="B192" t="s">
+        <v>469</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <v>191.0</v>
+      </c>
+      <c r="E192" t="s">
+        <v>106</v>
+      </c>
+      <c r="F192" t="s">
+        <v>11</v>
+      </c>
+      <c r="G192" t="s">
+        <v>12</v>
+      </c>
+      <c r="H192" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" t="s">
+        <v>471</v>
+      </c>
+      <c r="B193" t="s">
+        <v>472</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>298.0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>16</v>
+      </c>
+      <c r="F193" t="s">
+        <v>90</v>
+      </c>
+      <c r="G193" t="s">
+        <v>17</v>
+      </c>
+      <c r="H193" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" t="s">
+        <v>474</v>
+      </c>
+      <c r="B194" t="s">
+        <v>49</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>325.0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>114</v>
+      </c>
+      <c r="F194" t="s">
+        <v>11</v>
+      </c>
+      <c r="G194" t="s">
+        <v>102</v>
+      </c>
+      <c r="H194" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" t="s">
+        <v>476</v>
+      </c>
+      <c r="B195" t="s">
+        <v>133</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>446.0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>477</v>
+      </c>
+      <c r="F195" t="s">
+        <v>90</v>
+      </c>
+      <c r="G195" t="s">
+        <v>68</v>
+      </c>
+      <c r="H195" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -4854,6 +6934,74 @@
     <hyperlink ref="A125" r:id="rId_hyperlink_124"/>
     <hyperlink ref="A126" r:id="rId_hyperlink_125"/>
     <hyperlink ref="A127" r:id="rId_hyperlink_126"/>
+    <hyperlink ref="A128" r:id="rId_hyperlink_127"/>
+    <hyperlink ref="A129" r:id="rId_hyperlink_128"/>
+    <hyperlink ref="A130" r:id="rId_hyperlink_129"/>
+    <hyperlink ref="A131" r:id="rId_hyperlink_130"/>
+    <hyperlink ref="A132" r:id="rId_hyperlink_131"/>
+    <hyperlink ref="A133" r:id="rId_hyperlink_132"/>
+    <hyperlink ref="A134" r:id="rId_hyperlink_133"/>
+    <hyperlink ref="A135" r:id="rId_hyperlink_134"/>
+    <hyperlink ref="A136" r:id="rId_hyperlink_135"/>
+    <hyperlink ref="A137" r:id="rId_hyperlink_136"/>
+    <hyperlink ref="A138" r:id="rId_hyperlink_137"/>
+    <hyperlink ref="A139" r:id="rId_hyperlink_138"/>
+    <hyperlink ref="A140" r:id="rId_hyperlink_139"/>
+    <hyperlink ref="A141" r:id="rId_hyperlink_140"/>
+    <hyperlink ref="A142" r:id="rId_hyperlink_141"/>
+    <hyperlink ref="A143" r:id="rId_hyperlink_142"/>
+    <hyperlink ref="A144" r:id="rId_hyperlink_143"/>
+    <hyperlink ref="A145" r:id="rId_hyperlink_144"/>
+    <hyperlink ref="A146" r:id="rId_hyperlink_145"/>
+    <hyperlink ref="A147" r:id="rId_hyperlink_146"/>
+    <hyperlink ref="A148" r:id="rId_hyperlink_147"/>
+    <hyperlink ref="A149" r:id="rId_hyperlink_148"/>
+    <hyperlink ref="A150" r:id="rId_hyperlink_149"/>
+    <hyperlink ref="A151" r:id="rId_hyperlink_150"/>
+    <hyperlink ref="A152" r:id="rId_hyperlink_151"/>
+    <hyperlink ref="A153" r:id="rId_hyperlink_152"/>
+    <hyperlink ref="A154" r:id="rId_hyperlink_153"/>
+    <hyperlink ref="A155" r:id="rId_hyperlink_154"/>
+    <hyperlink ref="A156" r:id="rId_hyperlink_155"/>
+    <hyperlink ref="A157" r:id="rId_hyperlink_156"/>
+    <hyperlink ref="A158" r:id="rId_hyperlink_157"/>
+    <hyperlink ref="A159" r:id="rId_hyperlink_158"/>
+    <hyperlink ref="A160" r:id="rId_hyperlink_159"/>
+    <hyperlink ref="A161" r:id="rId_hyperlink_160"/>
+    <hyperlink ref="A162" r:id="rId_hyperlink_161"/>
+    <hyperlink ref="A163" r:id="rId_hyperlink_162"/>
+    <hyperlink ref="A164" r:id="rId_hyperlink_163"/>
+    <hyperlink ref="A165" r:id="rId_hyperlink_164"/>
+    <hyperlink ref="A166" r:id="rId_hyperlink_165"/>
+    <hyperlink ref="A167" r:id="rId_hyperlink_166"/>
+    <hyperlink ref="A168" r:id="rId_hyperlink_167"/>
+    <hyperlink ref="A169" r:id="rId_hyperlink_168"/>
+    <hyperlink ref="A170" r:id="rId_hyperlink_169"/>
+    <hyperlink ref="A171" r:id="rId_hyperlink_170"/>
+    <hyperlink ref="A172" r:id="rId_hyperlink_171"/>
+    <hyperlink ref="A173" r:id="rId_hyperlink_172"/>
+    <hyperlink ref="A174" r:id="rId_hyperlink_173"/>
+    <hyperlink ref="A175" r:id="rId_hyperlink_174"/>
+    <hyperlink ref="A176" r:id="rId_hyperlink_175"/>
+    <hyperlink ref="A177" r:id="rId_hyperlink_176"/>
+    <hyperlink ref="A178" r:id="rId_hyperlink_177"/>
+    <hyperlink ref="A179" r:id="rId_hyperlink_178"/>
+    <hyperlink ref="A180" r:id="rId_hyperlink_179"/>
+    <hyperlink ref="A181" r:id="rId_hyperlink_180"/>
+    <hyperlink ref="A182" r:id="rId_hyperlink_181"/>
+    <hyperlink ref="A183" r:id="rId_hyperlink_182"/>
+    <hyperlink ref="A184" r:id="rId_hyperlink_183"/>
+    <hyperlink ref="A185" r:id="rId_hyperlink_184"/>
+    <hyperlink ref="A186" r:id="rId_hyperlink_185"/>
+    <hyperlink ref="A187" r:id="rId_hyperlink_186"/>
+    <hyperlink ref="A188" r:id="rId_hyperlink_187"/>
+    <hyperlink ref="A189" r:id="rId_hyperlink_188"/>
+    <hyperlink ref="A190" r:id="rId_hyperlink_189"/>
+    <hyperlink ref="A191" r:id="rId_hyperlink_190"/>
+    <hyperlink ref="A192" r:id="rId_hyperlink_191"/>
+    <hyperlink ref="A193" r:id="rId_hyperlink_192"/>
+    <hyperlink ref="A194" r:id="rId_hyperlink_193"/>
+    <hyperlink ref="A195" r:id="rId_hyperlink_194"/>
   </hyperlinks>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DFS_LIST.XLSX
+++ b/DFS_LIST.XLSX
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="516">
   <si>
     <t>Product ID</t>
   </si>
@@ -74,6 +74,21 @@
     <t>LAT 7420 NB STD 14-in (1920 x 1080) TCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
+    <t>dell-latitude-7420-touch-000065</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-touch-000058</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5420 Touch</t>
+  </si>
+  <si>
+    <t>1x Intel Core i7-1185G7 (4-Core, 3.00 GHz)</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
     <t>dell-monitor-22-inch-p2222h-000001</t>
   </si>
   <si>
@@ -83,19 +98,7 @@
     <t>Dell Professional Series P2222H</t>
   </si>
   <si>
-    <t>dell-latitude-7420-touch-000065</t>
-  </si>
-  <si>
-    <t>dell-latitude-5420-touch-000058</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5420 Touch</t>
-  </si>
-  <si>
-    <t>1x Intel Core i7-1185G7 (4-Core, 3.00 GHz)</t>
-  </si>
-  <si>
-    <t>LAT 5420 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+    <t>dell-latitude-5420-touch-000032</t>
   </si>
   <si>
     <t>dell-latitude-5400-touch-000083</t>
@@ -110,13 +113,49 @@
     <t>LAT 5400 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-8665U) 1.90GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
+    <t>dell-latitude-5320-touch-000115</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5320 Touch</t>
+  </si>
+  <si>
+    <t>32 GB (1x 32GB)</t>
+  </si>
+  <si>
+    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
     <t>dell-latitude-7420-touch-000083</t>
   </si>
   <si>
     <t>LAT 7420 NB STD 14-in (1920 x 1080) TCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
-    <t>dell-latitude-5420-touch-000032</t>
+    <t>dell-latitude-7320-000096</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7320</t>
+  </si>
+  <si>
+    <t>LAT 7320 NB STD 13.3-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-monitor-21-5-inch-p2217h-000001</t>
+  </si>
+  <si>
+    <t>Dell Monitor 21.5-inch (P2217H)</t>
+  </si>
+  <si>
+    <t>Dell Professional Series P2217H</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000514</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5420</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
     <t>dell-optiplex-3070-mff-000161</t>
@@ -131,15 +170,6 @@
     <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 8GB 500GB NoOPT 32MB  W10P64</t>
   </si>
   <si>
-    <t>dell-monitor-21-5-inch-p2217h-000001</t>
-  </si>
-  <si>
-    <t>Dell Monitor 21.5-inch (P2217H)</t>
-  </si>
-  <si>
-    <t>Dell Professional Series P2217H</t>
-  </si>
-  <si>
     <t>dell-latitude-7420-touch-000107</t>
   </si>
   <si>
@@ -149,52 +179,85 @@
     <t>LAT 7420 NB STD 14-in (1920 x 1080) TCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB BkLIT W11P64</t>
   </si>
   <si>
-    <t>dell-latitude-5320-touch-000115</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5320 Touch</t>
-  </si>
-  <si>
-    <t>32 GB (1x 32GB)</t>
-  </si>
-  <si>
-    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
     <t>dell-latitude-5420-000431</t>
   </si>
   <si>
-    <t>Dell Latitude 5420</t>
-  </si>
-  <si>
     <t>32 GB (2x 16GB)</t>
   </si>
   <si>
     <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
+    <t>dell-latitude-7320-000193</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000284</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000440</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB NoBkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7320-touch-000021</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7320 Touch</t>
+  </si>
+  <si>
+    <t>LAT 7320 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
     <t>dell-latitude-5320-touch-000106</t>
   </si>
   <si>
     <t>LAT 5320 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
-    <t>dell-latitude-5420-000284</t>
-  </si>
-  <si>
-    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
+    <t>dell-latitude-5320-000264</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5320</t>
+  </si>
+  <si>
+    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-touch-000064</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-000155</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7420</t>
+  </si>
+  <si>
+    <t>LAT 7420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000364</t>
+  </si>
+  <si>
+    <t>16 GB (2x 8GB)</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
     <t>dell-latitude-5320-touch-000110</t>
   </si>
   <si>
-    <t>dell-latitude-5320-000264</t>
-  </si>
-  <si>
-    <t>Dell Latitude 5320</t>
-  </si>
-  <si>
-    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
+    <t>dell-latitude-5420-000436</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7320-touch-000026</t>
+  </si>
+  <si>
+    <t>LAT 7320 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W11P64</t>
   </si>
   <si>
     <t>dell-monitor-21-5-inch-p2219h-000001</t>
@@ -206,9 +269,6 @@
     <t>Dell Professional Series P2219H</t>
   </si>
   <si>
-    <t>dell-latitude-7420-touch-000064</t>
-  </si>
-  <si>
     <t>dell-latitude-5310-touch-000046</t>
   </si>
   <si>
@@ -221,22 +281,16 @@
     <t>dell-latitude-5420-000422</t>
   </si>
   <si>
-    <t>16 GB (2x 8GB)</t>
-  </si>
-  <si>
     <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 256GB NoOPT 32MB NoBkLIT W10P64</t>
   </si>
   <si>
-    <t>dell-latitude-5420-000436</t>
-  </si>
-  <si>
-    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-5420-000440</t>
-  </si>
-  <si>
-    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB NoBkLIT W10P64</t>
+    <t>dell-latitude-5420-000551</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000553</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
     <t>lenovo-thinkcentre-m720q-mff-000007</t>
@@ -251,13 +305,13 @@
     <t>TKC M720Q MFF STD 1x i56C (i5-8500T) 2.10GHz 8GB 500GB NoOPT 32MB  W10P64</t>
   </si>
   <si>
-    <t>dell-latitude-7420-000155</t>
-  </si>
-  <si>
-    <t>Dell Latitude 7420</t>
-  </si>
-  <si>
-    <t>LAT 7420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+    <t>dell-latitude-5420-000273</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000275</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000276</t>
   </si>
   <si>
     <t>dell-latitude-5310-touch-000044</t>
@@ -266,16 +320,19 @@
     <t>LAT 5310 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i5Q (i5-10310U) 1.70GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
+    <t>dell-latitude-7420-000170</t>
+  </si>
+  <si>
+    <t>LAT 7420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-000210</t>
+  </si>
+  <si>
     <t>dell-latitude-7420-touch-000097</t>
   </si>
   <si>
-    <t>dell-latitude-7320-touch-000026</t>
-  </si>
-  <si>
-    <t>Dell Latitude 7320 Touch</t>
-  </si>
-  <si>
-    <t>LAT 7320 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W11P64</t>
+    <t>dell-latitude-5320-touch-000098</t>
   </si>
   <si>
     <t>microsoft-surface-laptop-3-touch-no-os-000020</t>
@@ -293,6 +350,15 @@
     <t>SUR Laptop 3 NB STD 13.5-in (2256 x 1504) TCH CAM 1x i7Q (i7-1065G7) 1.30GHz 16GB 256GB NoOPT 32MB BkLIT NoOS</t>
   </si>
   <si>
+    <t>microsoft-surface-laptop-4-touch-no-os-000004</t>
+  </si>
+  <si>
+    <t>Microsoft Surface Laptop 4 Touch - No OS</t>
+  </si>
+  <si>
+    <t>SUR Laptop 4 NB STD 13.5-in (2256 x 1504) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
     <t>dell-latitude-3420-000044</t>
   </si>
   <si>
@@ -308,12 +374,6 @@
     <t>microsoft-surface-laptop-4-touch-no-os-000006</t>
   </si>
   <si>
-    <t>Microsoft Surface Laptop 4 Touch - No OS</t>
-  </si>
-  <si>
-    <t>SUR Laptop 4 NB STD 13.5-in (2256 x 1504) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
     <t>dell-wyse-5070-usff-no-os-000005</t>
   </si>
   <si>
@@ -329,6 +389,18 @@
     <t>WYSE 5070 USFF STD 1x PQC (J5005) 1.50GHz 8GB 64GB NoOPT 32MB  NoOS</t>
   </si>
   <si>
+    <t>dell-latitude-7420-touch-000141</t>
+  </si>
+  <si>
+    <t>1x Intel Core i7-1165G7 (4-Core, 2.80 GHz)</t>
+  </si>
+  <si>
+    <t>LAT 7420 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-1165G7) 2.80GHz 16GB 512GB NoOPT 32MB BkLIT W11P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-touch-000142</t>
+  </si>
+  <si>
     <t>dell-optiplex-3060-sff-000213</t>
   </si>
   <si>
@@ -341,18 +413,21 @@
     <t>OPT 3060 SFF STD 1x i56C (i5-8500) 3.00GHz 16GB 1024GB NoOPT 32MB  W10P64</t>
   </si>
   <si>
+    <t>dell-latitude-5420-000285</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 256GB NoOPT 32MB NoBkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000286</t>
+  </si>
+  <si>
     <t>dell-latitude-7420-touch-000072</t>
   </si>
   <si>
     <t>LAT 7420 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
-    <t>dell-latitude-7420-000170</t>
-  </si>
-  <si>
-    <t>LAT 7420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
     <t>lenovo-thinkbook-14s-yoga-touch-no-os-000005</t>
   </si>
   <si>
@@ -368,10 +443,16 @@
     <t>dell-latitude-5420-000418</t>
   </si>
   <si>
-    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 256GB NoOPT 32MB NoBkLIT W10P64</t>
-  </si>
-  <si>
-    <t>dell-latitude-7420-000210</t>
+    <t>dell-latitude-7420-000212</t>
+  </si>
+  <si>
+    <t>LAT 7420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000435</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
     <t>dell-latitude-7420-touch-000098</t>
@@ -392,27 +473,21 @@
     <t>OPT 5090 SFF STD 1x i3Q (i3-10105) 3.70GHz 16GB 128GB NoOPT 32MB  W10P64</t>
   </si>
   <si>
-    <t>dell-latitude-5420-000514</t>
-  </si>
-  <si>
     <t>dell-latitude-7420-000279</t>
   </si>
   <si>
     <t>LAT 7420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 256GB NoOPT 32MB BkLIT W11P64</t>
   </si>
   <si>
-    <t>microsoft-surface-laptop-4-touch-no-os-000004</t>
-  </si>
-  <si>
-    <t>dell-latitude-5420-000551</t>
-  </si>
-  <si>
-    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
     <t>dell-latitude-7420-000292</t>
   </si>
   <si>
+    <t>dell-latitude-5420-000577</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W11P64</t>
+  </si>
+  <si>
     <t>lenovo-thinkpad-t14-no-os-000016</t>
   </si>
   <si>
@@ -428,9 +503,6 @@
     <t>dell-latitude-7320-000162</t>
   </si>
   <si>
-    <t>Dell Latitude 7320</t>
-  </si>
-  <si>
     <t>LAT 7320 NB STD 13.3-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
@@ -449,55 +521,52 @@
     <t>64-bit Windows 10 Professional</t>
   </si>
   <si>
-    <t>dell-latitude-5420-000275</t>
-  </si>
-  <si>
-    <t>dell-latitude-5420-000276</t>
-  </si>
-  <si>
-    <t>dell-latitude-5420-000285</t>
+    <t>dell-latitude-5420-000279</t>
   </si>
   <si>
     <t>dell-latitude-5400-touch-000086</t>
   </si>
   <si>
+    <t>dell-latitude-7420-000158</t>
+  </si>
+  <si>
+    <t>LAT 7420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1165G7) 2.80GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>hp-elitebook-x360-1040-g8-no-os-000003</t>
+  </si>
+  <si>
+    <t>HP EliteBook X360 1040 G8 - No OS</t>
+  </si>
+  <si>
+    <t>EBK X360 1040 G8 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
     <t>dell-latitude-7420-000167</t>
   </si>
   <si>
-    <t>LAT 7420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
     <t>dell-latitude-5420-000317</t>
   </si>
   <si>
     <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1135G7) 2.40GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
-    <t>dell-latitude-7320-000096</t>
-  </si>
-  <si>
-    <t>LAT 7320 NB STD 13.3-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
     <t>lenovo-thinkpad-e14-gen-2-no-os-000004</t>
   </si>
   <si>
     <t>Lenovo ThinkPad E14 Gen 2 - No OS</t>
   </si>
   <si>
-    <t>1x Intel Core i7-1165G7 (4-Core, 2.80 GHz)</t>
-  </si>
-  <si>
     <t>TKP E14 Gen 2 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1165G7) 2.80GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
   </si>
   <si>
-    <t>dell-latitude-7420-000212</t>
-  </si>
-  <si>
-    <t>dell-latitude-7320-touch-000021</t>
-  </si>
-  <si>
-    <t>LAT 7320 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+    <t>dell-latitude-7420-000213</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-000214</t>
+  </si>
+  <si>
+    <t>LAT 7420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
     <t>dell-optiplex-3070-mff-000164</t>
@@ -509,7 +578,10 @@
     <t>LAT 5320 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB BkLIT W11P64</t>
   </si>
   <si>
-    <t>dell-latitude-5320-touch-000098</t>
+    <t>dell-optiplex-3070-mff-000169</t>
+  </si>
+  <si>
+    <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 8GB 512GB NoOPT 32MB  W10P64</t>
   </si>
   <si>
     <t>dell-latitude-5420-000521</t>
@@ -542,12 +614,27 @@
     <t>PRE 3561 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i78C (i7-11850H) 2.50GHz 16GB 512GB NoOPT 4GB BkLIT W10P64</t>
   </si>
   <si>
+    <t>dell-latitude-5320-touch-000124</t>
+  </si>
+  <si>
+    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5320-000210</t>
+  </si>
+  <si>
+    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB NoBkLIT W10P64</t>
+  </si>
+  <si>
     <t>dell-latitude-7420-000282</t>
   </si>
   <si>
     <t>LAT 7420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
+    <t>dell-latitude-7420-touch-000118</t>
+  </si>
+  <si>
     <t>dell-optiplex-3090-mff-000030</t>
   </si>
   <si>
@@ -572,6 +659,9 @@
     <t>SUR Laptop 4 NB STD 13.5-in (2256 x 1504) TCH CAM 1x i5Q (i5-1145G7) 2.60GHz 8GB 256GB NoOPT 32MB BkLIT NoOS</t>
   </si>
   <si>
+    <t>microsoft-surface-laptop-3-touch-no-os-000022</t>
+  </si>
+  <si>
     <t>lenovo-thinkpad-t14-no-os-000013</t>
   </si>
   <si>
@@ -587,12 +677,6 @@
     <t>LAT 5320 NB STD 13.3-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
-    <t>dell-latitude-5420-000553</t>
-  </si>
-  <si>
-    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
-  </si>
-  <si>
     <t>dell-latitude-7420-touch-000121</t>
   </si>
   <si>
@@ -602,12 +686,6 @@
     <t>lenovo-thinkbook-14s-yoga-touch-no-os-000008</t>
   </si>
   <si>
-    <t>dell-latitude-5420-000577</t>
-  </si>
-  <si>
-    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W11P64</t>
-  </si>
-  <si>
     <t>dell-optiplex-3090-mff-000034</t>
   </si>
   <si>
@@ -626,21 +704,15 @@
     <t>TKC M720Q MFF STD 1x i3Q (i3-8100T) 3.10GHz 8GB 500GB NoOPT 32MB  W10P64</t>
   </si>
   <si>
+    <t>microsoft-surface-laptop-4-touch-no-os-000007</t>
+  </si>
+  <si>
+    <t>SUR Laptop 4 NB STD 13.5-in (2256 x 1504) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 256GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
     <t>hp-elitebook-x360-1040-g8-no-os-000005</t>
   </si>
   <si>
-    <t>HP EliteBook X360 1040 G8 - No OS</t>
-  </si>
-  <si>
-    <t>EBK X360 1040 G8 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
-    <t>dell-latitude-7420-touch-000141</t>
-  </si>
-  <si>
-    <t>LAT 7420 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-1165G7) 2.80GHz 16GB 512GB NoOPT 32MB BkLIT W11P64</t>
-  </si>
-  <si>
     <t>dell-optiplex-3070-mff-000112</t>
   </si>
   <si>
@@ -668,9 +740,6 @@
     <t>OPT 7070 SFF STD 1x i76C (i7-8700) 3.20GHz 32GB 512GB NoOPT 2GB  W10P64</t>
   </si>
   <si>
-    <t>dell-latitude-5420-000273</t>
-  </si>
-  <si>
     <t>dell-latitude-7400-000333</t>
   </si>
   <si>
@@ -686,9 +755,6 @@
     <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1135G7) 2.40GHz 16GB 256GB NoOPT 32MB NoBkLIT W10P64</t>
   </si>
   <si>
-    <t>dell-latitude-5420-000279</t>
-  </si>
-  <si>
     <t>dell-latitude-7400-2-in-1-touch-000081</t>
   </si>
   <si>
@@ -701,10 +767,13 @@
     <t>LAT 7400 2-in-1 2N1 STD 1x i5Q (i5-8265U) 1.60GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
-    <t>dell-latitude-7420-000158</t>
-  </si>
-  <si>
-    <t>LAT 7420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1165G7) 2.80GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+    <t>dell-latitude-5420-000287</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-000157</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-000159</t>
   </si>
   <si>
     <t>hp-zbook-15-g7-firefly-no-os-000001</t>
@@ -716,12 +785,21 @@
     <t>ZBK 15 G7 FIREFLY NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-10210U) 1.60GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
   </si>
   <si>
-    <t>hp-elitebook-x360-1040-g8-no-os-000003</t>
-  </si>
-  <si>
     <t>dell-latitude-7420-touch-000071</t>
   </si>
   <si>
+    <t>dell-latitude-5420-000318</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1135G7) 2.40GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-touch-000034</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
     <t>dell-latitude-5420-000325</t>
   </si>
   <si>
@@ -749,9 +827,6 @@
     <t>TKP T14 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-10610U) 1.80GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
   </si>
   <si>
-    <t>dell-latitude-5420-000364</t>
-  </si>
-  <si>
     <t>dell-latitude-5300-2-in-1-touch-000096</t>
   </si>
   <si>
@@ -764,16 +839,16 @@
     <t>lenovo-thinkpad-t14-no-os-000012</t>
   </si>
   <si>
+    <t>dell-latitude-5420-000419</t>
+  </si>
+  <si>
     <t>dell-latitude-5420-000420</t>
   </si>
   <si>
     <t>dell-latitude-5420-000424</t>
   </si>
   <si>
-    <t>dell-latitude-5420-000435</t>
-  </si>
-  <si>
-    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
+    <t>dell-latitude-5420-000441</t>
   </si>
   <si>
     <t>dell-latitude-7400-000374</t>
@@ -830,16 +905,19 @@
     <t>OPT 7070 SFF STD 1x i56C (i5-9500) 3.00GHz 8GB 128GB NoOPT 32MB  W10P64</t>
   </si>
   <si>
+    <t>dell-latitude-5420-000483</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB NoBkLIT W10P64</t>
+  </si>
+  <si>
     <t>dell-optiplex-3070-mff-000167</t>
   </si>
   <si>
     <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 16GB 256GB NoOPT 32MB  W10P64</t>
   </si>
   <si>
-    <t>dell-optiplex-3070-mff-000169</t>
-  </si>
-  <si>
-    <t>OPT 3070 MFF STD 1x i3Q (i3-9100T) 3.10GHz 8GB 512GB NoOPT 32MB  W10P64</t>
+    <t>dell-latitude-5320-touch-000096</t>
   </si>
   <si>
     <t>dell-latitude-5320-000161</t>
@@ -926,6 +1004,9 @@
     <t>LAT 5520 NB STD 15.6-in (1920 x 1080) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
+    <t>dell-latitude-7320-touch-000025</t>
+  </si>
+  <si>
     <t>dell-latitude-5421-000064</t>
   </si>
   <si>
@@ -1007,10 +1088,10 @@
     <t>LAT 9410 2-In-1 2N1 STD 1x i7Q (i7-10610U) 1.80GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
-    <t>dell-latitude-5320-touch-000124</t>
-  </si>
-  <si>
-    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) TCH CAM 1x i5Q (i5-1145G7) 2.60GHz 16GB 512GB NoOPT 32MB BkLIT W10P64</t>
+    <t>dell-latitude-7420-000276</t>
+  </si>
+  <si>
+    <t>LAT 7420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 256GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
     <t>dell-latitude-7220-rugged-000044</t>
@@ -1037,12 +1118,6 @@
     <t>PRE 5560 NB STD 15.6-in (1920 x 1200) NoTCH CAM 1x i78C (i7-11850H) 2.50GHz 16GB 256GB NoOPT 4GB BkLIT W10P64</t>
   </si>
   <si>
-    <t>dell-latitude-5320-000210</t>
-  </si>
-  <si>
-    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 512GB NoOPT 32MB NoBkLIT W10P64</t>
-  </si>
-  <si>
     <t>dell-latitude-7420-touch-000116</t>
   </si>
   <si>
@@ -1067,6 +1142,12 @@
     <t>OPT 5090 MFF STD 1x PDC (G6405T) 2.30GHz 16GB 256GB NoOPT 32MB  W11P64</t>
   </si>
   <si>
+    <t>dell-latitude-5420-000545</t>
+  </si>
+  <si>
+    <t>LAT 5420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
     <t>dell-optiplex-5040-mt-000070</t>
   </si>
   <si>
@@ -1079,9 +1160,6 @@
     <t>OPT 5040 MT STD 1x i5Q (i5-6500) 3.20GHz 8GB 500GB NoOPT 32MB  W10P64</t>
   </si>
   <si>
-    <t>microsoft-surface-laptop-3-touch-no-os-000022</t>
-  </si>
-  <si>
     <t>dell-latitude-5420-000546</t>
   </si>
   <si>
@@ -1169,6 +1247,15 @@
     <t>LAT 9510 2N1 STD 1x i76C (i7-10710U) 1.10GHz 16GB 1024GB NoOPT 32MB BkLIT W10P64</t>
   </si>
   <si>
+    <t>lenovo-thinkpad-p1-gen-4-no-os-000003</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad P1 Gen 4 - No OS</t>
+  </si>
+  <si>
+    <t>TKP P1 Gen 4 NB STD 16-in (2560 x 1600) NoTCH CAM 1x i78C (i7-11850H) 2.50GHz 32GB 1024GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
     <t>dell-xps-15-9510-000039</t>
   </si>
   <si>
@@ -1328,12 +1415,6 @@
     <t>PRE 3561 NB STD 15.6-in (1920 x 1080) NoTCH CAM 1x i78C (i7-11800H) 1.90GHz 32GB 512GB NoOPT 4GB BkLIT NoOS</t>
   </si>
   <si>
-    <t>microsoft-surface-laptop-4-touch-no-os-000007</t>
-  </si>
-  <si>
-    <t>SUR Laptop 4 NB STD 13.5-in (2256 x 1504) TCH CAM 1x i7Q (i7-1185G7) 3.00GHz 16GB 256GB NoOPT 32MB BkLIT NoOS</t>
-  </si>
-  <si>
     <t>dell-latitude-7480-000894</t>
   </si>
   <si>
@@ -1367,9 +1448,6 @@
     <t>lenovo-thinkpad-p1-gen-4-no-os-000004</t>
   </si>
   <si>
-    <t>Lenovo ThinkPad P1 Gen 4 - No OS</t>
-  </si>
-  <si>
     <t>TKP P1 Gen 4 NB STD 16-in (2560 x 1600) NoTCH CAM 1x i78C (i7-11800H) 1.90GHz 32GB 1024GB NoOPT 32MB BkLIT NoOS</t>
   </si>
   <si>
@@ -1452,6 +1530,39 @@
   </si>
   <si>
     <t>TKP T14 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i510C (i5-1235U) 3.30GHz 16GB 512GB NoOPT 32MB BkLIT NoOS</t>
+  </si>
+  <si>
+    <t>dell-latitude-7420-000337</t>
+  </si>
+  <si>
+    <t>LAT 7420 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1135G7) 2.40GHz 16GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5320-000266</t>
+  </si>
+  <si>
+    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) NoTCH CAM 1x i7Q (i7-1185G7) 3.00GHz 32GB 500GB NoOPT 32MB NoBkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5480-001158</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5480</t>
+  </si>
+  <si>
+    <t>LAT 5480 NB STD 14-in (1920 x 1080) NoTCH CAM 1x i5 (i5-6300U) 2.40GHz 8GB 256GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-latitude-5420-000655</t>
+  </si>
+  <si>
+    <t>dell-latitude-5320-000267</t>
+  </si>
+  <si>
+    <t>LAT 5320 NB STD 13.3-in (1920 x 1080) NoTCH CAM 1x i5Q (i5-1145G7) 2.60GHz 8GB 512GB NoOPT 32MB BkLIT W10P64</t>
+  </si>
+  <si>
+    <t>dell-optiplex-3070-mff-000188</t>
   </si>
 </sst>
 </file>
@@ -1791,7 +1902,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H195"/>
+  <dimension ref="A1:H220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1859,7 +1970,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D3">
         <v>430.0</v>
@@ -1882,34 +1993,43 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>89.0</v>
+        <v>430.0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>425.0</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>25</v>
-      </c>
-      <c r="D5">
-        <v>430.0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
@@ -1917,30 +2037,21 @@
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>425.0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
+        <v>89.0</v>
       </c>
       <c r="H6" t="s">
         <v>26</v>
@@ -1951,16 +2062,16 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>242.0</v>
+        <v>425.0</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -1969,82 +2080,82 @@
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>242.0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
         <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>410.0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
       <c r="C9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>425.0</v>
+        <v>458.0</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>198.0</v>
+        <v>410.0</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
         <v>37</v>
@@ -2058,10 +2169,19 @@
         <v>39</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>49.0</v>
+        <v>436.0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
       </c>
       <c r="H11" t="s">
         <v>40</v>
@@ -2072,22 +2192,13 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>480.0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
+        <v>79.0</v>
       </c>
       <c r="H12" t="s">
         <v>43</v>
@@ -2101,68 +2212,68 @@
         <v>45</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>458.0</v>
+        <v>375.0</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
       </c>
       <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
         <v>48</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>198.0</v>
+      </c>
+      <c r="E14" t="s">
         <v>49</v>
       </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>435.0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
         <v>50</v>
-      </c>
-      <c r="H14" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>348.0</v>
+        <v>480.0</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
         <v>17</v>
@@ -2176,42 +2287,42 @@
         <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>375.0</v>
+        <v>435.0</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>348.0</v>
+        <v>436.0</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -2220,76 +2331,85 @@
         <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>298.0</v>
+        <v>375.0</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>335.0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
         <v>60</v>
-      </c>
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>59.0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>466.0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
         <v>63</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>410.0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2297,39 +2417,39 @@
         <v>64</v>
       </c>
       <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>348.0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
         <v>65</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>312.0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
         <v>67</v>
       </c>
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
       <c r="C22">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>315.0</v>
+        <v>298.0</v>
       </c>
       <c r="E22" t="s">
         <v>16</v>
@@ -2338,24 +2458,24 @@
         <v>11</v>
       </c>
       <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
         <v>68</v>
-      </c>
-      <c r="H22" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>325.0</v>
+        <v>410.0</v>
       </c>
       <c r="E23" t="s">
         <v>16</v>
@@ -2367,21 +2487,21 @@
         <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>335.0</v>
+        <v>400.0</v>
       </c>
       <c r="E24" t="s">
         <v>16</v>
@@ -2393,47 +2513,47 @@
         <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>345.0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
         <v>74</v>
       </c>
-      <c r="B25" t="s">
+      <c r="H25" t="s">
         <v>75</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>190.0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>400.0</v>
+        <v>348.0</v>
       </c>
       <c r="E26" t="s">
         <v>16</v>
@@ -2445,258 +2565,249 @@
         <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>292.0</v>
+        <v>325.0</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>480.0</v>
+        <v>516.0</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G28" t="s">
         <v>17</v>
       </c>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>516.0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" t="s">
-        <v>17</v>
+        <v>79.0</v>
       </c>
       <c r="H29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>715.0</v>
+        <v>312.0</v>
       </c>
       <c r="E30" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="H30" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31">
-        <v>271.0</v>
+        <v>315.0</v>
       </c>
       <c r="E31" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>901.0</v>
+        <v>345.0</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="H32" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>50.0</v>
+        <v>395.0</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="H33" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>241.0</v>
+        <v>190.0</v>
       </c>
       <c r="E34" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F34" t="s">
         <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>480.0</v>
+        <v>435.0</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="H35" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>430.0</v>
+        <v>335.0</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
@@ -2705,76 +2816,76 @@
         <v>17</v>
       </c>
       <c r="H36" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37">
-        <v>386.0</v>
+        <v>315.0</v>
       </c>
       <c r="E37" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="H37" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>405.0</v>
+        <v>292.0</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
         <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39">
         <v>430.0</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
@@ -2783,671 +2894,674 @@
         <v>17</v>
       </c>
       <c r="H39" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40">
-        <v>570.0</v>
+        <v>430.0</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41">
-        <v>219.0</v>
+        <v>480.0</v>
       </c>
       <c r="E41" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G41" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="H41" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42">
-        <v>375.0</v>
+        <v>458.0</v>
       </c>
       <c r="E42" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F42" t="s">
         <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H42" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43">
-        <v>480.0</v>
+        <v>715.0</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="H43" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44">
         <v>901.0</v>
       </c>
       <c r="E44" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="G44" t="s">
         <v>17</v>
       </c>
       <c r="H44" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45">
-        <v>345.0</v>
+        <v>271.0</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G45" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46">
-        <v>400.0</v>
+        <v>901.0</v>
       </c>
       <c r="E46" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="G46" t="s">
         <v>17</v>
       </c>
       <c r="H46" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47">
-        <v>456.0</v>
+        <v>50.0</v>
       </c>
       <c r="E47" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="H47" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48">
-        <v>416.0</v>
+        <v>530.0</v>
       </c>
       <c r="E48" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G48" t="s">
         <v>17</v>
       </c>
       <c r="H48" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B49" t="s">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49">
-        <v>206.0</v>
+        <v>530.0</v>
       </c>
       <c r="E49" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H49" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50">
-        <v>669.0</v>
+        <v>241.0</v>
       </c>
       <c r="E50" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="F50" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="G50" t="s">
         <v>17</v>
+      </c>
+      <c r="H50" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51">
-        <v>335.0</v>
+        <v>405.0</v>
       </c>
       <c r="E51" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F51" t="s">
         <v>11</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52">
-        <v>315.0</v>
+        <v>395.0</v>
       </c>
       <c r="E52" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F52" t="s">
         <v>11</v>
       </c>
       <c r="G52" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53">
-        <v>405.0</v>
+        <v>480.0</v>
       </c>
       <c r="E53" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F53" t="s">
         <v>11</v>
       </c>
       <c r="G53" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H53" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54">
-        <v>242.0</v>
+        <v>386.0</v>
       </c>
       <c r="E54" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55">
-        <v>450.0</v>
+        <v>405.0</v>
       </c>
       <c r="E55" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F55" t="s">
         <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="H55" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56">
-        <v>305.0</v>
+        <v>450.0</v>
       </c>
       <c r="E56" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="F56" t="s">
         <v>11</v>
       </c>
       <c r="G56" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H56" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B57" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57">
-        <v>436.0</v>
+        <v>305.0</v>
       </c>
       <c r="E57" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B58" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58">
-        <v>466.0</v>
+        <v>570.0</v>
       </c>
       <c r="E58" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="F58" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H58" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59">
-        <v>450.0</v>
+        <v>219.0</v>
       </c>
       <c r="E59" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="F59" t="s">
         <v>11</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="H59" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60">
-        <v>466.0</v>
+        <v>480.0</v>
       </c>
       <c r="E60" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G60" t="s">
         <v>17</v>
       </c>
       <c r="H60" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61">
-        <v>198.0</v>
+        <v>400.0</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F61" t="s">
         <v>11</v>
       </c>
       <c r="G61" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H61" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B62" t="s">
         <v>45</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62">
-        <v>418.0</v>
+        <v>445.0</v>
       </c>
       <c r="E62" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G62" t="s">
         <v>17</v>
       </c>
       <c r="H62" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63">
-        <v>458.0</v>
+        <v>456.0</v>
       </c>
       <c r="E63" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64">
-        <v>375.0</v>
+        <v>416.0</v>
       </c>
       <c r="E64" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G64" t="s">
         <v>17</v>
       </c>
       <c r="H64" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B65" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
       <c r="D65">
-        <v>256.0</v>
+        <v>206.0</v>
       </c>
       <c r="E65" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="F65" t="s">
         <v>11</v>
@@ -3456,102 +3570,99 @@
         <v>12</v>
       </c>
       <c r="H65" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B66" t="s">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
       <c r="D66">
-        <v>902.0</v>
+        <v>669.0</v>
       </c>
       <c r="E66" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="G66" t="s">
         <v>17</v>
-      </c>
-      <c r="H66" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
       <c r="D67">
-        <v>490.0</v>
+        <v>325.0</v>
       </c>
       <c r="E67" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F67" t="s">
         <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H67" t="s">
-        <v>176</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B68" t="s">
-        <v>178</v>
+        <v>29</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
       <c r="D68">
-        <v>345.0</v>
+        <v>242.0</v>
       </c>
       <c r="E68" t="s">
-        <v>179</v>
+        <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H68" t="s">
-        <v>180</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B69" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
       <c r="D69">
-        <v>398.0</v>
+        <v>450.0</v>
       </c>
       <c r="E69" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="F69" t="s">
         <v>11</v>
@@ -3560,128 +3671,128 @@
         <v>17</v>
       </c>
       <c r="H69" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B70" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
       <c r="D70">
-        <v>811.0</v>
+        <v>336.0</v>
       </c>
       <c r="E70" t="s">
         <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="G70" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H70" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B71" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="C71">
         <v>2</v>
       </c>
       <c r="D71">
-        <v>291.0</v>
+        <v>450.0</v>
       </c>
       <c r="E71" t="s">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="F71" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="G71" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H71" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B72" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
       <c r="D72">
-        <v>456.0</v>
+        <v>305.0</v>
       </c>
       <c r="E72" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="G72" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H72" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
       <c r="D73">
-        <v>388.0</v>
+        <v>466.0</v>
       </c>
       <c r="E73" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="G73" t="s">
         <v>17</v>
       </c>
       <c r="H73" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
       <c r="D74">
-        <v>395.0</v>
+        <v>450.0</v>
       </c>
       <c r="E74" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="F74" t="s">
         <v>11</v>
@@ -3690,24 +3801,24 @@
         <v>17</v>
       </c>
       <c r="H74" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
       <c r="D75">
-        <v>460.0</v>
+        <v>380.0</v>
       </c>
       <c r="E75" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F75" t="s">
         <v>11</v>
@@ -3716,440 +3827,440 @@
         <v>17</v>
       </c>
       <c r="H75" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B76" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
       <c r="D76">
-        <v>386.0</v>
+        <v>198.0</v>
       </c>
       <c r="E76" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="F76" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="G76" t="s">
         <v>12</v>
       </c>
       <c r="H76" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C77">
         <v>2</v>
       </c>
       <c r="D77">
-        <v>445.0</v>
+        <v>418.0</v>
       </c>
       <c r="E77" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G77" t="s">
         <v>17</v>
       </c>
       <c r="H77" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B78" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c r="C78">
         <v>2</v>
       </c>
       <c r="D78">
-        <v>334.0</v>
+        <v>219.0</v>
       </c>
       <c r="E78" t="s">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="F78" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G78" t="s">
         <v>12</v>
       </c>
       <c r="H78" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
       <c r="D79">
-        <v>160.0</v>
+        <v>375.0</v>
       </c>
       <c r="E79" t="s">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H79" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B80" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
       <c r="D80">
-        <v>336.0</v>
+        <v>256.0</v>
       </c>
       <c r="E80" t="s">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="F80" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="G80" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H80" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c r="C81">
         <v>2</v>
       </c>
       <c r="D81">
-        <v>530.0</v>
+        <v>902.0</v>
       </c>
       <c r="E81" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G81" t="s">
         <v>17</v>
       </c>
       <c r="H81" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B82" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82">
-        <v>199.0</v>
+        <v>368.0</v>
       </c>
       <c r="E82" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F82" t="s">
         <v>11</v>
       </c>
       <c r="G82" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H82" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B83" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>198.0</v>
+        <v>418.0</v>
       </c>
       <c r="E83" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F83" t="s">
         <v>11</v>
       </c>
       <c r="G83" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="H83" t="s">
-        <v>37</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B84" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>199.0</v>
+        <v>490.0</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F84" t="s">
         <v>11</v>
       </c>
       <c r="G84" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="H84" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B85" t="s">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>206.0</v>
+        <v>480.0</v>
       </c>
       <c r="E85" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="F85" t="s">
         <v>11</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H85" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B86" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86">
-        <v>389.0</v>
+        <v>345.0</v>
       </c>
       <c r="E86" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G86" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="H86" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B87" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87">
-        <v>435.0</v>
+        <v>398.0</v>
       </c>
       <c r="E87" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F87" t="s">
         <v>11</v>
       </c>
       <c r="G87" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H87" t="s">
-        <v>51</v>
+        <v>211</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B88" t="s">
-        <v>219</v>
+        <v>112</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D88">
-        <v>261.0</v>
+        <v>811.0</v>
       </c>
       <c r="E88" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="G88" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H88" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B89" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89">
-        <v>315.0</v>
+        <v>715.0</v>
       </c>
       <c r="E89" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="G89" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H89" t="s">
-        <v>222</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B90" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90">
-        <v>325.0</v>
+        <v>291.0</v>
       </c>
       <c r="E90" t="s">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="G90" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H90" t="s">
-        <v>71</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B91" t="s">
-        <v>225</v>
+        <v>158</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91">
-        <v>246.0</v>
+        <v>456.0</v>
       </c>
       <c r="E91" t="s">
-        <v>226</v>
+        <v>159</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="G91" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="H91" t="s">
-        <v>227</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B92" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92">
-        <v>450.0</v>
+        <v>388.0</v>
       </c>
       <c r="E92" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="F92" t="s">
         <v>11</v>
@@ -4158,310 +4269,310 @@
         <v>17</v>
       </c>
       <c r="H92" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B93" t="s">
-        <v>231</v>
+        <v>15</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93">
-        <v>271.0</v>
+        <v>460.0</v>
       </c>
       <c r="E93" t="s">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="F93" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="G93" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="H93" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B94" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94">
-        <v>336.0</v>
+        <v>386.0</v>
       </c>
       <c r="E94" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="F94" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="G94" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H94" t="s">
-        <v>205</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95">
-        <v>460.0</v>
+        <v>334.0</v>
       </c>
       <c r="E95" t="s">
-        <v>25</v>
+        <v>224</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G95" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H95" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B96" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96">
-        <v>325.0</v>
+        <v>160.0</v>
       </c>
       <c r="E96" t="s">
-        <v>114</v>
+        <v>227</v>
       </c>
       <c r="F96" t="s">
         <v>11</v>
       </c>
       <c r="G96" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="H96" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97">
-        <v>520.0</v>
+        <v>881.0</v>
       </c>
       <c r="E97" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H97" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B98" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98">
-        <v>352.0</v>
+        <v>336.0</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="G98" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H98" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B99" t="s">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99">
-        <v>396.0</v>
+        <v>199.0</v>
       </c>
       <c r="E99" t="s">
-        <v>242</v>
+        <v>49</v>
       </c>
       <c r="F99" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="G99" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H99" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B100" t="s">
+        <v>48</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>198.0</v>
+      </c>
+      <c r="E100" t="s">
         <v>49</v>
       </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100">
-        <v>345.0</v>
-      </c>
-      <c r="E100" t="s">
-        <v>16</v>
-      </c>
       <c r="F100" t="s">
         <v>11</v>
       </c>
       <c r="G100" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="H100" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B101" t="s">
-        <v>246</v>
+        <v>48</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101">
-        <v>213.0</v>
+        <v>199.0</v>
       </c>
       <c r="E101" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F101" t="s">
         <v>11</v>
       </c>
       <c r="G101" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B102" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102">
-        <v>291.0</v>
+        <v>206.0</v>
       </c>
       <c r="E102" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="F102" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="G102" t="s">
         <v>12</v>
       </c>
       <c r="H102" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B103" t="s">
-        <v>49</v>
+        <v>238</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103">
-        <v>305.0</v>
+        <v>389.0</v>
       </c>
       <c r="E103" t="s">
-        <v>114</v>
+        <v>239</v>
       </c>
       <c r="F103" t="s">
         <v>11</v>
       </c>
       <c r="G103" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="H103" t="s">
-        <v>151</v>
+        <v>240</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B104" t="s">
-        <v>49</v>
+        <v>242</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104">
-        <v>325.0</v>
+        <v>261.0</v>
       </c>
       <c r="E104" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="F104" t="s">
         <v>11</v>
@@ -4470,743 +4581,752 @@
         <v>17</v>
       </c>
       <c r="H104" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B105" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105">
-        <v>305.0</v>
+        <v>315.0</v>
       </c>
       <c r="E105" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="F105" t="s">
         <v>11</v>
       </c>
       <c r="G105" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="H105" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B106" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106">
-        <v>281.0</v>
+        <v>246.0</v>
       </c>
       <c r="E106" t="s">
-        <v>29</v>
+        <v>248</v>
       </c>
       <c r="F106" t="s">
         <v>11</v>
       </c>
       <c r="G106" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="H106" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B107" t="s">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107">
-        <v>230.0</v>
+        <v>345.0</v>
       </c>
       <c r="E107" t="s">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="F107" t="s">
         <v>11</v>
       </c>
       <c r="G107" t="s">
-        <v>258</v>
+        <v>17</v>
       </c>
       <c r="H107" t="s">
-        <v>259</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B108" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108">
-        <v>386.0</v>
+        <v>490.0</v>
       </c>
       <c r="E108" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="F108" t="s">
         <v>11</v>
       </c>
       <c r="G108" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="H108" t="s">
-        <v>261</v>
+        <v>204</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B109" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109">
-        <v>218.0</v>
+        <v>380.0</v>
       </c>
       <c r="E109" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F109" t="s">
         <v>11</v>
       </c>
       <c r="G109" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="H109" t="s">
-        <v>263</v>
+        <v>183</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B110" t="s">
-        <v>35</v>
+        <v>254</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110">
-        <v>209.0</v>
+        <v>271.0</v>
       </c>
       <c r="E110" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="G110" t="s">
-        <v>265</v>
+        <v>74</v>
       </c>
       <c r="H110" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B111" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111">
-        <v>199.0</v>
+        <v>460.0</v>
       </c>
       <c r="E111" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F111" t="s">
         <v>11</v>
       </c>
       <c r="G111" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H111" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B112" t="s">
-        <v>214</v>
+        <v>45</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112">
-        <v>288.0</v>
+        <v>345.0</v>
       </c>
       <c r="E112" t="s">
-        <v>269</v>
+        <v>139</v>
       </c>
       <c r="F112" t="s">
         <v>11</v>
       </c>
       <c r="G112" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H112" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B113" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113">
-        <v>219.0</v>
+        <v>465.0</v>
       </c>
       <c r="E113" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F113" t="s">
         <v>11</v>
       </c>
       <c r="G113" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="H113" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B114" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114">
-        <v>219.0</v>
+        <v>325.0</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="F114" t="s">
         <v>11</v>
       </c>
       <c r="G114" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="H114" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B115" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115">
-        <v>298.0</v>
+        <v>520.0</v>
       </c>
       <c r="E115" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F115" t="s">
         <v>11</v>
       </c>
       <c r="G115" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="H115" t="s">
-        <v>59</v>
+        <v>264</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B116" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116">
-        <v>295.0</v>
+        <v>352.0</v>
       </c>
       <c r="E116" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F116" t="s">
         <v>11</v>
       </c>
       <c r="G116" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="H116" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B117" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117">
-        <v>352.0</v>
+        <v>396.0</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>268</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H117" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B118" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
       <c r="D118">
-        <v>425.0</v>
+        <v>213.0</v>
       </c>
       <c r="E118" t="s">
-        <v>242</v>
+        <v>30</v>
       </c>
       <c r="F118" t="s">
         <v>11</v>
       </c>
       <c r="G118" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="H118" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B119" t="s">
-        <v>283</v>
+        <v>158</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119">
-        <v>401.0</v>
+        <v>291.0</v>
       </c>
       <c r="E119" t="s">
-        <v>284</v>
+        <v>193</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="G119" t="s">
-        <v>285</v>
+        <v>12</v>
       </c>
       <c r="H119" t="s">
-        <v>286</v>
+        <v>216</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B120" t="s">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120">
-        <v>261.0</v>
+        <v>345.0</v>
       </c>
       <c r="E120" t="s">
-        <v>289</v>
+        <v>16</v>
       </c>
       <c r="F120" t="s">
         <v>11</v>
       </c>
       <c r="G120" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="H120" t="s">
-        <v>290</v>
+        <v>75</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="B121" t="s">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121">
-        <v>249.0</v>
+        <v>305.0</v>
       </c>
       <c r="E121" t="s">
-        <v>257</v>
+        <v>139</v>
       </c>
       <c r="F121" t="s">
         <v>11</v>
       </c>
       <c r="G121" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="H121" t="s">
-        <v>292</v>
+        <v>177</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="B122" t="s">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122">
-        <v>0.0</v>
+        <v>325.0</v>
+      </c>
+      <c r="E122" t="s">
+        <v>139</v>
+      </c>
+      <c r="F122" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122" t="s">
+        <v>17</v>
       </c>
       <c r="H122" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="B123" t="s">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123">
-        <v>189.0</v>
+        <v>335.0</v>
       </c>
       <c r="E123" t="s">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="F123" t="s">
         <v>11</v>
       </c>
       <c r="G123" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="H123" t="s">
-        <v>297</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="B124" t="s">
-        <v>58</v>
+        <v>242</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124">
-        <v>418.0</v>
+        <v>281.0</v>
       </c>
       <c r="E124" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F124" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G124" t="s">
         <v>17</v>
       </c>
       <c r="H124" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="B125" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
       <c r="D125">
-        <v>448.0</v>
+        <v>230.0</v>
       </c>
       <c r="E125" t="s">
-        <v>25</v>
+        <v>282</v>
       </c>
       <c r="F125" t="s">
         <v>11</v>
       </c>
       <c r="G125" t="s">
-        <v>17</v>
+        <v>283</v>
       </c>
       <c r="H125" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="B126" t="s">
-        <v>304</v>
+        <v>115</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126">
-        <v>253.0</v>
+        <v>386.0</v>
       </c>
       <c r="E126" t="s">
-        <v>305</v>
+        <v>139</v>
       </c>
       <c r="F126" t="s">
         <v>11</v>
       </c>
       <c r="G126" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H126" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="B127" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
       <c r="D127">
-        <v>520.0</v>
+        <v>218.0</v>
       </c>
       <c r="E127" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G127" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="H127" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="B128" t="s">
-        <v>283</v>
+        <v>48</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
       <c r="D128">
-        <v>331.0</v>
+        <v>209.0</v>
       </c>
       <c r="E128" t="s">
-        <v>310</v>
+        <v>49</v>
       </c>
       <c r="F128" t="s">
         <v>11</v>
       </c>
       <c r="G128" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="H128" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="B129" t="s">
-        <v>283</v>
+        <v>48</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129">
-        <v>421.0</v>
+        <v>199.0</v>
       </c>
       <c r="E129" t="s">
-        <v>310</v>
+        <v>49</v>
       </c>
       <c r="F129" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G129" t="s">
-        <v>285</v>
+        <v>12</v>
       </c>
       <c r="H129" t="s">
-        <v>314</v>
+        <v>233</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="B130" t="s">
-        <v>316</v>
+        <v>238</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130">
-        <v>619.0</v>
+        <v>288.0</v>
       </c>
       <c r="E130" t="s">
-        <v>173</v>
+        <v>294</v>
       </c>
       <c r="F130" t="s">
         <v>11</v>
       </c>
       <c r="G130" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="H130" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="B131" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
       <c r="D131">
-        <v>395.0</v>
+        <v>425.0</v>
       </c>
       <c r="E131" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="F131" t="s">
         <v>11</v>
       </c>
       <c r="G131" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="H131" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="B132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>219.0</v>
+      </c>
+      <c r="E132" t="s">
         <v>49</v>
       </c>
-      <c r="C132">
-        <v>1</v>
-      </c>
-      <c r="D132">
-        <v>395.0</v>
-      </c>
-      <c r="E132" t="s">
-        <v>16</v>
-      </c>
       <c r="F132" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G132" t="s">
         <v>17</v>
       </c>
       <c r="H132" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B133" t="s">
-        <v>323</v>
+        <v>33</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133">
-        <v>419.0</v>
+        <v>368.0</v>
       </c>
       <c r="E133" t="s">
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="F133" t="s">
         <v>11</v>
@@ -5215,829 +5335,844 @@
         <v>17</v>
       </c>
       <c r="H133" t="s">
-        <v>324</v>
+        <v>200</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="B134" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134">
-        <v>500.0</v>
+        <v>298.0</v>
       </c>
       <c r="E134" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G134" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H134" t="s">
-        <v>326</v>
+        <v>68</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="B135" t="s">
-        <v>328</v>
+        <v>45</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135">
-        <v>416.0</v>
+        <v>295.0</v>
       </c>
       <c r="E135" t="s">
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="F135" t="s">
         <v>11</v>
       </c>
       <c r="G135" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="H135" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="B136" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136">
-        <v>368.0</v>
+        <v>352.0</v>
       </c>
       <c r="E136" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F136" t="s">
         <v>11</v>
       </c>
       <c r="G136" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H136" t="s">
-        <v>331</v>
+        <v>266</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="B137" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137">
-        <v>339.0</v>
+        <v>425.0</v>
       </c>
       <c r="E137" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="F137" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G137" t="s">
-        <v>311</v>
+        <v>74</v>
       </c>
       <c r="H137" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="B138" t="s">
-        <v>168</v>
+        <v>309</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138">
-        <v>211.0</v>
+        <v>401.0</v>
       </c>
       <c r="E138" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="F138" t="s">
         <v>11</v>
       </c>
       <c r="G138" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="H138" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="B139" t="s">
+        <v>314</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>261.0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>315</v>
+      </c>
+      <c r="F139" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" t="s">
+        <v>74</v>
+      </c>
+      <c r="H139" t="s">
         <v>316</v>
-      </c>
-      <c r="C139">
-        <v>1</v>
-      </c>
-      <c r="D139">
-        <v>520.0</v>
-      </c>
-      <c r="E139" t="s">
-        <v>173</v>
-      </c>
-      <c r="F139" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" t="s">
-        <v>68</v>
-      </c>
-      <c r="H139" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="B140" t="s">
-        <v>58</v>
+        <v>281</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
       <c r="D140">
-        <v>418.0</v>
+        <v>249.0</v>
       </c>
       <c r="E140" t="s">
-        <v>25</v>
+        <v>282</v>
       </c>
       <c r="F140" t="s">
         <v>11</v>
       </c>
       <c r="G140" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H140" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="B141" t="s">
-        <v>15</v>
+        <v>320</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>530.0</v>
-      </c>
-      <c r="E141" t="s">
-        <v>25</v>
-      </c>
-      <c r="F141" t="s">
-        <v>42</v>
-      </c>
-      <c r="G141" t="s">
-        <v>17</v>
+        <v>0.0</v>
       </c>
       <c r="H141" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="B142" t="s">
-        <v>49</v>
+        <v>281</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142">
-        <v>375.0</v>
+        <v>189.0</v>
       </c>
       <c r="E142" t="s">
-        <v>16</v>
+        <v>282</v>
       </c>
       <c r="F142" t="s">
         <v>11</v>
       </c>
       <c r="G142" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="H142" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="B143" t="s">
-        <v>347</v>
+        <v>67</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143">
-        <v>326.0</v>
+        <v>418.0</v>
       </c>
       <c r="E143" t="s">
-        <v>348</v>
+        <v>22</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G143" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="H143" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="B144" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144">
-        <v>120.0</v>
+        <v>448.0</v>
       </c>
       <c r="E144" t="s">
-        <v>352</v>
+        <v>22</v>
       </c>
       <c r="F144" t="s">
         <v>11</v>
       </c>
       <c r="G144" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="H144" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="B145" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>715.0</v>
+        <v>466.0</v>
       </c>
       <c r="E145" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="F145" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="G145" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="H145" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="B146" t="s">
-        <v>49</v>
+        <v>331</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>375.0</v>
+        <v>253.0</v>
       </c>
       <c r="E146" t="s">
-        <v>114</v>
+        <v>332</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G146" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="H146" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="B147" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>219.0</v>
+        <v>520.0</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G147" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="H147" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="B148" t="s">
-        <v>133</v>
+        <v>309</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>436.0</v>
+        <v>331.0</v>
       </c>
       <c r="E148" t="s">
-        <v>242</v>
+        <v>337</v>
       </c>
       <c r="F148" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="G148" t="s">
-        <v>50</v>
+        <v>338</v>
       </c>
       <c r="H148" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="B149" t="s">
-        <v>362</v>
+        <v>309</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>336.0</v>
+        <v>421.0</v>
       </c>
       <c r="E149" t="s">
-        <v>242</v>
+        <v>337</v>
       </c>
       <c r="F149" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="G149" t="s">
-        <v>68</v>
+        <v>311</v>
       </c>
       <c r="H149" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="B150" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>525.0</v>
+        <v>619.0</v>
       </c>
       <c r="E150" t="s">
-        <v>366</v>
+        <v>197</v>
       </c>
       <c r="F150" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="G150" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H150" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="B151" t="s">
-        <v>369</v>
+        <v>45</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>691.0</v>
+        <v>395.0</v>
       </c>
       <c r="E151" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="F151" t="s">
         <v>11</v>
       </c>
       <c r="G151" t="s">
-        <v>285</v>
+        <v>17</v>
       </c>
       <c r="H151" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="B152" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>425.0</v>
+        <v>395.0</v>
       </c>
       <c r="E152" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G152" t="s">
         <v>17</v>
       </c>
       <c r="H152" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="B153" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>314.0</v>
+        <v>419.0</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>268</v>
       </c>
       <c r="F153" t="s">
         <v>11</v>
       </c>
       <c r="G153" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H153" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="B154" t="s">
-        <v>283</v>
+        <v>71</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>471.0</v>
+        <v>500.0</v>
       </c>
       <c r="E154" t="s">
-        <v>284</v>
+        <v>125</v>
       </c>
       <c r="F154" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G154" t="s">
-        <v>285</v>
+        <v>17</v>
       </c>
       <c r="H154" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="B155" t="s">
-        <v>168</v>
+        <v>355</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>301.0</v>
+        <v>416.0</v>
       </c>
       <c r="E155" t="s">
-        <v>169</v>
+        <v>268</v>
       </c>
       <c r="F155" t="s">
-        <v>378</v>
+        <v>11</v>
       </c>
       <c r="G155" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="H155" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="B156" t="s">
-        <v>381</v>
+        <v>71</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>455.0</v>
+        <v>470.0</v>
       </c>
       <c r="E156" t="s">
-        <v>382</v>
+        <v>22</v>
       </c>
       <c r="F156" t="s">
         <v>11</v>
       </c>
       <c r="G156" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="H156" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="B157" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>1134.0</v>
+        <v>339.0</v>
       </c>
       <c r="E157" t="s">
-        <v>386</v>
+        <v>315</v>
       </c>
       <c r="F157" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G157" t="s">
-        <v>50</v>
+        <v>338</v>
       </c>
       <c r="H157" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="B158" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>318.0</v>
+        <v>211.0</v>
       </c>
       <c r="E158" t="s">
-        <v>16</v>
+        <v>363</v>
       </c>
       <c r="F158" t="s">
         <v>11</v>
       </c>
       <c r="G158" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H158" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="B159" t="s">
-        <v>137</v>
+        <v>343</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>416.0</v>
+        <v>520.0</v>
       </c>
       <c r="E159" t="s">
-        <v>114</v>
+        <v>197</v>
       </c>
       <c r="F159" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G159" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="H159" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="B160" t="s">
-        <v>256</v>
+        <v>15</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>239.0</v>
+        <v>530.0</v>
       </c>
       <c r="E160" t="s">
-        <v>257</v>
+        <v>22</v>
       </c>
       <c r="F160" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G160" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H160" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="B161" t="s">
-        <v>395</v>
+        <v>45</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>1.0</v>
+        <v>375.0</v>
+      </c>
+      <c r="E161" t="s">
+        <v>16</v>
+      </c>
+      <c r="F161" t="s">
+        <v>11</v>
+      </c>
+      <c r="G161" t="s">
+        <v>55</v>
+      </c>
+      <c r="H161" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="B162" t="s">
-        <v>256</v>
+        <v>372</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>239.0</v>
+        <v>326.0</v>
       </c>
       <c r="E162" t="s">
-        <v>257</v>
+        <v>373</v>
       </c>
       <c r="F162" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G162" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="H162" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="B163" t="s">
-        <v>398</v>
+        <v>45</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>536.0</v>
+        <v>415.0</v>
       </c>
       <c r="E163" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="F163" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="G163" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H163" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="B164" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>2.0</v>
+        <v>120.0</v>
+      </c>
+      <c r="E164" t="s">
+        <v>379</v>
+      </c>
+      <c r="F164" t="s">
+        <v>11</v>
+      </c>
+      <c r="G164" t="s">
+        <v>122</v>
+      </c>
+      <c r="H164" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="B165" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>650.0</v>
+        <v>375.0</v>
       </c>
       <c r="E165" t="s">
-        <v>403</v>
+        <v>139</v>
       </c>
       <c r="F165" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="G165" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="H165" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="B166" t="s">
-        <v>406</v>
+        <v>9</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>304.0</v>
+        <v>219.0</v>
       </c>
       <c r="E166" t="s">
         <v>10</v>
@@ -6046,313 +6181,313 @@
         <v>11</v>
       </c>
       <c r="G166" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="H166" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="B167" t="s">
-        <v>409</v>
+        <v>158</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>381.0</v>
+        <v>436.0</v>
       </c>
       <c r="E167" t="s">
-        <v>410</v>
+        <v>268</v>
       </c>
       <c r="F167" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="G167" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="H167" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="B168" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>575.0</v>
+        <v>336.0</v>
       </c>
       <c r="E168" t="s">
-        <v>89</v>
+        <v>268</v>
       </c>
       <c r="F168" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="G168" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H168" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="B169" t="s">
-        <v>100</v>
+        <v>391</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>50.0</v>
+        <v>525.0</v>
       </c>
       <c r="E169" t="s">
-        <v>101</v>
+        <v>392</v>
       </c>
       <c r="F169" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="G169" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="H169" t="s">
-        <v>103</v>
+        <v>393</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="B170" t="s">
-        <v>9</v>
+        <v>395</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>219.0</v>
+        <v>691.0</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="F170" t="s">
         <v>11</v>
       </c>
       <c r="G170" t="s">
-        <v>17</v>
+        <v>311</v>
       </c>
       <c r="H170" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="B171" t="s">
-        <v>417</v>
+        <v>45</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>110.0</v>
+        <v>425.0</v>
       </c>
       <c r="E171" t="s">
-        <v>201</v>
+        <v>22</v>
       </c>
       <c r="F171" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="G171" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H171" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="B172" t="s">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>160.0</v>
+        <v>314.0</v>
       </c>
       <c r="E172" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="G172" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="H172" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="B173" t="s">
-        <v>35</v>
+        <v>309</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>208.0</v>
+        <v>471.0</v>
       </c>
       <c r="E173" t="s">
-        <v>36</v>
+        <v>310</v>
       </c>
       <c r="F173" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G173" t="s">
-        <v>17</v>
+        <v>311</v>
       </c>
       <c r="H173" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="B174" t="s">
-        <v>398</v>
+        <v>192</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>726.0</v>
+        <v>301.0</v>
       </c>
       <c r="E174" t="s">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="F174" t="s">
-        <v>90</v>
+        <v>404</v>
       </c>
       <c r="G174" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="H174" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="B175" t="s">
-        <v>283</v>
+        <v>407</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>371.0</v>
+        <v>455.0</v>
       </c>
       <c r="E175" t="s">
-        <v>310</v>
+        <v>408</v>
       </c>
       <c r="F175" t="s">
         <v>11</v>
       </c>
       <c r="G175" t="s">
-        <v>285</v>
+        <v>74</v>
       </c>
       <c r="H175" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="B176" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>959.0</v>
+        <v>475.0</v>
       </c>
       <c r="E176" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="F176" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="G176" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H176" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="B177" t="s">
-        <v>49</v>
+        <v>414</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>445.0</v>
+        <v>1134.0</v>
       </c>
       <c r="E177" t="s">
-        <v>25</v>
+        <v>415</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G177" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="H177" t="s">
-        <v>196</v>
+        <v>416</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="B178" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>427.0</v>
+        <v>318.0</v>
       </c>
       <c r="E178" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F178" t="s">
         <v>11</v>
@@ -6361,449 +6496,1075 @@
         <v>17</v>
       </c>
       <c r="H178" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="B179" t="s">
-        <v>434</v>
+        <v>39</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>892.0</v>
+        <v>416.0</v>
       </c>
       <c r="E179" t="s">
-        <v>435</v>
+        <v>139</v>
       </c>
       <c r="F179" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="G179" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H179" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="B180" t="s">
-        <v>97</v>
+        <v>281</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>881.0</v>
+        <v>239.0</v>
       </c>
       <c r="E180" t="s">
-        <v>25</v>
+        <v>282</v>
       </c>
       <c r="F180" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="G180" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H180" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="B181" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>199.0</v>
-      </c>
-      <c r="E181" t="s">
-        <v>441</v>
-      </c>
-      <c r="F181" t="s">
-        <v>11</v>
-      </c>
-      <c r="G181" t="s">
-        <v>12</v>
-      </c>
-      <c r="H181" t="s">
-        <v>442</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="B182" t="s">
-        <v>133</v>
+        <v>281</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>356.0</v>
+        <v>239.0</v>
       </c>
       <c r="E182" t="s">
-        <v>16</v>
+        <v>282</v>
       </c>
       <c r="F182" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="G182" t="s">
         <v>12</v>
       </c>
       <c r="H182" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="B183" t="s">
-        <v>155</v>
+        <v>427</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>376.0</v>
+        <v>536.0</v>
       </c>
       <c r="E183" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F183" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="G183" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="H183" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="B184" t="s">
-        <v>133</v>
+        <v>430</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>396.0</v>
-      </c>
-      <c r="E184" t="s">
-        <v>16</v>
-      </c>
-      <c r="F184" t="s">
-        <v>90</v>
-      </c>
-      <c r="G184" t="s">
-        <v>17</v>
-      </c>
-      <c r="H184" t="s">
-        <v>448</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="B185" t="s">
-        <v>450</v>
+        <v>107</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>475.0</v>
+        <v>650.0</v>
       </c>
       <c r="E185" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F185" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="G185" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H185" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="B186" t="s">
-        <v>97</v>
+        <v>435</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>941.0</v>
+        <v>304.0</v>
       </c>
       <c r="E186" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="G186" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H186" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="B187" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>449.0</v>
+        <v>381.0</v>
       </c>
       <c r="E187" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="F187" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G187" t="s">
         <v>12</v>
       </c>
       <c r="H187" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="B188" t="s">
-        <v>333</v>
+        <v>427</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>328.0</v>
+        <v>575.0</v>
       </c>
       <c r="E188" t="s">
-        <v>289</v>
+        <v>108</v>
       </c>
       <c r="F188" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="G188" t="s">
-        <v>311</v>
+        <v>55</v>
       </c>
       <c r="H188" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="B189" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>430.0</v>
+        <v>50.0</v>
       </c>
       <c r="E189" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="F189" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="G189" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="H189" t="s">
-        <v>461</v>
+        <v>123</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="B190" t="s">
-        <v>463</v>
+        <v>9</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>386.0</v>
+        <v>219.0</v>
       </c>
       <c r="E190" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="G190" t="s">
         <v>17</v>
       </c>
       <c r="H190" t="s">
-        <v>464</v>
+        <v>384</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="B191" t="s">
-        <v>49</v>
+        <v>446</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>515.0</v>
+        <v>110.0</v>
       </c>
       <c r="E191" t="s">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="F191" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="G191" t="s">
-        <v>466</v>
+        <v>12</v>
       </c>
       <c r="H191" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="B192" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>191.0</v>
+        <v>160.0</v>
       </c>
       <c r="E192" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F192" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="G192" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="H192" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="B193" t="s">
-        <v>472</v>
+        <v>48</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>298.0</v>
+        <v>208.0</v>
       </c>
       <c r="E193" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F193" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="G193" t="s">
         <v>17</v>
       </c>
       <c r="H193" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="B194" t="s">
-        <v>49</v>
+        <v>427</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>325.0</v>
+        <v>726.0</v>
       </c>
       <c r="E194" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F194" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="G194" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="H194" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
+        <v>454</v>
+      </c>
+      <c r="B195" t="s">
+        <v>309</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>371.0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>337</v>
+      </c>
+      <c r="F195" t="s">
+        <v>11</v>
+      </c>
+      <c r="G195" t="s">
+        <v>311</v>
+      </c>
+      <c r="H195" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" t="s">
+        <v>456</v>
+      </c>
+      <c r="B196" t="s">
+        <v>457</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>959.0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>197</v>
+      </c>
+      <c r="F196" t="s">
+        <v>109</v>
+      </c>
+      <c r="G196" t="s">
+        <v>55</v>
+      </c>
+      <c r="H196" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" t="s">
+        <v>459</v>
+      </c>
+      <c r="B197" t="s">
+        <v>45</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>445.0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>22</v>
+      </c>
+      <c r="F197" t="s">
+        <v>52</v>
+      </c>
+      <c r="G197" t="s">
+        <v>74</v>
+      </c>
+      <c r="H197" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" t="s">
+        <v>460</v>
+      </c>
+      <c r="B198" t="s">
+        <v>67</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198">
+        <v>427.0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>22</v>
+      </c>
+      <c r="F198" t="s">
+        <v>11</v>
+      </c>
+      <c r="G198" t="s">
+        <v>17</v>
+      </c>
+      <c r="H198" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" t="s">
+        <v>462</v>
+      </c>
+      <c r="B199" t="s">
+        <v>463</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199">
+        <v>892.0</v>
+      </c>
+      <c r="E199" t="s">
+        <v>464</v>
+      </c>
+      <c r="F199" t="s">
+        <v>109</v>
+      </c>
+      <c r="G199" t="s">
+        <v>55</v>
+      </c>
+      <c r="H199" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" t="s">
+        <v>466</v>
+      </c>
+      <c r="B200" t="s">
+        <v>467</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>199.0</v>
+      </c>
+      <c r="E200" t="s">
+        <v>468</v>
+      </c>
+      <c r="F200" t="s">
+        <v>11</v>
+      </c>
+      <c r="G200" t="s">
+        <v>12</v>
+      </c>
+      <c r="H200" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" t="s">
+        <v>470</v>
+      </c>
+      <c r="B201" t="s">
+        <v>158</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>356.0</v>
+      </c>
+      <c r="E201" t="s">
+        <v>16</v>
+      </c>
+      <c r="F201" t="s">
+        <v>109</v>
+      </c>
+      <c r="G201" t="s">
+        <v>12</v>
+      </c>
+      <c r="H201" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" t="s">
+        <v>472</v>
+      </c>
+      <c r="B202" t="s">
+        <v>179</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>376.0</v>
+      </c>
+      <c r="E202" t="s">
+        <v>139</v>
+      </c>
+      <c r="F202" t="s">
+        <v>109</v>
+      </c>
+      <c r="G202" t="s">
+        <v>12</v>
+      </c>
+      <c r="H202" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" t="s">
+        <v>474</v>
+      </c>
+      <c r="B203" t="s">
+        <v>158</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>396.0</v>
+      </c>
+      <c r="E203" t="s">
+        <v>16</v>
+      </c>
+      <c r="F203" t="s">
+        <v>109</v>
+      </c>
+      <c r="G203" t="s">
+        <v>17</v>
+      </c>
+      <c r="H203" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" t="s">
         <v>476</v>
       </c>
-      <c r="B195" t="s">
-        <v>133</v>
-      </c>
-      <c r="C195">
-        <v>1</v>
-      </c>
-      <c r="D195">
+      <c r="B204" t="s">
+        <v>411</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>475.0</v>
+      </c>
+      <c r="E204" t="s">
+        <v>464</v>
+      </c>
+      <c r="F204" t="s">
+        <v>109</v>
+      </c>
+      <c r="G204" t="s">
+        <v>55</v>
+      </c>
+      <c r="H204" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" t="s">
+        <v>478</v>
+      </c>
+      <c r="B205" t="s">
+        <v>112</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>941.0</v>
+      </c>
+      <c r="E205" t="s">
+        <v>22</v>
+      </c>
+      <c r="F205" t="s">
+        <v>109</v>
+      </c>
+      <c r="G205" t="s">
+        <v>34</v>
+      </c>
+      <c r="H205" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" t="s">
+        <v>480</v>
+      </c>
+      <c r="B206" t="s">
+        <v>481</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>449.0</v>
+      </c>
+      <c r="E206" t="s">
+        <v>482</v>
+      </c>
+      <c r="F206" t="s">
+        <v>52</v>
+      </c>
+      <c r="G206" t="s">
+        <v>12</v>
+      </c>
+      <c r="H206" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" t="s">
+        <v>484</v>
+      </c>
+      <c r="B207" t="s">
+        <v>360</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>328.0</v>
+      </c>
+      <c r="E207" t="s">
+        <v>315</v>
+      </c>
+      <c r="F207" t="s">
+        <v>52</v>
+      </c>
+      <c r="G207" t="s">
+        <v>338</v>
+      </c>
+      <c r="H207" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" t="s">
+        <v>486</v>
+      </c>
+      <c r="B208" t="s">
+        <v>71</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>430.0</v>
+      </c>
+      <c r="E208" t="s">
+        <v>125</v>
+      </c>
+      <c r="F208" t="s">
+        <v>11</v>
+      </c>
+      <c r="G208" t="s">
+        <v>17</v>
+      </c>
+      <c r="H208" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" t="s">
+        <v>488</v>
+      </c>
+      <c r="B209" t="s">
+        <v>489</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>386.0</v>
+      </c>
+      <c r="E209" t="s">
+        <v>125</v>
+      </c>
+      <c r="F209" t="s">
+        <v>109</v>
+      </c>
+      <c r="G209" t="s">
+        <v>17</v>
+      </c>
+      <c r="H209" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" t="s">
+        <v>491</v>
+      </c>
+      <c r="B210" t="s">
+        <v>45</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>515.0</v>
+      </c>
+      <c r="E210" t="s">
+        <v>22</v>
+      </c>
+      <c r="F210" t="s">
+        <v>11</v>
+      </c>
+      <c r="G210" t="s">
+        <v>492</v>
+      </c>
+      <c r="H210" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" t="s">
+        <v>494</v>
+      </c>
+      <c r="B211" t="s">
+        <v>495</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>191.0</v>
+      </c>
+      <c r="E211" t="s">
+        <v>130</v>
+      </c>
+      <c r="F211" t="s">
+        <v>11</v>
+      </c>
+      <c r="G211" t="s">
+        <v>12</v>
+      </c>
+      <c r="H211" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" t="s">
+        <v>497</v>
+      </c>
+      <c r="B212" t="s">
+        <v>498</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>298.0</v>
+      </c>
+      <c r="E212" t="s">
+        <v>16</v>
+      </c>
+      <c r="F212" t="s">
+        <v>109</v>
+      </c>
+      <c r="G212" t="s">
+        <v>17</v>
+      </c>
+      <c r="H212" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" t="s">
+        <v>500</v>
+      </c>
+      <c r="B213" t="s">
+        <v>45</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>325.0</v>
+      </c>
+      <c r="E213" t="s">
+        <v>139</v>
+      </c>
+      <c r="F213" t="s">
+        <v>11</v>
+      </c>
+      <c r="G213" t="s">
+        <v>122</v>
+      </c>
+      <c r="H213" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" t="s">
+        <v>502</v>
+      </c>
+      <c r="B214" t="s">
+        <v>158</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
         <v>446.0</v>
       </c>
-      <c r="E195" t="s">
-        <v>477</v>
-      </c>
-      <c r="F195" t="s">
-        <v>90</v>
-      </c>
-      <c r="G195" t="s">
-        <v>68</v>
-      </c>
-      <c r="H195" t="s">
-        <v>478</v>
+      <c r="E214" t="s">
+        <v>503</v>
+      </c>
+      <c r="F214" t="s">
+        <v>109</v>
+      </c>
+      <c r="G214" t="s">
+        <v>74</v>
+      </c>
+      <c r="H214" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" t="s">
+        <v>505</v>
+      </c>
+      <c r="B215" t="s">
+        <v>71</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>380.0</v>
+      </c>
+      <c r="E215" t="s">
+        <v>139</v>
+      </c>
+      <c r="F215" t="s">
+        <v>11</v>
+      </c>
+      <c r="G215" t="s">
+        <v>17</v>
+      </c>
+      <c r="H215" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" t="s">
+        <v>507</v>
+      </c>
+      <c r="B216" t="s">
+        <v>67</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>397.0</v>
+      </c>
+      <c r="E216" t="s">
+        <v>22</v>
+      </c>
+      <c r="F216" t="s">
+        <v>11</v>
+      </c>
+      <c r="G216" t="s">
+        <v>34</v>
+      </c>
+      <c r="H216" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" t="s">
+        <v>509</v>
+      </c>
+      <c r="B217" t="s">
+        <v>510</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>137.0</v>
+      </c>
+      <c r="E217" t="s">
+        <v>468</v>
+      </c>
+      <c r="F217" t="s">
+        <v>11</v>
+      </c>
+      <c r="G217" t="s">
+        <v>12</v>
+      </c>
+      <c r="H217" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" t="s">
+        <v>512</v>
+      </c>
+      <c r="B218" t="s">
+        <v>45</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>325.0</v>
+      </c>
+      <c r="E218" t="s">
+        <v>139</v>
+      </c>
+      <c r="F218" t="s">
+        <v>11</v>
+      </c>
+      <c r="G218" t="s">
+        <v>12</v>
+      </c>
+      <c r="H218" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" t="s">
+        <v>513</v>
+      </c>
+      <c r="B219" t="s">
+        <v>67</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>318.0</v>
+      </c>
+      <c r="E219" t="s">
+        <v>16</v>
+      </c>
+      <c r="F219" t="s">
+        <v>11</v>
+      </c>
+      <c r="G219" t="s">
+        <v>12</v>
+      </c>
+      <c r="H219" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" t="s">
+        <v>515</v>
+      </c>
+      <c r="B220" t="s">
+        <v>48</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>219.0</v>
+      </c>
+      <c r="E220" t="s">
+        <v>49</v>
+      </c>
+      <c r="F220" t="s">
+        <v>11</v>
+      </c>
+      <c r="G220" t="s">
+        <v>12</v>
+      </c>
+      <c r="H220" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -7002,6 +7763,31 @@
     <hyperlink ref="A193" r:id="rId_hyperlink_192"/>
     <hyperlink ref="A194" r:id="rId_hyperlink_193"/>
     <hyperlink ref="A195" r:id="rId_hyperlink_194"/>
+    <hyperlink ref="A196" r:id="rId_hyperlink_195"/>
+    <hyperlink ref="A197" r:id="rId_hyperlink_196"/>
+    <hyperlink ref="A198" r:id="rId_hyperlink_197"/>
+    <hyperlink ref="A199" r:id="rId_hyperlink_198"/>
+    <hyperlink ref="A200" r:id="rId_hyperlink_199"/>
+    <hyperlink ref="A201" r:id="rId_hyperlink_200"/>
+    <hyperlink ref="A202" r:id="rId_hyperlink_201"/>
+    <hyperlink ref="A203" r:id="rId_hyperlink_202"/>
+    <hyperlink ref="A204" r:id="rId_hyperlink_203"/>
+    <hyperlink ref="A205" r:id="rId_hyperlink_204"/>
+    <hyperlink ref="A206" r:id="rId_hyperlink_205"/>
+    <hyperlink ref="A207" r:id="rId_hyperlink_206"/>
+    <hyperlink ref="A208" r:id="rId_hyperlink_207"/>
+    <hyperlink ref="A209" r:id="rId_hyperlink_208"/>
+    <hyperlink ref="A210" r:id="rId_hyperlink_209"/>
+    <hyperlink ref="A211" r:id="rId_hyperlink_210"/>
+    <hyperlink ref="A212" r:id="rId_hyperlink_211"/>
+    <hyperlink ref="A213" r:id="rId_hyperlink_212"/>
+    <hyperlink ref="A214" r:id="rId_hyperlink_213"/>
+    <hyperlink ref="A215" r:id="rId_hyperlink_214"/>
+    <hyperlink ref="A216" r:id="rId_hyperlink_215"/>
+    <hyperlink ref="A217" r:id="rId_hyperlink_216"/>
+    <hyperlink ref="A218" r:id="rId_hyperlink_217"/>
+    <hyperlink ref="A219" r:id="rId_hyperlink_218"/>
+    <hyperlink ref="A220" r:id="rId_hyperlink_219"/>
   </hyperlinks>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
